--- a/finetuning/it_datasets/qa_dataset/qa_it_kairouan_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_kairouan_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -671,14 +676,71 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Restaurant, check out GO Cafe located at GO Cafe, Medina de, Rue Mouley Taieb, en face de la Mosquee des Trois Portes Cite Jraba, Kairouan 3100. 
-This destination is perfect for Restaurant lovers and offers a range of Restaurant, Cafe categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at http://www.gocafe.tn/ or call them at 24 101 831.</t>
+          <t>GO Cafe, located in the heart of Kairouan, Tunisia, is a renowned eatery that seamlessly blends modern and traditional vibes. With a rating of 4.8/5 based on 63 reviews, it has garnered appreciation for its delectable Tunisian cuisine, cozy atmosphere, and prime location. Its proximity to the Medina and the Mosquee des Trois Portes offers patrons a convenient base to explore the city's historical and cultural treasures.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Which highly-rated Restaurant in Kairouan, featuring Restaurant and Cafe options, stands out with a 4.8 rating and is located on Rue Mouley Taieb?</t>
+          <t>Day Plan:
+Morning: Exploring the Kairouan Grand Mosque
+Mid-Morning: Trying local cuisine at Ci Gusta Kairouan
+Midday: Visiting the Sidi Ben Aissa Archaeological and Traditional Museum
+Afternoon: Enjoying a guided tour of DAR EL MRABET Maison Musee
+Evening: Shopping at Click'airouan STORE
+Night: Relaxing with a traditional Hammam experience at a local spa</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Wood'Z is a restaurant located in Kairouan, Tunisia, at the coordinates (35.6727967, 10.0949059). It has a rating of 4.8 out of 5 based on 8 reviews. The restaurant's owner is "Wood'Z (proprietaire)". Unfortunately, there is no detailed description or information about the services or cuisine offered by Wood'Z.
+Chez Mamie is a cafe in Kairouan, Tunisia. It has a 4.4-star rating on Google, and is known for its smoothies and proximity to the Great Mosque of Kairouan. The cafe is open from 8am to 11pm, and is located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+La Mosquée du Barbier, également connue sous le nom de Sidi Sahib, est un lieu historique situé dans la ville sainte de Kairouan, en Tunisie. Cette mosquée, qui remonte au XVIe siècle, est dédiée au saint Abou Zamaa El-Balaoui.
+Elle est célèbre pour son mausolée, où est enterré le saint, qui attire chaque année de nombreux pèlerins musulmans. La Mosquée du Barbier est un site culturel important qui témoigne de la riche histoire religieuse et architecturale de Kairouan.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -784,14 +846,70 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to relax and enjoy a bite to eat, check out Chez Mamie on 270 rue om iyadh houmet jemaa, kairouan. 
-This top-rated cafe is perfect for any cafe lover and offers a variety of brunch options to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at or call them at 50 333 411.</t>
+          <t>"Chez Mamie" is a popular cafe in Kairouan, Tunisia. It offers a cozy atmosphere, with indoor and outdoor seating. The menu includes a variety of breakfast and brunch items, as well as freshly squeezed smoothies. The cafe is located conveniently close to the Great Mosque of Kairouan, making it a great spot to grab a bite before or after exploring the historic site. With an impressive 4.4 rating based on 55 reviews, Chez Mamie is a top-rated destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (4.4) cafe with brunch options and extended hours (08:00-23:00) in Kairouan, located at 270 rue om iyadh houmet jemaa?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the historic Kairouan Grand Mosque, marveling at its architectural beauty and spiritual significance.
+**Mid-Morning:** Visit the Musée du Tapis to immerse yourself in the rich heritage of carpet weaving in Kairouan.
+**Midday:** Savor a traditional Tunisian lunch at Essiguifa, a highly-rated restaurant known for its authentic cuisine.
+**Afternoon:** Discover the historical Bassins des Aghlabides, gaining insights into medieval Islamic engineering and water management.
+**Evening:** Take a stroll through the vibrant Kasbah district, exploring its captivating souks and historical landmarks.
+**Night:** Indulge in a delightful dinner at Vintage Bistro, enjoying mouthwatering dishes inspired by local and international flavors.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Lablabi Gabssi is a restaurant located in kairouan, Tunisia. Its coordinates are (35.6727967, 10.0949059).
+Chez Mamie is a cafe in Kairouan, Tunisia. It has a 4.4-star rating on Google, and is known for its smoothies and proximity to the Great Mosque of Kairouan. The cafe is open from 8am to 11pm, and is located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -893,12 +1011,70 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great cafe, check out cafe hermess located at M39J+VP7 cafe hermess, Av. Mongi Slim, Kairouan. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 04:00-23:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+hermess/data=!4m7!3m6!1s0x12fdc55596aa4293:0x251d50d297523f53!8m2!3d35.6696631!4d10.0817934!16s%2Fg%2F11c20c35b7!19sChIJk0KqllXF_RIRUz9Sl9JQHSU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Café Hermès is a popular cafe located in Kairouan. Its address is M39J+VP7 cafe hermess, Av. Mongi Slim, Kairouan. It operates from 4:00 am to 11:00 pm every day, offering a cozy ambiance for its customers. Café Hermès has been positively reviewed online, with a rating of 4.0.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe offering a wide selection of cafe options, conveniently located at M39J+VP7 cafe hermess, Av. Mongi Slim, Kairouan?</t>
+          <t>Day Plan:
+Morning: Explore the ancient and historical Kairouan Grand Mosque, a significant spiritual and architectural landmark.
+Mid-Morning: Visit the Mausolee du Barbier, a popular tourist attraction known for its stunning architecture and historical significance.
+Midday: Try local cuisine at Ci Gusta Kairouan, a well-rated restaurant specializing in sundaes and delectable treats.
+Afternoon: Shop for traditional and artisanal products at Click'airouan STORE, conveniently located in the heart of the city's medina.
+Evening: Enjoy a cozy dinner at Vintage Bistro, a highly-rated eatery offering mouthwatering dishes and a delightful dining experience.
+Night: Experience the lively nightlife at Salle des Fêtes Bensikali, a renowned discotheque known for its vibrant atmosphere and captivating music.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Lablabi Gabssi is a restaurant located in kairouan, Tunisia. Its coordinates are (35.6727967, 10.0949059).
+Come and visit the cozy cafe el clasico in kairouan. This well-rated cafe (4.5/5 by 2 visitors) is the perfect place to relax. Open 24 hours, feel free to pass by whenever you feel like it.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1008,12 +1184,76 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Restaurant de sundae, check out Ci Gusta Kairouan located at Av. Mohamed Ibn Sahnoun. This must-visit spot has a 4.0 rating and offers a range of categories to choose from. It's open daily from 08:30-22:00. For more details, visit their website at http://www.cigusta.com/ or call them at 25 450 864.</t>
+          <t>Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find Ci Gusta Kairouan, a highly-rated Restaurant de sundae with a diverse menu and extended hours?</t>
+          <t>Day Plan:
+Morning:
+**Explore the historic Kairouan Grand Mosque**, marveling at its stunning architecture and religious significance.
+Mid-Morning:
+**Visit the Sidi Ben Aissa Archaeological and Traditional Museum in Tozeur**, gaining insights into the region's rich history and heritage.
+Midday:
+**Lunch at Mecano Pizza in Kairouan**, indulging in their delectable pizzas that have earned praise from locals and visitors alike.
+Afternoon:
+**Shop for traditional handicrafts at Click'airouan STORE**, supporting local artisans and taking home souvenirs of your trip.
+Evening:
+**Attend a lively evening at Salle des Fêtes Bensikali**, enjoying the vibrant nightlife and dancing the night away.
+Night:
+**Dinner at Vintage Bistro**, savoring the exquisite local and international cuisine that has earned them high ratings.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Boura aldemeshqi is a renowned restaurant in Kairouan, situated at 6000 Av. Abi Zamaa El Balaoui. Open 24 hours a day except on Sundays, it specializes in Syrian cuisine, highly praised by customers, as evidenced by its impressive rating of 4.6. The restaurant's exact location is at (35.676813513298, 10.093464437173), making it easily accessible within the city.
+Fratello Cafe is a highly-rated cafe located in the heart of Kairouan, Tunisia. It offers a wide range of delicious food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at M4F2+3Q7 Fratello Cafe, Av. de La Republique, Kairouan, and can be reached by phone at 77 229 270.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1123,12 +1363,76 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a great cafe experience, check out Cafe Chic located at M3MW+MXW, Kairouan. This highly-rated destination is perfect for cafe lovers and offers a cozy ambience to relax and enjoy your favorite beverages and snacks. With a 4.2 rating, it's a must-visit spot for locals and visitors alike. Cafe Chic is open daily from 7:00 AM to midnight, so you can visit at your convenience. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, you can call them at 77 277 819.</t>
+          <t>Cafe Chic is a popular cafe located in the heart of Kairouan. It offers a wide variety of delicious food and drinks, as well as a cozy atmosphere and friendly service. The cafe is open daily from 7:00 AM to midnight, and it is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly-rated cafe with a cozy ambience, serving beverages and snacks, that's open from morning till midnight?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historic Kasbah Mosque, marveling at its stunning architecture and religious significance.
+Mid-Morning:
+- Immerse yourself in the local culture by visiting the Kairouan Grand Mosque, a revered spiritual site and architectural masterpiece.
+Midday:
+- Savor the authentic flavors of Tunisian cuisine at Dar Abderrahman Zarrouk, renowned for its traditional dishes and warm atmosphere.
+Afternoon:
+- Discover the Mausolee du Barbier, a captivating museum and historical site that showcases the city's rich heritage and craftsmanship.
+Evening:
+- Indulge in a tranquil experience by relaxing at the inviting La Kasba Hotel, where you can enjoy a refreshing dip in the outdoor pool or unwind with a soothing massage at the spa.
+Night:
+- Experience the vibrant nightlife at Salle des Fêtes Bensikali, a renowned discotheque that promises an unforgettable night of music and dancing.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Abderrahman Zarrouk, located in the heart of Kairouan (35.6727967, 10.0949059), is a traditional Tunisian restaurant renowned for its authentic cuisine and warm atmosphere. With a rating of 4.3, it offers a delightful culinary experience that reflects the richness and flavors of the region.
+Cafe La Terrasse is a cafe located in Kairouan, Tunisia. It is open from 9:00 AM to 5:00 PM from Sunday to Saturday and has a 4.6 rating based on 5 reviews. You can find Cafe La Terrasse on Google Maps by clicking the link https://www.google.com/maps/place/Caf%C3%A9+La+Terrasse/data=!4m7!3m6!1s0x12fdc5699d91d043:0xe47ac4ca4f025567!8m2!3d35.6890217!4d10.0966971!16s%2Fg%2F11cs3q6zkc!19sChIJQ9CRnWnF_RIRZ1UCT8rEeuQ?authuser=0&amp;hl=fr&amp;rclk=1
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1230,12 +1534,77 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Cafe Les Veterants located at M4W3+7G5 Cafe Les Veterants, Kairouan. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Les+V%C3%A9t%C3%A9rants/data=!4m7!3m6!1s0x12fdc512ba655673:0x16bc57e6cdc767bb!8m2!3d35.6956325!4d10.1038599!16s%2Fg%2F1td10g_6!19sChIJc1ZluhLF_RIRu2fHzeZXvBY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Les Veterants is a 4-star rated cafe located in kairouan. It's open from 6am to 11pm everyday. It has 18 reviews and is featured in the Cafe category.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>If you're searching for an exceptional café experience in Kairouan, where can you visit a top-rated destination with a 4.0-star rating and a wide selection of café options?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Start the day by exploring Saraya Al Bey, a popular restaurant in Kairouan that offers a diverse menu specializing in traditional cuisine.
+**Mid-Morning:**
+* Immerse yourself in the history and culture of the region by visiting the Conservatoire, a museum showcasing exhibits on the history, culture, and art of Kairouan.
+**Midday:**
+* Indulge in a delectable lunch at Ci Gusta Kairouan, a highly rated sundae restaurant known for its pizzas, waffles, and other tasty treats.
+**Afternoon:**
+* Embark on a guided tour of the Bassins des Aghlabides, an ancient reservoir built by the Aghlabid dynasty in the 9th century and a significant example of Islamic hydraulic engineering.
+**Evening:**
+* Marvel at the architectural splendor of the Mosquee Okba Ibn Nafaa, a 7th-century mosque renowned for its imposing walls, square minaret, and intricate embellishments.
+**Night:**
+* Experience the vibrant local nightlife at Salle des Fêtes Bensikali, a renowned discotheque that attracts guests with its captivating music and dance floor.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Saraya Al Bey**
+Saraya Al Bey is a popular restaurant located in Kairouan, Tunisia (Latitude: 35.678709970301, Longitude: 10.103632375538). It offers a diverse menu, specializing in traditional cuisine, and provides a cozy ambiance for dining. With a 4.0 rating based on 47 reviews, Saraya Al Bey is a well-received dining destination in Kairouan.
+Café Hermès is a popular cafe located in Kairouan. Its address is M39J+VP7 cafe hermess, Av. Mongi Slim, Kairouan. It operates from 4:00 am to 11:00 pm every day, offering a cozy ambiance for its customers. Café Hermès has been positively reviewed online, with a rating of 4.0.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Tunisia (coordinates: 35.680789525406, 10.103936021759), the renowned Mosquee Okba Ibn Nafaa is a 7th-century mosque renowned for its architectural splendor. Its imposing walls, square minaret, and intricate embellishments showcase the artistry of the era. Immerse yourself in the rich history of the Islamic civilization and admire the remarkable details that have made this mosque a must-visit historical attraction.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1710,79 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Cafe, check out Fratello Cafe located at M4F2+3Q7 Fratello Cafe, Av. de La Republique, Kairouan. This popular destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.673189168275, 10.102536932089. For more details, visit their website at https://www.google.com/maps/place/Fratello+Caf%C3%A9/data=!4m7!3m6!1s0x12fdc548369bc947:0x33e84e2196f31505!8m2!3d35.6726728!4d10.101927!16s%2Fg%2F11gc6brw12!19sChIJR8mbNkjF_RIRBRXzliFO6DM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 77 229 270.</t>
+          <t>Fratello Cafe is a highly-rated cafe located in the heart of Kairouan, Tunisia. It offers a wide range of delicious food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at M4F2+3Q7 Fratello Cafe, Av. de La Republique, Kairouan, and can be reached by phone at 77 229 270.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly-rated cafe with a range of options and convenient operating hours?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic **Dar Abderrahman Zarrouk** restaurant for an authentic Tunisian breakfast experience.
+**Mid-Morning:**
+* Take a leisurely stroll through the **Kairouan medina**, discovering hidden gems and traditional crafts.
+**Midday:**
+* Visit the stunning **Great Mosque of Kairouan**, a UNESCO World Heritage Site renowned for its architectural beauty.
+**Afternoon:**
+* Enjoy a delicious lunch at **Chez Mamie**, savoring traditional Tunisian cuisine and refreshing smoothies.
+* Take a guided tour of the **Mosque of the Three Doors**, admiring its intricate architecture.
+**Evening:**
+* Relax with a fragrant tea and traditional sweets at **mqh~ `bd llh**.
+* Immerse yourself in Tunisian culture at a Sufi music performance at **Salle des Fêtes Bensikali**.
+**Night:**
+* Indulge in a delectable dinner at **Dar Chama**, a charming guest house offering a unique culinary experience.
+* Enjoy stargazing under the clear desert sky on the outskirts of Kairouan.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Abderrahman Zarrouk, located in the heart of Kairouan (35.6727967, 10.0949059), is a traditional Tunisian restaurant renowned for its authentic cuisine and warm atmosphere. With a rating of 4.3, it offers a delightful culinary experience that reflects the richness and flavors of the region.
+Chez Mamie is a cafe in Kairouan, Tunisia. It has a 4.4-star rating on Google, and is known for its smoothies and proximity to the Great Mosque of Kairouan. The cafe is open from 8am to 11pm, and is located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1448,12 +1884,79 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Cafe Taktak located at M4F2+H9H Cafe Taktak, Av. Du 20 Mars, Kairouan. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 35.672837383891, 10.100961858317. For more details, visit their website at https://www.google.com/maps/place/Cafe+Taktak/data=!4m7!3m6!1s0x12fdc5486f53c97f:0xc5dcc7689929d0d8!8m2!3d35.6739471!4d10.1009856!16s%2Fg%2F11hbqds0qv!19sChIJf8lTb0jF_RIR2NApmWjH3MU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Taktak is a cafe located in Kairouan, Tunisia at 35.672837383891, 10.100961858317. It offers a variety of cafe-style food and beverages and is open from 05:00 to 23:00 every day. The cafe has a 4.9-star rating on Google based on 12 reviews.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>What is the top-rated Cafe located on Av. Du 20 Mars in Kairouan, known for its exceptional Cafe offerings and a rating of 4.9?</t>
+          <t>Day Plan:
+Morning: Explore the La Kasba Mosque, a historical landmark in the heart of Kairouan.
+Mid-Morning: Try local cuisine at Restaurant mT`m dr l`yl@, a highly rated restaurant offering traditional Tunisian dishes.
+Midday: Visit the Bassins des Aghlabides, an ancient reservoir dating back to the 9th century.
+Afternoon: Enjoy a relaxed afternoon at Vintage Bistro, a cozy eatery serving mouthwatering dishes with a delightful ambiance.
+Evening: Shop for traditional and artisanal products at Click'airouan STORE, conveniently located in the medina.
+Night: Experience the vibrant nightlife at Salle des Fêtes Bensikali, a renowned discotheque with lively music and a captivating dance floor.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Restaurant mT`m dr l`yl@**
+mT`m dr l`yl@ is a highly rated restaurant located in Kairouan, Tunisia. It offers a variety of dining options, including traditional Tunisian cuisine. The restaurant is known for its friendly owner and excellent service. It is open from 8 am to 10 pm daily, except for Fridays.
+**Highlights:**
+* Convenient location in the center of the city
+* Accommodating staff and pleasant atmosphere
+* Delicious selection of Tunisian dishes
+**Coordinates:**
+* Latitude: 35.6727967
+* Longitude: 10.0949059
+Miami, a quaint cafe situated in a peaceful area of Kairouan, Tunisia, invites you to unwind and indulge in the aroma of freshly brewed coffee. Its inviting atmosphere and friendly staff welcome locals and travelers alike. Located conveniently at coordinates (35.6727967, 10.0949059), Miami is a perfect destination for a morning pick-me-up or a leisurely afternoon break.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+La Mosquée du Barbier, également connue sous le nom de Sidi Sahib, est un lieu historique situé dans la ville sainte de Kairouan, en Tunisie. Cette mosquée, qui remonte au XVIe siècle, est dédiée au saint Abou Zamaa El-Balaoui.
+Elle est célèbre pour son mausolée, où est enterré le saint, qui attire chaque année de nombreux pèlerins musulmans. La Mosquée du Barbier est un site culturel important qui témoigne de la riche histoire religieuse et architecturale de Kairouan.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1563,14 +2066,70 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Espace Ben Rejeb located at Espace Ben Rejeb, street about zamaa lbalawi, Av. de la Republique, Kairouan 3100. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 35.673189168275, 10.102536932089. For more details, visit their website at https://www.ben-rejeb.com/ or call them at 98 507 533.</t>
+          <t>Espace Ben Rejeb is a cafe located in Kairouan, Tunisia. It offers a relaxing atmosphere with a rating of 4.0, based on 11 reviews. Situated at 35.673189168275 latitude and 10.102536932089 longitude, it is easily accessible. Espace Ben Rejeb's website, https://www.ben-rejeb.com/, offers additional information and reservations. Unfortunately, no specific description was provided.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you indulge in a variety of cafe options at a top-rated destination with a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the Mausolee du Barbier, a museum in Kairouan (35.6727967, 10.0949059).
+Mid-Morning: Take a guided tour of the Kairouan Grand Mosque (35.6823728, 10.1035996) to immerse yourself in its architectural grandeur and spiritual significance.
+Midday: Try local cuisine at Mecano Pizza (35.6727967, 10.0949059) and indulge in their delectable pizzas.
+Afternoon: Visit the Sidi Ben Aissa Archaeological and Traditional Museum (33.921574605214, 8.138131631011) in Tozeur to delve into the region's rich cultural heritage.
+Evening: Engage in a cultural immersion at DAR EL MRABET Maison Musee (35.673189168275, 10.102536932089), a historical museum in Kairouan, to learn about the city's art, history, and culture.
+Night: Enjoy the lively nightlife at Salle des Fêtes Bensikali (35.7333242, 10.5756812) near M'saken, and dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the heart of Kairouan (coordinates: 35.654691, 10.0913087), the GO Cafe is a popular spot among locals and tourists alike. With a focus on delicious cuisine, the cafe offers a wide range of dishes, including traditional Tunisian delicacies. Situated near the famous Three-Door Mosque (Mosquee des Trois Portes), the cafe's convenient location and cozy atmosphere make it a great place to relax and enjoy the local culture.
+Main Street Coffee is a cafe located in Kairouan, Tunisia. It has one review and a rating of 5.0. The cafe is on Mohamed Ibn Sahnoun Avenue and is in the category of cafes.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1672,12 +2231,71 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a cozy cafe, visit Miami located at Rue Des Aglabiles. This top-rated destination is perfect for coffee lovers and has a 4.2 rating. It's open from 8 AM to 9 PM daily. To get there, use the GPS coordinates: (35.6727967, 10.0949059).</t>
+          <t>Miami, a quaint cafe situated in a peaceful area of Kairouan, Tunisia, invites you to unwind and indulge in the aroma of freshly brewed coffee. Its inviting atmosphere and friendly staff welcome locals and travelers alike. Located conveniently at coordinates (35.6727967, 10.0949059), Miami is a perfect destination for a morning pick-me-up or a leisurely afternoon break.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated café called Miami in Kairouan, known for its exceptional coffee, located at specific GPS coordinates, and open during specific hours?</t>
+          <t>Day Plan:
+Morning: Explore the historical Kairouan Grand Mosque, an architectural and spiritual landmark in the heart of the city.
+Mid-Morning: Visit the Bassins des Aghlabides, a 9th-century reservoir that showcases the region's Islamic hydraulic engineering.
+Midday: Indulge in authentic Tunisian cuisine at Dar Abderrahman Zarrouk, known for its traditional and flavorful dishes.
+Afternoon: Immerse yourself in the cultural heritage of Kairouan at the Musee d'Arts Tozeurous, an art museum featuring local and regional artwork.
+Evening: Relish the vibrant nightlife at Salle des Fêtes Bensikali, a popular discotheque with lively music and dance.
+Night: Enjoy a cozy and romantic dinner at Vintage Bistro, a charming eatery offering a blend of local and international flavors.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Abderrahman Zarrouk, located in the heart of Kairouan (35.6727967, 10.0949059), is a traditional Tunisian restaurant renowned for its authentic cuisine and warm atmosphere. With a rating of 4.3, it offers a delightful culinary experience that reflects the richness and flavors of the region.
+Fratello Cafe is a highly-rated cafe located in the heart of Kairouan, Tunisia. It offers a wide range of delicious food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at M4F2+3Q7 Fratello Cafe, Av. de La Republique, Kairouan, and can be reached by phone at 77 229 270.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1775,14 +2393,71 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out City Lounge cafe located at City Lounge cafe, afh 1 kairouan. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at https://www.google.com/maps/place/City+Lounge+cafe/data=!4m7!3m6!1s0x12fdc577ed0bf1f3:0x2f2ae54ba8204799!8m2!3d35.6885427!4d10.0946527!16s%2Fg%2F11nrwt1t1d!19sChIJ8_EL7XfF_RIRmUcgqEvlKi8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>In the heart of Kairouan lies the charming City Lounge Cafe, a haven for coffee and tea lovers. Located at (35.6885427, 10.0946527), this cafe offers a cozy atmosphere with a focus on providing delicious beverages. With a rating of 4.0 from 7 reviews, it is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly-rated Cafe destination with a rating of 4.0?</t>
+          <t>Day Plan:
+Morning: Explore the historic Kairouan Grand Mosque, a masterpiece of Islamic architecture, for an inspiring start to the day.
+Mid-Morning: Visit the Sidi Ben Aissa Archaeological and Traditional Museum to delve into the region's rich history and heritage through captivating exhibits.
+Midday: Indulge in the local culinary delights at Dar Lella Habiba restaurant, renowned for its delicious couscous and stunning views of the city.
+Afternoon: Take a leisurely stroll through the medina, or old town, of Kairouan. Visit Click'airouan STORE, a handicraft boutique, to discover unique and traditional pottery, leather goods, and jewelry.
+Evening: Experience the vibrant nightlife at Salle des Fêtes Bensikali, a popular discotheque, to dance the night away and soak up the local entertainment scene.
+Night: Return to the charming Dar Chama guest house and relax in a comfortable and tranquil setting. Enjoy a peaceful night's sleep in the heart of Kairouan.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Lella Habiba is a restaurant located in Kairouan, Tunisia, offering a menu focused on couscous. The restaurant is in the city center, near the Great Mosque of Kairouan, and offers a beautiful view of the city. With a rating of 4.5 based on 33 reviews, the restaurant is highly appreciated for its delicious food, friendly service, and beautiful setting.
+Café Hermès is a popular cafe located in Kairouan. Its address is M39J+VP7 cafe hermess, Av. Mongi Slim, Kairouan. It operates from 4:00 am to 11:00 pm every day, offering a cozy ambiance for its customers. Café Hermès has been positively reviewed online, with a rating of 4.0.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1888,14 +2563,11 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to relax and enjoy a cup of tea, check out mqh~ `bd llh located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan. This top-rated teahouse offers a cozy atmosphere and a wide selection of teas to choose from. With a rating of 4.3, it's a must-visit spot for tea lovers. It's open 24 hours a day, so you can enjoy a cup of tea whenever you need one. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated teahouse with a cozy atmosphere and an extensive tea menu in Kairouan?</t>
-        </is>
-      </c>
+          <t>mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1995,13 +2667,71 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Cafe La Terrasse located at Cafe La Terrasse, Kairouan.
-This top-rated destination is perfect for Cafe lovers. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on Wednesdays. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+La+Terrasse/data=!4m7!3m6!1s0x12fdc5699d91d043:0xe47ac4ca4f025567!8m2!3d35.6890217!4d10.0966971!16s%2Fg%2F11cs3q6zkc!19sChIJQ9CRnWnF_RIRZ1UCT8rEeuQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe La Terrasse is a cafe located in Kairouan, Tunisia. It is open from 9:00 AM to 5:00 PM from Sunday to Saturday and has a 4.6 rating based on 5 reviews. You can find Cafe La Terrasse on Google Maps by clicking the link https://www.google.com/maps/place/Caf%C3%A9+La+Terrasse/data=!4m7!3m6!1s0x12fdc5699d91d043:0xe47ac4ca4f025567!8m2!3d35.6890217!4d10.0966971!16s%2Fg%2F11cs3q6zkc!19sChIJQ9CRnWnF_RIRZ1UCT8rEeuQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where is the top-rated Cafe La Terrasse located and what sets this destination apart?</t>
+          <t>Day Plan:
+Morning: Explore the UNESCO-listed Medina of Kairouan, a labyrinthine maze of narrow streets and historic buildings.
+Mid-Morning: Visit the Great Mosque of Kairouan, an architectural masterpiece and a major pilgrimage site.
+Midday: Try local cuisine at GO Cafe, a renowned eatery serving traditional Tunisian dishes in a cozy and inviting atmosphere.
+Afternoon: Take a guided tour of the Sidi Ghariani Mausoleum and learn about the life and teachings of the revered Sufi saint.
+Evening: Enjoy scenic views from the ramparts of the Aghlabid Basin and capture panoramic shots of the city.
+Night: Experience cultural immersion at Mosquee du Barbier, a historic monastery with intricate architecture and a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+GO Cafe, located in the heart of Kairouan, Tunisia, is a renowned eatery that seamlessly blends modern and traditional vibes. With a rating of 4.8/5 based on 63 reviews, it has garnered appreciation for its delectable Tunisian cuisine, cozy atmosphere, and prime location. Its proximity to the Medina and the Mosquee des Trois Portes offers patrons a convenient base to explore the city's historical and cultural treasures.
+mqh~ lfTnsy is a well-rated cafe located in Kairouan, Tunisia (35.6727967, 10.0949059). It offers a cozy atmosphere and a wide selection of coffee, tea, and snacks. It is a popular spot for locals and tourists alike to relax and enjoy a cup of coffee in the heart of the city.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+La Mosquée du Barbier, également connue sous le nom de Sidi Sahib, est un lieu historique situé dans la ville sainte de Kairouan, en Tunisie. Cette mosquée, qui remonte au XVIe siècle, est dédiée au saint Abou Zamaa El-Balaoui.
+Elle est célèbre pour son mausolée, où est enterré le saint, qui attire chaque année de nombreux pèlerins musulmans. La Mosquée du Barbier est un site culturel important qui témoigne de la riche histoire religieuse et architecturale de Kairouan.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2103,14 +2833,70 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Cafe in beb el khoukha located at M4J3+4PF Cafe in beb el khoukha. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 35.6796035, 10.1047369. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+in+beb+el+khoukha/data=!4m7!3m6!1s0x12fdc58d9326712f:0x3617acb3e8c064a9!8m2!3d35.6803172!4d10.1042985!16s%2Fg%2F11s854r3ps!19sChIJL3Emk43F_RIRqWTA6LOsFzY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at Not provided.</t>
+          <t>Cafe in beb el khoukha is a cafe located in kairouan, Tunisia. Situated at the coordinates (35.6796035, 10.1047369), it offers a variety of services and amenities to its customers. The cafe is well-rated, with a 5.0 rating based on 4 reviews. It is open from 09:00 to 00:00 on weekdays, and closed on weekends. Unfortunately, there is no available information about the cafe's website, phone number, or owner.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where in Kairouan is the top-rated Cafe in beb el khoukha renowned for its exceptional Cafe selection?</t>
+          <t>Day Plan:
+Morning: Explore the historic Mosquee Okba Ibn Nafaa, a prominent landmark in Kairouan and one of the oldest mosques in North Africa.
+Mid-Morning: Immerse yourself in the Mausolee du Barbier, a museum showcasing the history and architecture of the region.
+Midday: Treat your palate to local cuisine at Cafe in beb el khoukha, a well-rated cafe serving a variety of dishes.
+Afternoon: Engage in outdoor activities at the Bassins des Aghlabides, an ancient reservoir that exemplifies Islamic hydraulic engineering.
+Evening: Experience the vibrant atmosphere of Salle des Fetes Bensikali, a renowned discotheque known for its lively nightlife.
+Night: Satisfy your cravings at Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy), a fast-food restaurant specializing in traditional Tunisian kafteji.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Weld El Bey is a 4.1-rated restaurant located in Av. Kairouan, El Mourouj. It serves multiple cuisines and is open from 11:00 AM to 10:00 PM daily. The restaurant's main category is Restaurant, and its coordinates are (36.7366706, 10.210515).
+Cafe in beb el khoukha is a cafe located in kairouan, Tunisia. Situated at the coordinates (35.6796035, 10.1047369), it offers a variety of services and amenities to its customers. The cafe is well-rated, with a 5.0 rating based on 4 reviews. It is open from 09:00 to 00:00 on weekdays, and closed on weekends. Unfortunately, there is no available information about the cafe's website, phone number, or owner.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2212,12 +2998,70 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great Cafe, head to Cafe saraya at M39H+HJR Cafe saraya, Av. Mongi Slim. With a rating of 4.3, it's a top spot for locals and visitors alike. Cafe saraya offers a range of services, including Cafe, and is open daily 24 060 225. For more information, visit their website or give them a call.</t>
+          <t>Located in the heart of Kairouan, Cafe saraya is a cozy spot offering a delightful cafe experience. With a warm ambiance and friendly service, it's a popular destination for locals and visitors alike. Enjoy a cup of aromatic coffee or a refreshing beverage, complemented by a delicious selection of cafe eats.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly-rated cafe that locals and visitors adore?</t>
+          <t>Day Plan:
+Morning: Begin your day with an immersive cultural experience by exploring the historic Sidi Amor Abada Mausoleum, delving into the region's rich history and traditions.
+Mid-Morning: Take a leisurely stroll through the bustling medina of Kairouan, where you can engage in the vibrant local atmosphere and discover authentic Tunisian handicrafts at Click'airouan STORE.
+Midday: Indulge in the tantalizing flavors of local cuisine at the top-rated Restaurant Keftaji Kairouan, savoring traditional Tunisian dishes prepared with fresh, local ingredients.
+Afternoon: Embark on a guided tour of the iconic Great Mosque of Kairouan, marveling at its architectural splendor and spiritual significance as you immerse yourself in the city's Islamic heritage.
+Evening: Enjoy a relaxing break at Dar Elouini, a charming guest house boasting a cozy ambiance and a delightful restaurant where you can unwind and savor a delicious dinner.
+Night: Immerse yourself in the vibrant nightlife at Salle des Fêtes Bensikali, renowned for its captivating music and dance floor, where you can let loose and dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Keftaji Kairouan is a top-rated restaurant located in Hammam Sousse, Tunisia. It specializes in traditional Tunisian cuisine, offering a wide range of dishes made with fresh, local ingredients. The restaurant is situated at coordinates (35.51295, 9.98453) and is easily accessible by car or public transportation.
+Fratello Cafe is a highly-rated cafe located in the heart of Kairouan, Tunisia. It offers a wide range of delicious food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at M4F2+3Q7 Fratello Cafe, Av. de La Republique, Kairouan, and can be reached by phone at 77 229 270.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Tunisia (coordinates: 35.680789525406, 10.103936021759), the renowned Mosquee Okba Ibn Nafaa is a 7th-century mosque renowned for its architectural splendor. Its imposing walls, square minaret, and intricate embellishments showcase the artistry of the era. Immerse yourself in the rich history of the Islamic civilization and admire the remarkable details that have made this mosque a must-visit historical attraction.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2315,13 +3159,76 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Cafe, check out Cactus bistro kairouan at 187 Rue Beit Al Hekma, Kairouan. 
-This popular destination has a rating of 5.0 and is a must-visit spot for Cafe lovers. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>Cactus bistro kairouan is a cafe located at 187 Rue Beit Al Hekma in Kairouan, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 8am to 10pm, seven days a week. It is located in the heart of the city, making it a convenient place to stop for a bite to eat or a drink. The cafe has a friendly and inviting atmosphere, and the staff is always happy to help.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>What is the highly rated café with a 5.0 rating located at 187 Rue Beit Al Hekma in Kairouan?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Kairouan Grand Mosque, a UNESCO World Heritage Site.
+**Mid-Morning:**
+* Visit the nearby Mosquee du Barbier jm` by zm`@ lblwy monastery to learn about the city's religious past.
+**Midday:**
+* Try traditional Tunisian cuisine at Restaurant Keftaji Kairouan, known for its authentic dishes.
+**Afternoon:**
+* Shop for souvenirs and local crafts at Click'airouan STORE in the bustling medina.
+**Evening:**
+* Experience the lively atmosphere of Salle des Fêtes Bensikali discotheque.
+**Night:**
+* Enjoy dinner and authentic pizza flavors at NARCO'S Pizzeria.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Keftaji Kairouan is a top-rated restaurant located in Hammam Sousse, Tunisia. It specializes in traditional Tunisian cuisine, offering a wide range of dishes made with fresh, local ingredients. The restaurant is situated at coordinates (35.51295, 9.98453) and is easily accessible by car or public transportation.
+Espace Ben Rejeb is a cafe located in Kairouan, Tunisia. It offers a relaxing atmosphere with a rating of 4.0, based on 11 reviews. Situated at 35.673189168275 latitude and 10.102536932089 longitude, it is easily accessible. Espace Ben Rejeb's website, https://www.ben-rejeb.com/, offers additional information and reservations. Unfortunately, no specific description was provided.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2419,12 +3326,77 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to get your caffeine fix, Espace Dolce Vita (Cafe Picine) is a top-rated spot. Located at M4H4+M3F Espace Dolce Vita (Cafe Picine), `qb@,, Boulevard H Chaker, Kairouan, this cafe offers a cozy atmosphere and a range of delicious drinks to choose from. With a rating of 4.3, it's a must-visit spot for coffee lovers. You can visit their website at https://www.google.com/maps/place/Espace+Dolce+Vita+%28Caf%C3%A9+Picine%29/data=!4m7!3m6!1s0x12fdc57d7f1509c9:0x77e4ad2c6039b96!8m2!3d35.6791993!4d10.1051599!16s%2Fg%2F11rxp77fzx!19sChIJyQkVf33F_RIRlpsDxtJKfgc?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>Café Pizzeria Dolce Vita (Cafe Picine) is well-rated (4.3) and has three reviews. It's located at Boulevard H Chaker in Kairouan, Tunisia. It offers a café and pizzeria menu with a poolside dining option.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a cozy atmosphere offering delicious coffee and drinks in Kairouan?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical landmark, The Mausolee du Barbier, and discover its architectural beauty and historical significance.
+Mid-Morning:
+- Immerse yourself in Tunisian culture at DAR EL MRABET Maison Musee, learning about the city's rich history and heritage.
+Midday:
+- Satisfy your taste buds with a delightful lunch at El Brija Restaurant, savoring the local flavors and enjoying the cozy atmosphere.
+Afternoon:
+- Take a leisurely walk through the mesmerizing Bassins des Aghlabides, admiring the impressive Islamic architecture and learning about the region's water management system.
+Evening:
+- Treat yourself to an unforgettable dining experience at Pizzeria L'Artiste Kairouan, indulging in their highly-rated pizzas and enjoying their inviting ambiance.
+Night:
+- Experience the vibrant nightlife at Salle des Fêtes Bensikali, a popular discotheque known for its lively atmosphere and captivating music.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Brija Restaurant, located in Kairouan (coordinates: 35.654691, 10.0913087), offers a diverse menu including couscous, pizza, and beverages at reasonable prices. With its convenient location near the city's main mosque, El Brija Restaurant caters to both locals and tourists. Featuring a cafe atmosphere with a terrace, it's an excellent spot for casual dining or coffee breaks.
+**Café à Kairouan**
+Ce café, situé à Kairouan (coordonnées : 35.6727967, 10.0949059), est ouvert 24h/24. Il propose un large choix de boissons et de collations dans une ambiance chaleureuse et conviviale.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2526,12 +3498,70 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Cafe, check out Coffee Time located at M4G5+F2H Coffee Time, nhj khmys l`lwyny. This destination offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-22:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>Coffee Time is a highly-rated cafe situated in Kairouan, Tunisia. Known for its cozy atmosphere and friendly staff, the cafe offers a wide range of coffee and tea beverages, as well as pastries and light snacks. Located at coordinates (35.6727967, 10.0949059), the cafe is easily accessible and open daily from 05:00 to 22:00.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and seeking an exceptional café with high ratings, where should you go and what sets it apart?</t>
+          <t>Day Plan:
+Morning: Explore the historic Grand Mosque of Kairouan, an architectural marvel with stunning columns and intricate decorations.
+Mid-Morning: Try local cuisine at NARCO'S, a highly-rated pizzeria serving authentic Italian flavors.
+Midday: Visit the Mosquee Okba Ibn Nafaa, a 7th-century mosque showcasing the artistry of the era with its imposing walls and square minaret.
+Afternoon: Enjoy the relaxed atmosphere of La Kasba hotel, featuring an outdoor pool, coffee shop, and a restaurant.
+Evening: Participate in a traditional Tunisian dinner at Essiguifa, a cozy restaurant offering a menu featuring traditional dishes in a warm ambiance.
+Night: Experience the lively nightlife at Salle des Fêtes Bensikali, a renowned discotheque known for its captivating music and vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the heart of Kairouan (coordinates: 35.654691, 10.0913087), the GO Cafe is a popular spot among locals and tourists alike. With a focus on delicious cuisine, the cafe offers a wide range of dishes, including traditional Tunisian delicacies. Situated near the famous Three-Door Mosque (Mosquee des Trois Portes), the cafe's convenient location and cozy atmosphere make it a great place to relax and enjoy the local culture.
+Miami, a quaint cafe situated in a peaceful area of Kairouan, Tunisia, invites you to unwind and indulge in the aroma of freshly brewed coffee. Its inviting atmosphere and friendly staff welcome locals and travelers alike. Located conveniently at coordinates (35.6727967, 10.0949059), Miami is a perfect destination for a morning pick-me-up or a leisurely afternoon break.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Tunisia (coordinates: 35.680789525406, 10.103936021759), the renowned Mosquee Okba Ibn Nafaa is a 7th-century mosque renowned for its architectural splendor. Its imposing walls, square minaret, and intricate embellishments showcase the artistry of the era. Immerse yourself in the rich history of the Islamic civilization and admire the remarkable details that have made this mosque a must-visit historical attraction.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2633,12 +3663,70 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Cafe, check out Cafe maure barrouta located at Cafe maure barrouta, Bir Barrouta. This popular destination is a must-visit spot for Cafe lovers, offering a range of categories to choose from. Rated 4.3 out of 5, it's open daily from 07:00-00:00. To get there, use these GPS coordinates: 35.67574, 10.10064.</t>
+          <t>Café maure barrouta is a cafe located in Kairouan, Tunisia. It has a rating of 4.3 and is open from 07:00-00:00. The cafe is located at the coordinates (35.67574, 10.10064) and offers a variety of cafe related products and services.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafe with a range of categories in the Bir Barrouta neighborhood of Kairouan?</t>
+          <t>Day Plan:
+Morning: Explore the historic Great Mosque of Kairouan, a UNESCO World Heritage Site.
+Mid-Morning: Visit the Sidi Ben Aissa Archaeological and Traditional Museum to learn about the region's heritage.
+Midday: Try local cuisine at Ka3boura Fast Food, a highly-rated restaurant known for its delicious offerings.
+Afternoon: Relax with a hammam experience at a traditional spa to rejuvenate.
+Evening: Enjoy dinner at NARCO'S, a popular pizzeria serving authentic Italian flavors.
+Night: Experience the vibrant nightlife at Salle des Fêtes Bensikali, a renowned discotheque, to dance and enjoy the music.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ka3boura Fast Food, located in Kairouan, Tunisia, is a popular restaurant known for its excellent ratings and delicious food. It is conveniently situated at rue tarbia, making it easily accessible to locals and visitors alike. The restaurant opens daily from 7:00 AM to 11:00 PM, offering a wide range of dining options to satisfy every craving. Whether you're looking for a quick bite or a leisurely meal, Ka3boura Fast Food has something for everyone.
+Café Pizzeria Dolce Vita (Cafe Picine) is well-rated (4.3) and has three reviews. It's located at Boulevard H Chaker in Kairouan, Tunisia. It offers a café and pizzeria menu with a poolside dining option.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2748,14 +3836,70 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Cafe Kaser Ennour located at M3QR+5VW Cafe Kaser Ennour, Unnamed Road, Kairouan. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://m.facebook.com/profile.php%3Fid%3D253885388146852%26ref%3Dcontent_filter or call them at 53 025 689.</t>
+          <t>Cafe Kaser Ennour is a cafe located in Kairouan, Tunisia (lon: 10.0949059, lat: 35.6727967). It offers a variety of cafe-style food and drinks, and is open 24 hours a day. The cafe has a 5.0 rating on Google Maps, and has received 2 reviews.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly-rated café (Cafe Kaser Ennour) with GPS coordinates 35.6727967, 10.0949059?</t>
+          <t>Day Plan:
+Morning: Exploring the Medina of Kairouan
+Mid-Morning: Visit the Grand Mosque of Kairouan
+Midday: Try local cuisine at GO Cafe
+Afternoon: Enjoy scenic views at Sidi Ghariani
+Evening: Participate in a guided tour of the Musée du Tapis
+Night: Relax with a traditional tea at mqh~ `bd llh</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+GO Cafe, located in the heart of Kairouan, Tunisia, is a renowned eatery that seamlessly blends modern and traditional vibes. With a rating of 4.8/5 based on 63 reviews, it has garnered appreciation for its delectable Tunisian cuisine, cozy atmosphere, and prime location. Its proximity to the Medina and the Mosquee des Trois Portes offers patrons a convenient base to explore the city's historical and cultural treasures.
+Miami, a quaint cafe situated in a peaceful area of Kairouan, Tunisia, invites you to unwind and indulge in the aroma of freshly brewed coffee. Its inviting atmosphere and friendly staff welcome locals and travelers alike. Located conveniently at coordinates (35.6727967, 10.0949059), Miami is a perfect destination for a morning pick-me-up or a leisurely afternoon break.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2861,13 +4005,71 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a great cafe, check out el clasico located at M4F2+4FH el clasico. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day and is closed on [] . To get there, use these GPS coordinates: 35.6727967, 10.0949059. 
-For more details, visit their website at https://www.google.com/maps/place/el+clasico/data=!4m7!3m6!1s0x12fdc5484e866c4f:0x4dad353d1d9bef2c!8m2!3d35.6728081!4d10.1012441!16s%2Fg%2F11g8n718sf!19sChIJT2yGTkjF_RIRLO-bHT01rU0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 591 349.</t>
+          <t>Come and visit the cozy cafe el clasico in kairouan. This well-rated cafe (4.5/5 by 2 visitors) is the perfect place to relax. Open 24 hours, feel free to pass by whenever you feel like it.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe in Kairouan that's open 24 hours and offers a wide selection of Cafe?</t>
+          <t>Day Plan:
+Morning: Explore the historical La Kasba, a relaxed-style hotel in Kairouan, and delve into its rich heritage.
+Mid-Morning: Immerse yourself in the spiritual atmosphere of the Kairouan Grand Mosque, marveling at its stunning Islamic architecture.
+Midday: Delight in a traditional Tunisian lunch at Restaurant Keftaji Kairouan, savoring the authentic flavors of the region.
+Afternoon: Visit the Sidi Ben Aissa Archaeological and Traditional Museum in Tozeur to discover the area's rich cultural heritage.
+Evening: Engage in outdoor recreation at Bassins des Aghlabides, exploring its impressive Islamic architecture and immersing yourself in the beauty of its surroundings.
+Night: Wind down at Dar Chama, a charming guest house in the heart of Kairouan, and indulge in a tranquil evening filled with relaxation.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Keftaji Kairouan is a top-rated restaurant located in Hammam Sousse, Tunisia. It specializes in traditional Tunisian cuisine, offering a wide range of dishes made with fresh, local ingredients. The restaurant is situated at coordinates (35.51295, 9.98453) and is easily accessible by car or public transportation.
+Come and visit the cozy cafe el clasico in kairouan. This well-rated cafe (4.5/5 by 2 visitors) is the perfect place to relax. Open 24 hours, feel free to pass by whenever you feel like it.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+La Mosquée du Barbier, également connue sous le nom de Sidi Sahib, est un lieu historique situé dans la ville sainte de Kairouan, en Tunisie. Cette mosquée, qui remonte au XVIe siècle, est dédiée au saint Abou Zamaa El-Balaoui.
+Elle est célèbre pour son mausolée, où est enterré le saint, qui attire chaque année de nombreux pèlerins musulmans. La Mosquée du Barbier est un site culturel important qui témoigne de la riche histoire religieuse et architecturale de Kairouan.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2969,12 +4171,78 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great Cafe, check out mqh~ lfTnsy located at mqh~ lfTnsy, Unnamed Road. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>mqh~ lfTnsy is a well-rated cafe located in Kairouan, Tunisia (35.6727967, 10.0949059). It offers a cozy atmosphere and a wide selection of coffee, tea, and snacks. It is a popular spot for locals and tourists alike to relax and enjoy a cup of coffee in the heart of the city.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in Kairouan that offers a perfect experience for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning:
+* Explore the Medina of Kairouan, a UNESCO World Heritage Site, with its narrow streets, traditional architecture, and vibrant markets.
+Mid-Morning:
+* Visit the Great Mosque of Kairouan, one of the oldest and most important mosques in North Africa, with its stunning architecture and historical significance.
+Midday:
+* Try local cuisine at GO Cafe, known for its delicious traditional Tunisian dishes and cozy atmosphere.
+Afternoon:
+* Visit the Sidi Ghariani Mausoleum and Museum, a historic site dedicated to the memory of a revered Sufi saint, with its intricate architecture and fascinating exhibits.
+Evening:
+* Enjoy scenic views from the walls of the Kasbah, a historic fortress that offers panoramic views of the city.
+Night:
+* Experience traditional Tunisian music and dance at La Kasba, a relaxed-style hotel with a restaurant and outdoor pool.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the heart of Kairouan (coordinates: 35.654691, 10.0913087), the GO Cafe is a popular spot among locals and tourists alike. With a focus on delicious cuisine, the cafe offers a wide range of dishes, including traditional Tunisian delicacies. Situated near the famous Three-Door Mosque (Mosquee des Trois Portes), the cafe's convenient location and cozy atmosphere make it a great place to relax and enjoy the local culture.
+mqh~ lshrTny is a 5-star rated cafe situated in kairouan, Tunisia, with coordinates (35.6727967, 10.0949059). It operates from 4:00 AM to 2:00 AM and offers a variety of services, including:
+* Cafe services
+The cafe is known for its friendly atmosphere and great service. It is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3084,14 +4352,71 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a top-rated cafe, visit Dosis coffee shop located at M4H4+3P5 Dosis coffee shop, Avenue khmais alouini,. 
-This popular spot is open daily from 07:00-22:00 and has a rating of 5.0, making it a must-visit for cafe lovers. 
-For more details, visit their website at https://instagram.com/fastryexpress%3Figshid%3DOGQ5ZDc2ODk2ZA%3D%3D or call them at 93 319 007.</t>
+          <t>Dosis Coffee Shop is a highly-rated (5.0) café situated in Kairouan, Tunisia (coordinates 35.654691, 10.0913087). It operates daily from 7 AM to 10 PM and boasts a website (https://instagram.com/fastryexpress%3Figshid%3DOGQ5ZDc2ODk2ZA%3D%3D) for further information and engagement.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe, Dosis coffee shop, in Kairouan that is open from 07:00-22:00 daily?</t>
+          <t>Day Plan:
+Morning: Explore the enchanting streets of Kairouan, Tunisia, and discover its rich history.
+Mid-Morning: Indulge in traditional Tunisian cuisine at Dar Chama, a charming guest house offering authentic and delectable dishes.
+Midday: Visit the iconic Kairouan Grand Mosque, an architectural masterpiece known for its stunning columns and intricate decorations, and experience its spiritual significance.
+Afternoon: Immerse yourself in the vibrant ambiance of Salle des Fetes Bensikali, a renowned discotheque known for its lively music and dance floor, making it an ideal destination for an energetic evening.
+Evening: Savor the flavors of Mecano Pizza, a pizzeria known for its exceptional pizzas, and enjoy a delightful dining experience with friends or family.
+Night: Relax and unwind at Dar El Henchir, a traditional guest house with antique-furnished rooms and a charming terrace, offering a serene ambiance for a perfect night's rest.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+First Time Pizzeria is a restaurant located in Kairouan, Tunisia, with a 4.6 rating based on 10 reviews. It offers a variety of dishes and is open from 9:00 am to 10:00 pm every day. The restaurant's main category is Restaurant, and its website is https://m.facebook.com/firsttimepizzeria/.
+Café Hermès is a popular cafe located in Kairouan. Its address is M39J+VP7 cafe hermess, Av. Mongi Slim, Kairouan. It operates from 4:00 am to 11:00 pm every day, offering a cozy ambiance for its customers. Café Hermès has been positively reviewed online, with a rating of 4.0.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+La Mosquée du Barbier, également connue sous le nom de Sidi Sahib, est un lieu historique situé dans la ville sainte de Kairouan, en Tunisie. Cette mosquée, qui remonte au XVIe siècle, est dédiée au saint Abou Zamaa El-Balaoui.
+Elle est célèbre pour son mausolée, où est enterré le saint, qui attire chaque année de nombreux pèlerins musulmans. La Mosquée du Barbier est un site culturel important qui témoigne de la riche histoire religieuse et architecturale de Kairouan.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3193,12 +4518,71 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out qhw@ Hmz@ located at M37H+5PW qhw@ Hmz@, Unnamed Road, Kairouan. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/%D9%82%D9%87%D9%88%D8%A9+%D8%AD%D9%85%D8%B2%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12fdd13df97cef6f:0x9e2241c5907dbe1c!8m2!3d35.6629983!4d10.0793187!16s%2Fg%2F11rxmc6_6n!19sChIJb-98-T3R_RIRHL59kMVBIp4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>**Café à Kairouan**
+Ce café, situé à Kairouan (coordonnées : 35.6727967, 10.0949059), est ouvert 24h/24. Il propose un large choix de boissons et de collations dans une ambiance chaleureuse et conviviale.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe named "qhw@ Hmz@" in Kairouan known for its excellent coffee and ambiance?</t>
+          <t>Day Plan:
+Morning: Explore the historical Sidi Ben Aissa Archaeological and Traditional Museum, showcasing the region's rich heritage.
+Mid-Morning: Visit the Bassins des Aghlabides, a historical reservoir that showcases Islamic hydraulic engineering.
+Midday: Try local cuisine at NARCO'S Pizzeria, known for its authentic pizza flavors.
+Afternoon: Take a guided tour of the Mosquee Okba Ibn Nafaa, one of the oldest mosques in North Africa.
+Evening: Enjoy the vibrant nightlife at Salle des Fêtes Bensikali, a popular discotheque in M'saken.
+Night: Wind down at Dar Chama, a charming guest house offering comfortable accommodations and a memorable experience.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Weld El Bey is a 4.1-rated restaurant located in Av. Kairouan, El Mourouj. It serves multiple cuisines and is open from 11:00 AM to 10:00 PM daily. The restaurant's main category is Restaurant, and its coordinates are (36.7366706, 10.210515).
+Cactus bistro kairouan is a cafe located at 187 Rue Beit Al Hekma in Kairouan, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 8am to 10pm, seven days a week. It is located in the heart of the city, making it a convenient place to stop for a bite to eat or a drink. The cafe has a friendly and inviting atmosphere, and the staff is always happy to help.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3300,12 +4684,72 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out mqh~ lshrTny (qhw@ blmyn) located at M3HQ+5J2 mqh~ lshrTny (qhw@ blmyn), C87. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:00-02:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%B4%D8%B1%D8%B7%D8%A7%D9%86%D9%8A+%28%D9%82%D9%87%D9%88%D8%A9+%D8%A8%D9%84%D9%85%D9%8A%D9%86%29%E2%80%AD/data=!4m7!3m6!1s0x12fdc5b6b69cd4d5:0xd300653d95a3fa7d!8m2!3d35.677884!4d10.0890208!16s%2Fg%2F11rxyk9n8r!19sChIJ1dSctrbF_RIRffqjlT1lANM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>mqh~ lshrTny is a 5-star rated cafe situated in kairouan, Tunisia, with coordinates (35.6727967, 10.0949059). It operates from 4:00 AM to 2:00 AM and offers a variety of services, including:
+* Cafe services
+The cafe is known for its friendly atmosphere and great service. It is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a top-rated cafe with a 5.0 rating and a wide range of categories to choose from?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the historic Medina of Kairouan, a UNESCO World Heritage site. Explore the narrow streets and soak in the unique atmosphere.
+Mid-Morning: Visit the Grand Mosque of Kairouan, one of the most significant mosques in North Africa. Admire its stunning architecture and learn about its historical importance.
+Midday: Enjoy a traditional Tunisian lunch at Dar Abderrahman Zarrouk, known for its authentic cuisine and warm atmosphere.
+Afternoon: Immerse yourself in the traditional crafts of Kairouan by visiting the Artisanal Center. Witness skilled artisans creating陶瓷, leather goods, and other traditional products.
+Evening: Take a leisurely walk in the Parc National de l'Ichkeul, a UNESCO World Heritage site. Enjoy the scenic views of the lake and the surrounding nature.
+Night: End the day with a delightful dinner at Vintage Bistro, which offers a cozy atmosphere and a blend of local and international flavors.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Abderrahman Zarrouk, located in the heart of Kairouan (35.6727967, 10.0949059), is a traditional Tunisian restaurant renowned for its authentic cuisine and warm atmosphere. With a rating of 4.3, it offers a delightful culinary experience that reflects the richness and flavors of the region.
+Cafe Taktak is a cafe located in Kairouan, Tunisia at 35.672837383891, 10.100961858317. It offers a variety of cafe-style food and beverages and is open from 05:00 to 23:00 every day. The cafe has a 4.9-star rating on Google based on 12 reviews.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Tunisia (coordinates: 35.680789525406, 10.103936021759), the renowned Mosquee Okba Ibn Nafaa is a 7th-century mosque renowned for its architectural splendor. Its imposing walls, square minaret, and intricate embellishments showcase the artistry of the era. Immerse yourself in the rich history of the Islamic civilization and admire the remarkable details that have made this mosque a must-visit historical attraction.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3399,12 +4843,79 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Main Street Coffee located at M4F4+FV4 Main Street Coffee, Av. Mohamed Ibn Sahnoun, Kairouan. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.673872158686, 10.107140747335. For more details, visit their website at https://www.google.com/maps/place/Main+Street+Coffee/data=!4m7!3m6!1s0x12fdc5006eacd1bf:0xb1ac251970b6c63d!8m2!3d35.6894596!4d10.0983309!16s%2Fg%2F11vr04ryfq!19sChIJv9GsbgDF_RIRPca2cBklrLE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Main Street Coffee is a cafe located in Kairouan, Tunisia. It has one review and a rating of 5.0. The cafe is on Mohamed Ibn Sahnoun Avenue and is in the category of cafes.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated café located on Main Street in Kairouan, known for its excellent selection of coffee options?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the Kairouan Grand Mosque for a glimpse of Islamic architecture.
+**Mid-Morning:**
+- Visit the Musée du Tapis to appreciate traditional carpet weaving.
+**Midday:**
+- Dine on local cuisine at Mama Chippo for a taste of Kairouan's culinary heritage.
+**Afternoon:**
+- Take a guided tour of the Bassins des Aghlabides to learn about the city's water management system.
+**Evening:**
+- Enjoy scenic views and relax at a cafe in Parc des Sports.
+**Night:**
+- Experience a vibrant atmosphere at Salle des Fêtes Bensikali, a renowned discotheque.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Mama Chippo** is a renowned restaurant in Kairouan, renowned for its mouthwatering cuisine. It's conveniently located at Rue cheikh Mohamed El Barak and is easily accessible. The eatery operates daily except Mondays and welcomes customers from 11:00 AM to 11:00 PM. Its menu and ambiance make it an excellent destination for dinner with friends or family.
+Cafe La Terrasse is a cafe located in Kairouan, Tunisia. It is open from 9:00 AM to 5:00 PM from Sunday to Saturday and has a 4.6 rating based on 5 reviews. You can find Cafe La Terrasse on Google Maps by clicking the link https://www.google.com/maps/place/Caf%C3%A9+La+Terrasse/data=!4m7!3m6!1s0x12fdc5699d91d043:0xe47ac4ca4f025567!8m2!3d35.6890217!4d10.0966971!16s%2Fg%2F11cs3q6zkc!19sChIJQ9CRnWnF_RIRZ1UCT8rEeuQ?authuser=0&amp;hl=fr&amp;rclk=1
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3514,14 +5025,70 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a delicious meal, check out Essiguifa located at Av. de Kairouan, Tozeur. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 33.921574605214, 8.138131631011. For more details, visit their website at https://www.facebook.com/ESSIGUIFADETOZEUR%3Fmibextid%3DZbWKwL or call them at 51 396 397.</t>
+          <t>Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>If you're craving a highly-rated Restaurant tunisien in Kairouan with a convenient location, where should you go?</t>
+          <t>Day Plan:
+Morning: Explore the Kairouan Grand Mosque, a historical landmark known for its exceptional Islamic architecture.
+Mid-Morning: Try local cuisine at Lablabi Gabssi, a traditional restaurant serving authentic Kairouani dishes.
+Midday: Visit the Mausolee du Barbier, a popular tourist destination known for its intricate architecture and collection of artifacts.
+Afternoon: Relax at Dar Chama, a charming guest house with a 4.8 rating, offering comfortable accommodations and a peaceful ambiance.
+Evening: Enjoy scenic views at the Station louage, a bus transportation service that offers a chance to witness the city's vibrant street life.
+Night: Participate in a cultural immersion at DAR EL MRABET Maison Musee, a historical museum showcasing the history and culture of Kairouan.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Lablabi Gabssi is a restaurant located in kairouan, Tunisia. Its coordinates are (35.6727967, 10.0949059).
+Espace Ben Rejeb is a cafe located in Kairouan, Tunisia. It offers a relaxing atmosphere with a rating of 4.0, based on 11 reviews. Situated at 35.673189168275 latitude and 10.102536932089 longitude, it is easily accessible. Espace Ben Rejeb's website, https://www.ben-rejeb.com/, offers additional information and reservations. Unfortunately, no specific description was provided.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3631,12 +5198,71 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to stay, check out Dar El Henchir located at Dar El Henchir, Al-Waslatiyah , km 55 Route De Kairouan Oueslatia , On Main Road To Alwaslatiyah, Ousseltia 3120. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes, Lodge to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.84778, 9.58944. For more details, visit their website at https://www.facebook.com/profile.php/%3Fid%3D100063673205877 or call them at 23 302 239.</t>
+          <t>Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>What is the top-rated accommodation in Kairouan, known for its Maison d'hotes and Lodge options, located near the main road to Alwaslatiyah and offering a 4.6 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historical and architectural grandeur of the Kairouan Grand Mosque, a UNESCO World Heritage Site.
+Mid-Morning: Immerse yourself in the local culture and cuisine at Cafe Taktak, where you can savor traditional Tunisian breakfast delicacies.
+Midday: Visit the Mausolee du Barbier and delve into the region's rich Islamic history and architecture.
+Afternoon: Enjoy a delightful lunch at Mecano Pizza, known for its mouthwatering pizzas and warm ambiance.
+Evening: Experience the vibrant nightlife at Salle des Fêtes Bensikali, where you can dance and socialize amidst a lively atmosphere.
+Night: Relax and unwind at Dar Hassine Allani, a charming guest house where you can rest and prepare for the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Lablabi Gabssi is a restaurant located in kairouan, Tunisia. Its coordinates are (35.6727967, 10.0949059).
+Cafe Taktak is a cafe located in Kairouan, Tunisia at 35.672837383891, 10.100961858317. It offers a variety of cafe-style food and beverages and is open from 05:00 to 23:00 every day. The cafe has a 4.9-star rating on Google based on 12 reviews.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+La Mosquée du Barbier, également connue sous le nom de Sidi Sahib, est un lieu historique situé dans la ville sainte de Kairouan, en Tunisie. Cette mosquée, qui remonte au XVIe siècle, est dédiée au saint Abou Zamaa El-Balaoui.
+Elle est célèbre pour son mausolée, où est enterré le saint, qui attire chaque année de nombreux pèlerins musulmans. La Mosquée du Barbier est un site culturel important qui témoigne de la riche histoire religieuse et architecturale de Kairouan.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3746,12 +5372,71 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated hotel, check out La Kasba located at 3140 Rue de La Kasbah. This 4.3-rated destination offers a range of categories including Hotel and Lieu historique. To get there, use these GPS coordinates: 35.680466016969, 10.101036154793. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 77 237 301.</t>
+          <t>La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>What is the location and special feature of the highly rated hotel, La Kasba, in Kairouan?</t>
+          <t>Day Plan:
+Morning: Explore the historical Medina of Kairouan, a UNESCO World Heritage Site, and admire its ancient mosques and architecture.
+Mid-Morning: Visit the Grand Mosque of Kairouan, one of the oldest and most significant mosques in North Africa, and marvel at its stunning architecture and spiritual significance.
+Midday: Savor a traditional Tunisian lunch at La Kasba, a charming hotel known for its authentic cuisine and cozy atmosphere.
+Afternoon: Visit the Musée national d'art islamique de Raqqada to immerse yourself in the captivating realm of Islamic art and admire its exquisite collection.
+Evening: Take a guided tour of the Bassins des Aghlabides, a historical place in Kairouan known for its remarkable Islamic architecture and its role in the city's hydraulic system.
+Night: Enjoy a relaxing evening at Vintage Bistro, a cozy eatery in the heart of Kairouan, and indulge in mouthwatering dishes that showcase local flavors and international influences.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Lablabi Gabssi is a restaurant located in kairouan, Tunisia. Its coordinates are (35.6727967, 10.0949059).
+Cafe in beb el khoukha is a cafe located in kairouan, Tunisia. Situated at the coordinates (35.6796035, 10.1047369), it offers a variety of services and amenities to its customers. The cafe is well-rated, with a 5.0 rating based on 4 reviews. It is open from 09:00 to 00:00 on weekdays, and closed on weekends. Unfortunately, there is no available information about the cafe's website, phone number, or owner.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+La Mosquée du Barbier, également connue sous le nom de Sidi Sahib, est un lieu historique situé dans la ville sainte de Kairouan, en Tunisie. Cette mosquée, qui remonte au XVIe siècle, est dédiée au saint Abou Zamaa El-Balaoui.
+Elle est célèbre pour son mausolée, où est enterré le saint, qui attire chaque année de nombreux pèlerins musulmans. La Mosquée du Barbier est un site culturel important qui témoigne de la riche histoire religieuse et architecturale de Kairouan.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+Discover the Musée national d'art islamique de Raqqada in kairouan, a renowned museum with a rating of 4.7 and over 10 reviews. Immerse yourself in the captivating realm of Islamic art and admire the museum's captivating collection. It boasts a prime location at H3V3+249 Musee national d'art islamique de Raqqada, Kairouan, and is conveniently open from 9:00 AM to 4:00 PM, except on Mondays. Kindly note that the museum's description and phone number are currently unavailable.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3857,16 +5542,86 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a Maison d'hotes, check out Dar Hassine Allani located at 37 Rue El Kadraoui, Kairouan. 
-This top-rated destination is perfect for Maison d'hotes lovers. 
-With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.6727967, 10.0949059. 
-For more details, visit their website at https://www.facebook.com/darhassineallani/ or call them at 25 258 684.</t>
+          <t>Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated Maison d'hotes in Kairouan with an excellent rating of 4.0?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic grandeur of the Kairouan Grand Mosque.
+**Mid-Morning:**
+- Immerse yourself in the captivating realm of Islamic art at the Musée national d'art islamique de Raqqada.
+**Midday:**
+- Savor the authentic flavors of Tunisian cuisine at the highly-rated mT`m dr l`yl@ restaurant.
+**Afternoon:**
+- Unleash your adventurous spirit with a guided tour of the ancient Bassins des Aghlabides, marveling at their architectural brilliance.
+**Evening:**
+- Indulge in a shopping spree at Click'airouan STORE, discovering the city's vibrant handicraft scene.
+**Night:**
+- Experience the electrifying nightlife at Salle des Fêtes Bensikali, dancing the night away to captivating tunes.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Restaurant mT`m dr l`yl@**
+mT`m dr l`yl@ is a highly rated restaurant located in Kairouan, Tunisia. It offers a variety of dining options, including traditional Tunisian cuisine. The restaurant is known for its friendly owner and excellent service. It is open from 8 am to 10 pm daily, except for Fridays.
+**Highlights:**
+* Convenient location in the center of the city
+* Accommodating staff and pleasant atmosphere
+* Delicious selection of Tunisian dishes
+**Coordinates:**
+* Latitude: 35.6727967
+* Longitude: 10.0949059
+Fratello Cafe is a highly-rated cafe located in the heart of Kairouan, Tunisia. It offers a wide range of delicious food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at M4F2+3Q7 Fratello Cafe, Av. de La Republique, Kairouan, and can be reached by phone at 77 229 270.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+Discover the Musée national d'art islamique de Raqqada in kairouan, a renowned museum with a rating of 4.7 and over 10 reviews. Immerse yourself in the captivating realm of Islamic art and admire the museum's captivating collection. It boasts a prime location at H3V3+249 Musee national d'art islamique de Raqqada, Kairouan, and is conveniently open from 9:00 AM to 4:00 PM, except on Mondays. Kindly note that the museum's description and phone number are currently unavailable.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3976,14 +5731,72 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Dar El Henchir located at Dar El Henchir, Al-Waslatiyah , km 55 Route De Kairouan Oueslatia , On Main Road To Alwaslatiyah, Ousseltia 3120. 
-This top-rated destination is perfect for Maison d'hotes and offers a range of Maison d'hotes, Lodge to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.84778, 9.58944. For more details, visit their website at https://www.facebook.com/profile.php/%3Fid%3D100063673205877 or call them at 23 302 239.</t>
+          <t>Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly rated accommodation establishment with Maison d'hotes and Lodge options?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Bassins des Aghlabides, a testament to the ingenuity of Islamic civilization.
+Mid-Morning: Visit the Mosque of the Three Doors, renowned for its intricate architectural design and historical significance.
+Midday: Savory the flavors of traditional Lebanese cuisine in the delightful ambiance of Delight Lebanon restaurant.
+Afternoon: Immerse yourself in the rich history and culture of Kairouan at the Musée Historique de Kairouan, showcasing artifacts and exhibits that narrate the city's compelling past.
+Evening: Ascend the minarets of the majestic Kairouan Grand Mosque, offering panoramic views of the city and an awe-inspiring spiritual experience.
+Night: Wander through the vibrant streets of the medina, discovering unique treasures at Click'airouan STORE, a treasure cove of local handicrafts.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Delight Lebanon, a restaurant located in Kairouan, offers tantalizing Lebanese cuisine to satisfy your cravings. Situated at the coordinates (35.6727967, 10.0949059), you can easily find this delightful spot to savor the flavors of Lebanon.
+Come and visit the cozy cafe el clasico in kairouan. This well-rated cafe (4.5/5 by 2 visitors) is the perfect place to relax. Open 24 hours, feel free to pass by whenever you feel like it.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4089,16 +5902,79 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Nestled in the heart of kairouan, Dar Alouini is a top-rated 4.4-star Maison d'hotes that caters to the needs of travelers looking for a memorable experience. This charming hotel is located at Dar Alouini, 34 Rue Oum, Iyadh, 3100, Kairouan and offers a peaceful retreat for guests seeking tranquility and comfort.
-Dar Alouini boasts an array of amenities and services that cater to the needs of discerning travelers. From cozy rooms to relaxing common areas, the hotel provides a welcoming ambiance for visitors. The property has garnered rave reviews from guests who have praised its exceptional service, comfortable accommodations, and convenient location.
-To make your stay even more enjoyable, the hotel offers a range of amenities, including free Wi-Fi, a breakfast service, and a 24-hour front desk. The friendly and knowledgeable staff is always willing to go the extra mile to ensure that guests have a memorable and enjoyable stay.
-For those looking to explore the surrounding area, Dar Alouini is ideally situated near many of kairouan's most popular attractions. The Great Mosque of Kairouan, a UNESCO World Heritage Site, is just a short walk away, while the Medina of Kairouan offers a vibrant and colorful marketplace experience.
-To book your stay at Dar Alouini or to learn more about the hotel's offerings, visit their website at http://dar-alouini.com/ or call them at 77 231 321.</t>
+          <t>Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where is Dar Alouini located, and what is its proximity to a notable UNESCO World Heritage Site?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Explore** the ancient ruins of the Bassins des Aghlabides, a testament to the ingenuity of the Islamic civilization.
+**Mid-Morning:**
+* **Taste local cuisine** at Lablabi Gabssi, a renowned restaurant serving up authentic Tunisian dishes.
+**Midday:**
+* **Visit** the Kairouan Grand Mosque, a historical landmark and significant spiritual site.
+**Afternoon:**
+* **Relax** with a traditional tea and pastry at mqh~ `bd llh, a popular tea room with a warm and inviting atmosphere.
+**Evening:**
+* **Shop** for traditional handicrafts and souvenirs at Click'airouan STORE, nestled in the heart of the medina.
+**Night:**
+* **Enjoy live music** and dance at Salle des Fêtes Bensikali, a vibrant discotheque known for its lively nightlife.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Lablabi Gabssi is a restaurant located in kairouan, Tunisia. Its coordinates are (35.6727967, 10.0949059).
+Miami, a quaint cafe situated in a peaceful area of Kairouan, Tunisia, invites you to unwind and indulge in the aroma of freshly brewed coffee. Its inviting atmosphere and friendly staff welcome locals and travelers alike. Located conveniently at coordinates (35.6727967, 10.0949059), Miami is a perfect destination for a morning pick-me-up or a leisurely afternoon break.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+La Mosquée du Barbier, également connue sous le nom de Sidi Sahib, est un lieu historique situé dans la ville sainte de Kairouan, en Tunisie. Cette mosquée, qui remonte au XVIe siècle, est dédiée au saint Abou Zamaa El-Balaoui.
+Elle est célèbre pour son mausolée, où est enterré le saint, qui attire chaque année de nombreux pèlerins musulmans. La Mosquée du Barbier est un site culturel important qui témoigne de la riche histoire religieuse et architecturale de Kairouan.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4200,14 +6076,71 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to stay, check out Hotel Ettaoufik located at Hotel Ettaoufik, Kairouan. 
-This top-rated hotel is perfect for hotel lovers and offers a range of amenities to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.67109, 10.09393. For more details, call them at 51 802 840.</t>
+          <t>Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a top-rated hotel with a 4.6 rating, perfect for hotel enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Great Mosque of Kairouan, a UNESCO World Heritage Site.
+Mid-Morning: Visit the Mausolee du Barbier, a museum and tourist attraction known for its beautiful architecture and historical significance.
+Midday: Try local cuisine at Saraya Al Bey, a popular restaurant serving traditional Tunisian dishes.
+Afternoon: Take a guided tour of the Sidi Ben Aissa Archaeological and Traditional Museum to learn about the region's rich heritage.
+Evening: Enjoy a relaxing hammam experience at a local spa or hotel.
+Night: Experience the vibrant nightlife at Salle des Fêtes Bensikali, a renowned discotheque with a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Saraya Al Bey**
+Saraya Al Bey is a popular restaurant located in Kairouan, Tunisia (Latitude: 35.678709970301, Longitude: 10.103632375538). It offers a diverse menu, specializing in traditional cuisine, and provides a cozy ambiance for dining. With a 4.0 rating based on 47 reviews, Saraya Al Bey is a well-received dining destination in Kairouan.
+Cafe Taktak is a cafe located in Kairouan, Tunisia at 35.672837383891, 10.100961858317. It offers a variety of cafe-style food and beverages and is open from 05:00 to 23:00 every day. The cafe has a 4.9-star rating on Google based on 12 reviews.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4307,10 +6240,74 @@
           <t>kairouan</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Question: What is the name of the location that remains unexplored, offering a unique sense of adventure and discovery?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina, the heart of Kairouan, and delve into its narrow streets, vibrant markets, and ancient landmarks.
+Mid-Morning: Visit the Great Mosque of Kairouan, a UNESCO World Heritage Site, and marvel at its stunning architecture and spiritual significance.
+Midday: Savor traditional Tunisian cuisine at GO Cafe, renowned for its delectable dishes and cozy atmosphere.
+Afternoon: Discover the Bassins des Aghlabides, an impressive water management system, and admire its tranquil surroundings and historical significance.
+Evening: Participate in a guided tour of the Mausolee du Barbier, a renowned museum showcasing the history and culture of Kairouan.
+Night: Immerse yourself in the lively nightlife at Salle des Fetes Bensikali, a popular discotheque known for its vibrant atmosphere and dance floor.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+GO Cafe, located in the heart of Kairouan, Tunisia, is a renowned eatery that seamlessly blends modern and traditional vibes. With a rating of 4.8/5 based on 63 reviews, it has garnered appreciation for its delectable Tunisian cuisine, cozy atmosphere, and prime location. Its proximity to the Medina and the Mosquee des Trois Portes offers patrons a convenient base to explore the city's historical and cultural treasures.
+Cafe Taktak is a cafe located in Kairouan, Tunisia at 35.672837383891, 10.100961858317. It offers a variety of cafe-style food and beverages and is open from 05:00 to 23:00 every day. The cafe has a 4.9-star rating on Google based on 12 reviews.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Tunisia (coordinates: 35.680789525406, 10.103936021759), the renowned Mosquee Okba Ibn Nafaa is a 7th-century mosque renowned for its architectural splendor. Its imposing walls, square minaret, and intricate embellishments showcase the artistry of the era. Immerse yourself in the rich history of the Islamic civilization and admire the remarkable details that have made this mosque a must-visit historical attraction.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4412,14 +6409,70 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great hotel, check out Hotel Ettaoufik located at Hotel Ettaoufik, Kairouan. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. Hotel Ettaoufik is open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.67109, 10.09393. For more details, visit their website at nan or call them at 51 802 840.</t>
+          <t>Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated Hotel Ettaoufik with a perfect location for hotel enthusiasts in Kairouan?</t>
+          <t>Day Plan:
+Morning: Explore the historical Kairouan Grand Mosque, marveling at its architectural splendor and religious significance.
+Mid-Morning: Indulge in the tantalizing flavors of traditional Tunisian cuisine at PIZZA NY, a culinary gem nestled in the heart of Kairouan.
+Midday: Visit the Sidi Amor Abada Mausoleum, a museum that offers a glimpse into the history and culture of the region.
+Afternoon: Immerse yourself in the rich heritage of Kairouan by visiting the DAR EL MRABET Maison Musee, a historical museum dedicated to the city's past.
+Evening: Take a stroll through the bustling medina, or old town, and shop for artisanal products at Click'airouan STORE.
+Night: Experience the lively nightlife at Salle des Fêtes Bensikali, a renowned discotheque that offers a vibrant atmosphere and captivating dance floor.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+In quaint Kairouan, Tunisia, nestles a culinary gem known as PIZZA NY. Its location, defined by the coordinates (35.6727967, 10.0949059), places it at the heart of the city. With a stellar 5.0 rating based on 7 reviews, this restaurant specializes in offering a tantalizing menu, brimming with flavors that delight the palate. It caters to its patrons from 9:00 AM to 10:00 PM every day, ensuring culinary satisfaction at all hours.
+Coffee Time is a highly-rated cafe situated in Kairouan, Tunisia. Known for its cozy atmosphere and friendly staff, the cafe offers a wide range of coffee and tea beverages, as well as pastries and light snacks. Located at coordinates (35.6727967, 10.0949059), the cafe is easily accessible and open daily from 05:00 to 22:00.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Tunisia (coordinates: 35.680789525406, 10.103936021759), the renowned Mosquee Okba Ibn Nafaa is a 7th-century mosque renowned for its architectural splendor. Its imposing walls, square minaret, and intricate embellishments showcase the artistry of the era. Immerse yourself in the rich history of the Islamic civilization and admire the remarkable details that have made this mosque a must-visit historical attraction.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4529,12 +6582,72 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a place to stay, check out La Kasba located at 3140 Rue de La Kasbah. This top-rated destination is perfect for Hotel lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.680466016969, 10.101036154793. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 77 237 301.</t>
+          <t>La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated hotel with a rating of 4.3 in Kairouan, perfect for hotel enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Great Mosque of Kairouan, an architectural marvel and a UNESCO World Heritage Site.
+Mid-Morning: Immerse in Islamic art and history at the Musée national d'art islamique de Raqqada, showcasing captivating collections and artifacts.
+Midday: Delight in an authentic lunch at Restaurant Salem, savoring traditional Tunisian cuisine in a welcoming ambiance.
+Afternoon: Visit the Bassins des Aghlabides, an ancient reservoir and testament to Islamic engineering prowess, amidst picturesque surroundings.
+Evening: Stroll through the vibrant medina of Kairouan and visit Click'airouan STORE for unique handicrafts and souvenirs, while experiencing the bustling local atmosphere.
+Night: Embark on a guided tour of the Kairouan Grand Mosque, admiring its stunning architecture and experiencing the sacred ambiance of this spiritual landmark.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Salem is a highly-rated dining establishment located in Kairouan, Tunisia, offering a delectable culinary experience with a 4.0 rating based on 2 reviews. The restaurant is renowned for its authentic cuisine, served in a welcoming ambiance. Conveniently situated at M3JH+WC4 restaurant salem ( ademie) mT`m lslm, RR99, Kairouan, the restaurant's coordinates are 35.690904194799, 10.055042442587. You can reach Restaurant Salem by phone at 97 868 511 for reservations or inquiries.
+mqh~ lshrTny is a 5-star rated cafe situated in kairouan, Tunisia, with coordinates (35.6727967, 10.0949059). It operates from 4:00 AM to 2:00 AM and offers a variety of services, including:
+* Cafe services
+The cafe is known for its friendly atmosphere and great service. It is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+Discover the Musée national d'art islamique de Raqqada in kairouan, a renowned museum with a rating of 4.7 and over 10 reviews. Immerse yourself in the captivating realm of Islamic art and admire the museum's captivating collection. It boasts a prime location at H3V3+249 Musee national d'art islamique de Raqqada, Kairouan, and is conveniently open from 9:00 AM to 4:00 PM, except on Mondays. Kindly note that the museum's description and phone number are currently unavailable.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4640,12 +6753,84 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated hotel, check out Dar El Caid. This hotel is perfect for hotel lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.921574605214, 8.138131631011. For more details, visit their website at http://darelcaid.com/ or call them at 99 179 603.</t>
+          <t>Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>If you're exploring Kairouan and seeking a highly acclaimed hotel, which establishment boasts an impressive rating and an abundance of room categories to suit your preferences?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the ancient ruins of **The Bassins des Aghlabides**, a historical reservoir built in the 9th century.
+**Mid-Morning:**
+* Visit the **Mosquee du Barbier jm` by zm`@ lblwy** for a glimpse into Islamic architecture and history.
+**Midday:**
+* Try the local cuisine at **Restaurant mT`m dr l`yl@**, known for its traditional Tunisian dishes.
+**Afternoon:**
+* Engage in a guided tour of the **Great Mosque of Kairouan**, a UNESCO World Heritage Site renowned for its architectural significance.
+**Evening:**
+* Shop for local handicrafts and pottery at **Click'airouan STORE** in the historic medina.
+**Night:**
+* Experience the lively nightlife at **Salle des Fêtes Bensikali**, a popular discotheque with a vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Restaurant mT`m dr l`yl@**
+mT`m dr l`yl@ is a highly rated restaurant located in Kairouan, Tunisia. It offers a variety of dining options, including traditional Tunisian cuisine. The restaurant is known for its friendly owner and excellent service. It is open from 8 am to 10 pm daily, except for Fridays.
+**Highlights:**
+* Convenient location in the center of the city
+* Accommodating staff and pleasant atmosphere
+* Delicious selection of Tunisian dishes
+**Coordinates:**
+* Latitude: 35.6727967
+* Longitude: 10.0949059
+mqh~ lfTnsy is a well-rated cafe located in Kairouan, Tunisia (35.6727967, 10.0949059). It offers a cozy atmosphere and a wide selection of coffee, tea, and snacks. It is a popular spot for locals and tourists alike to relax and enjoy a cup of coffee in the heart of the city.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4747,12 +6932,71 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Maison d'hotes, check out Dar Elhadir located at W4CP+RWJ Dar Elhadir, Av. de Kairouan, Tozeur. With a rating of 4.9, it's a must-visit spot and offers a range of categories to choose from. To get there, use these GPS coordinates: 33.921574605214, 8.138131631011. For more details, visit their website at https://www.google.com/maps/place/Dar+Elhadir/data=!4m10!3m9!1s0x1257c1c4847f0fcd:0x85de1da160a07e3b!5m2!4m1!1i2!8m2!3d33.9216744!4d8.1377987!16s%2Fg%2F11sddd1cxr!19sChIJzQ9_hMTBVxIRO36gYKEd3oU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 099 162.</t>
+          <t>Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find Dar Elhadir, a highly-rated Maison d'hotes with a 4.9 rating and a range of categories to choose from, for a unique trip experience?</t>
+          <t>Day Plan:
+Morning: Explore the Kairouan Grand Mosque, a significant religious and architectural landmark.
+Mid-Morning: Take a guided tour of the Bassins des Aghlabides, an ancient reservoir showcasing Islamic hydraulic engineering.
+Midday: Try local cuisine at Dar Lella Habiba, a highly rated restaurant offering delicious couscous with a beautiful city view.
+Afternoon: Relax and enjoy the sights and sounds at the Parc National de la Chebika, a picturesque natural oasis.
+Evening: Participate in a traditional music and dance performance at the Dar Chama guest house, known for its authentic cultural experiences.
+Night: Savor the flavors of Tunisian cuisine at Uncle Hassine (Kafteji), a fast-food restaurant renowned for its kafteji dish.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Lella Habiba is a restaurant located in Kairouan, Tunisia, offering a menu focused on couscous. The restaurant is in the city center, near the Great Mosque of Kairouan, and offers a beautiful view of the city. With a rating of 4.5 based on 33 reviews, the restaurant is highly appreciated for its delicious food, friendly service, and beautiful setting.
+"Chez Mamie" is a popular cafe in Kairouan, Tunisia. It offers a cozy atmosphere, with indoor and outdoor seating. The menu includes a variety of breakfast and brunch items, as well as freshly squeezed smoothies. The cafe is located conveniently close to the Great Mosque of Kairouan, making it a great spot to grab a bite before or after exploring the historic site. With an impressive 4.4 rating based on 55 reviews, Chez Mamie is a top-rated destination for locals and tourists alike.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located in the city center, making it easily accessible for travelers. The station has a rating of 3.2 stars based on 9 reviews. Its coordinates are 35.6727967, 10.0949059.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4862,12 +7106,70 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in Kairouan, make sure to visit Mosquee Okba Ibn Nafaa, a famous mosque located at Rue De La Kasbah. With a rating of 4.6, it's a top-rated destination for those interested in Mosquee. It's open from 08:00-14:00 and features a range of attractions, including Lieu historique and Attraction touristique. For more information, visit their website or call 76 489 133.</t>
+          <t>Located in Kairouan, Tunisia (coordinates: 35.680789525406, 10.103936021759), the renowned Mosquee Okba Ibn Nafaa is a 7th-century mosque renowned for its architectural splendor. Its imposing walls, square minaret, and intricate embellishments showcase the artistry of the era. Immerse yourself in the rich history of the Islamic civilization and admire the remarkable details that have made this mosque a must-visit historical attraction.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where is the highly rated Mosquee Okba Ibn Nafaa located, offering a unique historical experience with its top-rated attractions?</t>
+          <t>Day Plan:
+Morning: Explore the historic Kairouan Grand Mosque, an architectural gem known for its stunning columns and intricate decorations.
+Mid-Morning: Visit the Mausolee du Barbier, a museum and tourist attraction showcasing the city's heritage and religious significance.
+Midday: Satisfy your taste buds with a delightful lunch at El Brija Restaurant, savoring traditional Tunisian cuisine and local flavors.
+Afternoon: Immerse yourself in the vibrant streets of the medina, browsing for unique handmade crafts and souvenirs at Click'airouan STORE.
+Evening: Relax and unwind at Vintage Bistro, indulging in the cozy atmosphere and delectable dishes that fuse local and international flavors.
+Night: Head to Salle des Fêtes Bensikali, a popular discotheque, where you can enjoy a lively nightlife experience with captivating music and dancing.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Brija Restaurant, located in Kairouan (coordinates: 35.654691, 10.0913087), offers a diverse menu including couscous, pizza, and beverages at reasonable prices. With its convenient location near the city's main mosque, El Brija Restaurant caters to both locals and tourists. Featuring a cafe atmosphere with a terrace, it's an excellent spot for casual dining or coffee breaks.
+Café maure barrouta is a cafe located in Kairouan, Tunisia. It has a rating of 4.3 and is open from 07:00-00:00. The cafe is located at the coordinates (35.67574, 10.10064) and offers a variety of cafe related products and services.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Tunisia (coordinates: 35.680789525406, 10.103936021759), the renowned Mosquee Okba Ibn Nafaa is a 7th-century mosque renowned for its architectural splendor. Its imposing walls, square minaret, and intricate embellishments showcase the artistry of the era. Immerse yourself in the rich history of the Islamic civilization and admire the remarkable details that have made this mosque a must-visit historical attraction.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4977,14 +7279,70 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mosquee Okba Ibn Nafaa located at Rue De La Kasbah. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of categories like Mosquee, Lieu historique, Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-14:00. To get there, use these GPS coordinates: 35.680789525406, 10.103936021759. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+Okba+Ibn+Nafaa/data=!4m7!3m6!1s0x12fdc53f682397e3:0x89210e086723ba1e!8m2!3d35.6813693!4d10.1041651!16zL20vMGYyNmZz!19sChIJ45cjaD_F_RIRHrojZwgOIYk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 76 489 133.</t>
+          <t>The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and want to visit a highly-rated Mosquee with historical significance, what landmark should you head to atRue De La Kasbah?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina of Kairouan, a UNESCO World Heritage site known for its narrow streets, mosques, and souks.
+Mid-Morning: Visit the Grand Mosque of Kairouan, an architectural masterpiece and one of the most important religious sites in Islam.
+Midday: Indulge in a traditional Tunisian lunch at Restaurant Ci Gusta Kairouan, known for its delectable sundaes and pizzas.
+Afternoon: Immerse yourself in the local culture at Dar El Henchir, a traditional guest house that offers a glimpse into the history and hospitality of the region.
+Evening: Take a leisurely walk around Aouani, a bustling intersection in the city center, and experience the vibrant street life.
+Night: Enjoy a delightful dinner at NARCO'S Pizzeria, rated highly for its authentic pizza flavors.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+First Time Pizzeria is a restaurant located in Kairouan, Tunisia, with a 4.6 rating based on 10 reviews. It offers a variety of dishes and is open from 9:00 am to 10:00 pm every day. The restaurant's main category is Restaurant, and its website is https://m.facebook.com/firsttimepizzeria/.
+mqh~ lfTnsy is a well-rated cafe located in Kairouan, Tunisia (35.6727967, 10.0949059). It offers a cozy atmosphere and a wide selection of coffee, tea, and snacks. It is a popular spot for locals and tourists alike to relax and enjoy a cup of coffee in the heart of the city.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5086,16 +7444,73 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Bassins des Aghlabides located at M3PW+R5V Bassins des Aghlabides, Av. de la Republique, Kairouan. 
-This top-rated destination is perfect for Lieu historique lovers and offers a range of Lieu historique, Site historique, Attraction touristique to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on [ ]. To get there, use these GPS coordinates: 
-35.6860065, 10.0949492. For more details, visit their website at 
-https://www.google.com/maps/place/Bassins+des+Aghlabides/data=!4m7!3m6!1s0x12fdc56a6be16839:0x746ab95f1bd7a246!8m2!3d35.6871107!4d10.0954229!16s%2Fg%2F121zpg5t!19sChIJOWjha2rF_RIRRqLXG1-5anQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [ ].</t>
+          <t>Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated historical site featuring various attractions like Bassins des Aghlabides in Kairouan?</t>
+          <t>Day Plan:
+Morning: Explore the historical Sidi Ghariani Mausoleum and learn about its significance as a pilgrimage site.
+Mid-Morning: Immerse yourself in the ancient Mosquée des trois portes, marveling at its unique architecture and UNESCO heritage status.
+Midday: Savor the authentic flavors of Tunisian cuisine at El Brija Restaurant, known for its delectable couscous and reasonable prices.
+Afternoon: Visit the Kairouan Grand Mosque, a masterpiece of Islamic architecture and a profound spiritual landmark.
+Evening: Enjoy a delightful dining experience at Vintage Bistro, where local flavors and international influences blend harmoniously.
+Night: Experience the vibrant nightlife at Salle des Fêtes Bensikali, a renowned discotheque with an energetic atmosphere and captivating dance floor.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Brija Restaurant, located in Kairouan (coordinates: 35.654691, 10.0913087), offers a diverse menu including couscous, pizza, and beverages at reasonable prices. With its convenient location near the city's main mosque, El Brija Restaurant caters to both locals and tourists. Featuring a cafe atmosphere with a terrace, it's an excellent spot for casual dining or coffee breaks.
+In the heart of Kairouan lies the charming City Lounge Cafe, a haven for coffee and tea lovers. Located at (35.6885427, 10.0946527), this cafe offers a cozy atmosphere with a focus on providing delicious beverages. With a rating of 4.0 from 7 reviews, it is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5201,12 +7616,71 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a fascinating museum, head to Mausolee du Barbier located at Mausolee du Barbier, Mosquee du Barbier, Av. de la Republique, Kairouan 3100. With a rating of 4.5 and 353 reviews, it's a must-visit spot for history and architecture enthusiasts. It's open daily from 08:00-19:00. To get there, use these GPS coordinates: 35.673189168275, 10.102536932089. For more details, visit their website at https://www.google.com/maps/place/Mausol%C3%A9e+du+Barbier/data=!4m7!3m6!1s0x12fdc55c9a89b16d:0x836bddc085044f48!8m2!3d35.682061!4d10.090226!16s%2Fg%2F1tgldk1j!19sChIJbbGJmlzF_RIRSE8EhcDda4M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 77 231 897.</t>
+          <t>The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Which historically significant museum in Kairouan, renowned for its architecture and high ratings, can be visited daily from 8 am to 7 pm?</t>
+          <t>Day Plan:
+Morning: Exploring the Medina and the Mosquee des Trois Portes
+Mid-Morning: Trying local cuisine at GO Cafe
+Midday: Visiting the Conservatoire or DAR EL MRABET Maison Musee
+Afternoon: Relaxing with a traditional tea at mqh~ `bd llh
+Evening: Shopping for handicrafts at Click'airouan STORE
+Night: Experiencing the lively nightlife at Salle des Fêtes Bensikali</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+GO Cafe, located in the heart of Kairouan, Tunisia, is a renowned eatery that seamlessly blends modern and traditional vibes. With a rating of 4.8/5 based on 63 reviews, it has garnered appreciation for its delectable Tunisian cuisine, cozy atmosphere, and prime location. Its proximity to the Medina and the Mosquee des Trois Portes offers patrons a convenient base to explore the city's historical and cultural treasures.
+Cafe Chic is a popular cafe located in the heart of Kairouan. It offers a wide variety of delicious food and drinks, as well as a cozy atmosphere and friendly service. The cafe is open daily from 7:00 AM to midnight, and it is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5304,12 +7778,72 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mosquee des trois portes located at M4G3+W3W Mosquee des trois portes, Avineda De Kortoba, Kairouan. This top-rated destination is perfect for Mosquee lovers and offers a range of attractions to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can you visit a top-rated destination with a 4.4 rating and find attractions that cater specifically to Mosquee enthusiasts in Kairouan?</t>
+          <t>Day Plan:
+Morning: Explore the historic Grand Mosque of Kairouan, renowned for its exceptional Islamic architecture. Be captivated by its stunning columns and intricate decorations, offering a profound religious and spiritual experience.
+Mid-Morning: Savor the authentic flavors of Tunisian cuisine at Dar Abderrahman Zarrouk, a traditional restaurant in the heart of Kairouan. Indulge in their delightful dishes that reflect the richness of the region's culinary heritage.
+Midday: Immerse yourself in the cultural heritage of Kairouan at the Sidi Amor Abada Mausoleum, dedicated to the life and teachings of the Sufi saint. Explore the museum's collection of artifacts and documents that provide insights into his legacy.
+Afternoon: Take a leisurely stroll through the ancient Medina of Kairouan, a UNESCO World Heritage Site. Discover its labyrinthine streets, vibrant atmosphere, and countless handicraft shops, allowing you to delve into the city's unique character.
+Evening: As the sun sets, embark on a guided tour of the Bassins des Aghlabides, an impressive historical site showcasing the region's advanced Islamic hydraulic engineering. Marvel at these remarkable basins that once supplied water to the city.
+Night: Conclude the day with a memorable dinner at NARCO'S Pizzeria, highly rated for its authentic and mouthwatering pizzas. Relish the flavors of traditional Tunisian cuisine as you reflect on your day's explorations.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Abderrahman Zarrouk, located in the heart of Kairouan (35.6727967, 10.0949059), is a traditional Tunisian restaurant renowned for its authentic cuisine and warm atmosphere. With a rating of 4.3, it offers a delightful culinary experience that reflects the richness and flavors of the region.
+Dosis Coffee Shop is a highly-rated (5.0) café situated in Kairouan, Tunisia (coordinates 35.654691, 10.0913087). It operates daily from 7 AM to 10 PM and boasts a website (https://instagram.com/fastryexpress%3Figshid%3DOGQ5ZDc2ODk2ZA%3D%3D) for further information and engagement.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+La Mosquée du Barbier, également connue sous le nom de Sidi Sahib, est un lieu historique situé dans la ville sainte de Kairouan, en Tunisie. Cette mosquée, qui remonte au XVIe siècle, est dédiée au saint Abou Zamaa El-Balaoui.
+Elle est célèbre pour son mausolée, où est enterré le saint, qui attire chaque année de nombreux pèlerins musulmans. La Mosquée du Barbier est un site culturel important qui témoigne de la riche histoire religieuse et architecturale de Kairouan.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5407,14 +7941,76 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in kairouan, for a sacred experience, check out La Mosqur E du Barbier (Sidi Sahib,'Abou Zamaa El-Balaoui, Zawiya) at Unnamed Road, Kairouan. 
-This top-rated destination is perfect for Mosquee lovers and also has historical importance. 
-With a rating of 4.9, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/La+Mosqu%E0%B8%A3+E+du+Barbier+%28Sidi+Sahib,%27Abou+Zamaa+El-Balaoui,+Zawiya%29/data=!4m7!3m6!1s0x12fdc5ffb21b32f7:0x7c31ce5de2c7a3cf!8m2!3d35.6819896!4d10.0903402!16s%2Fg%2F11h6jfzd1k!19sChIJ9zIbsv_F_RIRz6PH4l3OMXw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>La Mosquée du Barbier, également connue sous le nom de Sidi Sahib, est un lieu historique situé dans la ville sainte de Kairouan, en Tunisie. Cette mosquée, qui remonte au XVIe siècle, est dédiée au saint Abou Zamaa El-Balaoui.
+Elle est célèbre pour son mausolée, où est enterré le saint, qui attire chaque année de nombreux pèlerins musulmans. La Mosquée du Barbier est un site culturel important qui témoigne de la riche histoire religieuse et architecturale de Kairouan.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly-rated spiritual destination renowned for its historical significance and appeal to Mosquee enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historical Kairouan Grand Mosque for its stunning Islamic architecture and significant religious importance.
+Mid-Morning: Take a guided tour of the Bassins des Aghlabides, a remarkable historical site showcasing the ingenuity of the Islamic civilization with its massive reservoirs.
+Midday: Indulge in local cuisine at Restaurant Salem, renowned for its authentic Tunisian dishes and highly rated by diners.
+Afternoon: Visit the Sidi Amor Abada Mausoleum, a museum offering insights into the history and culture of the region, named after a revered Sufi saint.
+Evening: Enjoy a delightful dining experience at Vintage Bistro, known for its cozy ambiance and exceptional dishes that blend local flavors and international influences.
+Night: Immerse yourself in the vibrant nightlife of Salle des Fêtes Bensikali, a renowned discotheque offering a lively atmosphere and captivating music.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Salem is a highly-rated dining establishment located in Kairouan, Tunisia, offering a delectable culinary experience with a 4.0 rating based on 2 reviews. The restaurant is renowned for its authentic cuisine, served in a welcoming ambiance. Conveniently situated at M3JH+WC4 restaurant salem ( ademie) mT`m lslm, RR99, Kairouan, the restaurant's coordinates are 35.690904194799, 10.055042442587. You can reach Restaurant Salem by phone at 97 868 511 for reservations or inquiries.
+mqh~ lshrTny is a 5-star rated cafe situated in kairouan, Tunisia, with coordinates (35.6727967, 10.0949059). It operates from 4:00 AM to 2:00 AM and offers a variety of services, including:
+* Cafe services
+The cafe is known for its friendly atmosphere and great service. It is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+La Mosquée du Barbier, également connue sous le nom de Sidi Sahib, est un lieu historique situé dans la ville sainte de Kairouan, en Tunisie. Cette mosquée, qui remonte au XVIe siècle, est dédiée au saint Abou Zamaa El-Balaoui.
+Elle est célèbre pour son mausolée, où est enterré le saint, qui attire chaque année de nombreux pèlerins musulmans. La Mosquée du Barbier est un site culturel important qui témoigne de la riche histoire religieuse et architecturale de Kairouan.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5512,12 +8108,72 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you happen to be in kairouan and seeking an enriching historical experience, visit Sidi Ghariani, a top-rated historical site located at M4F2+WG7 Sidi Ghariani. This renowned destination is perfect for history enthusiasts and offers a glimpse into the past as a historical site, museum, and tomb. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.675482795062, 10.101898313433. For more details, visit the Google Maps page at https://www.google.com/maps/place/Sidi+Ghariani/data=!4m7!3m6!1s0x12fdc5beb0ad05ed:0x15b48f759a391544!8m2!3d35.6751601!4d10.1015943!16s%2Fg%2F11sdsqqnrz!19sChIJ7QWtsL7F_RIRRBU5mnWPtBU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated historical site that combines a museum, tomb, and historical significance in Kairouan?</t>
+          <t>Day Plan:
+Morning: Explore the historic Kairouan Grand Mosque, renowned for its exceptional Islamic architecture and spiritual significance.
+Mid-Morning: Immerse yourself in the local culture and sample traditional Tunisian cuisine at Restaurant Sakka, known for its highly-rated dining experience and friendly atmosphere.
+Midday: Visit the Bassins des Aghlabides, a remarkable historical site showcasing the ingenuity of the Islamic civilization and offering serene surroundings for contemplation.
+Afternoon: Indulge in retail therapy at Click'airouan STORE, a handicraft boutique offering a wide range of traditional and artisanal products, located conveniently in the heart of the old town.
+Evening: Embark on a guided tour of the Mausolee du Barbier, a museum dedicated to the history and architecture of the region, providing insights into the local heritage.
+Night: Experience a lively ambiance at Salle des Fêtes Bensikali, a popular discotheque known for its captivating music and dance floor, ensuring an unforgettable nightlife experience.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Sakka in Kairouan, Tunisia (35.669994146437, 10.095808475725) is a highly-rated restaurant with a 5.0 rating based on 6 reviews. It is located on Rue de La Liberte, near Hy mHmd `ly,,. Restaurant Sakka is a great place to enjoy a delicious meal in a friendly and welcoming atmosphere.
+Main Street Coffee is a cafe located in Kairouan, Tunisia. It has one review and a rating of 5.0. The cafe is on Mohamed Ibn Sahnoun Avenue and is in the category of cafes.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5627,14 +8283,70 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mosquee Okba Ibn Nafaa located at M4J3+GMV Mosquee Okba Ibn Nafaa, Rue De La Kasbah, Kairouan. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-14:00. To get there, use these GPS coordinates: 35.680789525406, 10.103936021759. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+Okba+Ibn+Nafaa/data=!4m7!3m6!1s0x12fdc53f682397e3:0x89210e086723ba1e!8m2!3d35.6813693!4d10.1041651!16zL20vMGYyNmZz!19sChIJ45cjaD_F_RIRHrojZwgOIYk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 76 489 133.</t>
+          <t>The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you visit a top-rated Mosquee destination named Mosquee Okba Ibn Nafaa?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient Mosquee Okba Ibn Nafaa for its historical and architectural significance.
+Mid-Morning: Trying local cuisine at First Time Pizzeria, known for its variety of dishes and positive reviews.
+Midday: Visiting the Kairouan Grand Mosque to admire its exceptional Islamic architecture and religious significance.
+Afternoon: Enjoying scenic views at the Parc National de l'Ichkeul, a beautiful natural reserve with diverse flora and fauna.
+Evening: Participating in a cultural immersion experience at Sidi Ghariani, a mausoleum and museum dedicated to a revered Sufi saint.
+Night: Relaxing with a traditional hammam experience at a local spa, Dar Chama, to rejuvenate and revitalize.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+First Time Pizzeria is a restaurant located in Kairouan, Tunisia, with a 4.6 rating based on 10 reviews. It offers a variety of dishes and is open from 9:00 am to 10:00 pm every day. The restaurant's main category is Restaurant, and its website is https://m.facebook.com/firsttimepizzeria/.
+Cafe Kaser Ennour is a cafe located in Kairouan, Tunisia (lon: 10.0949059, lat: 35.6727967). It offers a variety of cafe-style food and drinks, and is open 24 hours a day. The cafe has a 5.0 rating on Google Maps, and has received 2 reviews.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5736,16 +8448,70 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a unique cultural experience, head over to Kairouan Grand Mosque at M4J3+RFG Kairouan Grand Mosque. 
-This top-rated historical museum is perfect for history enthusiasts, featuring various exhibits and artifacts. 
-With a rating of 4.5 stars, it's a must-visit spot. It's open during these hours: 08:00-14:00, but closed on none. 
-To get there, use these GPS coordinates: 35.6823728, 10.1035996. For more details, visit their website 
-at https://www.google.com/maps/place/Kairouan+Grand+Mosque/data=!4m7!3m6!1s0x12fdc5ff2f223c43:0xbe611c5c668c0513!8m2!3d35.6820625!4d10.1036875!16s%2Fg%2F11jbnwjpjx!19sChIJQzwiL__F_RIREwWMZlwcYb4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly-rated historical museum with a unique cultural experience?</t>
+          <t>Day Plan:
+Morning: Begin your day by exploring the historic Mosquee Okba Ibn Nafaa, a 7th-century mosque that showcases Islamic architectural splendor.
+Mid-Morning: Visit DAR EL MRABET Maison Musee, a historical museum that offers insights into the culture and heritage of Kairouan.
+Midday: Delight your palate with a traditional Tunisian culinary experience at Essiguifa, a highly-rated restaurant in Tozeur.
+Afternoon: Immerse yourself in the spiritual significance of the Kairouan Grand Mosque, renowned for its breathtaking Islamic architecture.
+Evening: Engage in cultural immersion at the Sidi Ben Aissa Archaeological and Traditional Museum, showcasing the region's rich heritage.
+Night: Conclude your day with a lively nightlife experience at Salle des Fêtes Bensikali, a popular discotheque in M'saken.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Boura aldemeshqi is a renowned restaurant in Kairouan, situated at 6000 Av. Abi Zamaa El Balaoui. Open 24 hours a day except on Sundays, it specializes in Syrian cuisine, highly praised by customers, as evidenced by its impressive rating of 4.6. The restaurant's exact location is at (35.676813513298, 10.093464437173), making it easily accessible within the city.
+Cactus bistro kairouan is a cafe located at 187 Rue Beit Al Hekma in Kairouan, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 8am to 10pm, seven days a week. It is located in the heart of the city, making it a convenient place to stop for a bite to eat or a drink. The cafe has a friendly and inviting atmosphere, and the staff is always happy to help.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Tunisia (coordinates: 35.680789525406, 10.103936021759), the renowned Mosquee Okba Ibn Nafaa is a 7th-century mosque renowned for its architectural splendor. Its imposing walls, square minaret, and intricate embellishments showcase the artistry of the era. Immerse yourself in the rich history of the Islamic civilization and admire the remarkable details that have made this mosque a must-visit historical attraction.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5847,14 +8613,72 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a historical adventure, head to Bassins des Aghlabides, situated on Av. de la Republique. 
-This top-rated historical site is perfect for history buffs and offers a fascinating glimpse into the past. 
-With a rating of 4.1, it's a must-visit spot. It's open 24 hours a day, offering ample time to explore. To get there, enter these GPS coordinates into your device: 35.6860065, 10.0949492.</t>
+          <t>The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you immerse yourself in a historical adventure at a site renowned for its historical significance?</t>
+          <t>Day Plan:
+Morning: Explore the historic Kairouan Grand Mosque, marveling at its exquisite Islamic architecture and spiritual significance.
+Mid-Morning: Visit the Musée Historique de Kairouan to delve into the city's rich past and heritage through its fascinating collection of artifacts and exhibits.
+Midday: Savor a delightful lunch at NARCO'S Pizzeria, known for its authentic and flavorful pizzas that will tantalize your taste buds.
+Afternoon: Engage in a cultural immersion experience at DAR EL MRABET Maison Musee, which showcases the history and traditions of Kairouan through engaging exhibits.
+Evening: Embark on a guided tour of the Mosquee Okba Ibn Nafaa, a 7th-century mosque that showcases the splendor of Islamic architecture and offers insights into the city's religious history.
+Night: Relax and unwind at Vintage Bistro, a charming eatery that serves delectable local and international cuisine in a warm and inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Brija Restaurant, located in Kairouan (coordinates: 35.654691, 10.0913087), offers a diverse menu including couscous, pizza, and beverages at reasonable prices. With its convenient location near the city's main mosque, El Brija Restaurant caters to both locals and tourists. Featuring a cafe atmosphere with a terrace, it's an excellent spot for casual dining or coffee breaks.
+mqh~ lshrTny is a 5-star rated cafe situated in kairouan, Tunisia, with coordinates (35.6727967, 10.0949059). It operates from 4:00 AM to 2:00 AM and offers a variety of services, including:
+* Cafe services
+The cafe is known for its friendly atmosphere and great service. It is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Tunisia (coordinates: 35.680789525406, 10.103936021759), the renowned Mosquee Okba Ibn Nafaa is a 7th-century mosque renowned for its architectural splendor. Its imposing walls, square minaret, and intricate embellishments showcase the artistry of the era. Immerse yourself in the rich history of the Islamic civilization and admire the remarkable details that have made this mosque a must-visit historical attraction.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5960,14 +8784,70 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mausolee du Barbier located at Mausolee du Barbier, Mosquee du Barbier, Av. de la Republique, Kairouan 3100. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee, Attraction touristique to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-19:00, but closed on []. To get there, use these GPS coordinates: 35.673189168275, 10.102536932089. For more details, visit their website at https://www.google.com/maps/place/Mausol%C3%A9e+du+Barbier/data=!4m7!3m6!1s0x12fdc55c9a89b16d:0x836bddc085044f48!8m2!3d35.682061!4d10.090226!16s%2Fg%2F1tgldk1j!19sChIJbbGJmlzF_RIRSE8EhcDda4M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 77 231 897.</t>
+          <t>The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you visit a highly rated destination for museum lovers, featuring both historical and cultural attractions?</t>
+          <t>Day Plan:
+Morning: Explore the Kairouan Grand Mosque, a UNESCO World Heritage Site known for its exquisite Islamic architecture.
+Mid-Morning: Visit the Mausolee du Barbier, a historical museum dedicated to the history and culture of the region.
+Midday: Savor authentic Tunisian cuisine at Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy), famous for its traditional kafteji dish.
+Afternoon: Indulge in shopping for local crafts and souvenirs at Click'airouan STORE or the Medina of Kairouan, a bustling marketplace filled with traditional goods.
+Evening: Enjoy a romantic dinner at Vintage Bistro, known for its exceptional ambiance and delectable fusion cuisine.
+Night: Experience the lively nightlife scene at Salle des Fêtes Bensikali, a renowned discotheque offering a vibrant atmosphere and energetic dance music.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Wood'Z is a restaurant located in Kairouan, Tunisia, at the coordinates (35.6727967, 10.0949059). It has a rating of 4.8 out of 5 based on 8 reviews. The restaurant's owner is "Wood'Z (proprietaire)". Unfortunately, there is no detailed description or information about the services or cuisine offered by Wood'Z.
+Chez Mamie is a cafe in Kairouan, Tunisia. It has a 4.4-star rating on Google, and is known for its smoothies and proximity to the Great Mosque of Kairouan. The cafe is open from 8am to 11pm, and is located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6073,14 +8953,76 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mosquee du Barbier jm` by zm`@ lblwy located at Mosquee du Barbier, Av. de la Republique, Kairouan 3100. 
-This top-rated destination is perfect for Monastere lovers and offers a range of Monastere, Attraction touristique to choose from. 
-With a rating of 4.6 and 315 reviews, it's a must-visit spot. It's open during these hours: 07:00-20:00. To get there, use these GPS coordinates: 35.673189168275, 10.102536932089. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+du+Barbier+%D8%AC%D8%A7%D9%85%D8%B9+%D8%A7%D8%A8%D9%89+%D8%B2%D9%85%D8%B9%D8%A9+%D8%A7%D9%84%D8%A8%D9%84%D9%88%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fdc55c977d55c5:0x2b148b98b4966f94!8m2!3d35.6821!4d10.0899!16s%2Fg%2F121lmgkq!19sChIJxVV9l1zF_RIRlG-WtJiLFCs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 77 288 258.</t>
+          <t>Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination in Kairouan, known for its exceptional Monastere, Attraction touristique offerings, and a rating of 4.6?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Grand Mosque of Kairouan, marveling at its stunning architecture and spiritual significance.
+**Mid-Morning:**
+* Visit the Musée national d'art islamique de Raqqada to delve into the captivating realm of Islamic art and admire its enchanting collection.
+**Midday:**
+* Savor traditional Tunisian cuisine at Lablabi Gabssi, known for its flavorful dishes and authentic ambiance.
+**Afternoon:**
+* Take a relaxing walk through the picturesque streets of Kairouan, soaking up the local atmosphere and exploring hidden gems.
+**Evening:**
+* Enjoy a leisurely dinner at Uncle Hassine (Kafteji), indulging in the tantalizing flavors of traditional kafteji.
+**Night:**
+* Experience the vibrant nightlife at Salle des Fêtes Bensikali, where you can dance the night away and immerse yourself in the local entertainment scene.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Lablabi Gabssi is a restaurant located in kairouan, Tunisia. Its coordinates are (35.6727967, 10.0949059).
+Café maure barrouta is a cafe located in Kairouan, Tunisia. It has a rating of 4.3 and is open from 07:00-00:00. The cafe is located at the coordinates (35.67574, 10.10064) and offers a variety of cafe related products and services.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+Discover the Musée national d'art islamique de Raqqada in kairouan, a renowned museum with a rating of 4.7 and over 10 reviews. Immerse yourself in the captivating realm of Islamic art and admire the museum's captivating collection. It boasts a prime location at H3V3+249 Musee national d'art islamique de Raqqada, Kairouan, and is conveniently open from 9:00 AM to 4:00 PM, except on Mondays. Kindly note that the museum's description and phone number are currently unavailable.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6178,12 +9120,70 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Sidi Ghariani located at M4F2+WG7 Sidi Ghariani, Kairouan. This top-rated destination is perfect for history lovers and offers a range of categories to choose from, including historical site, museum, and tomb. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.675482795062, 10.101898313433. For more details, visit their website at https://www.google.com/maps/place/Sidi+Ghariani/data=!4m7!3m6!1s0x12fdc5beb0ad05ed:0x15b48f759a391544!8m2!3d35.6751601!4d10.1015943!16s%2Fg%2F11sdsqqnrz!19sChIJ7QWtsL7F_RIRRBU5mnWPtBU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated historical site in Kairouan, perfect for history buffs, with categories ranging from historical sites to tombs?</t>
+          <t>Day Plan:
+Morning: Explore the fascinating Kairouan Grand Mosque, a historical landmark of exceptional Islamic architecture.
+Mid-Morning: Indulge in the authentic flavors of Tunisian cuisine at Restaurant Salem, a highly-rated dining establishment known for its delectable culinary offerings.
+Midday: Visit the Mosquee Okba Ibn Nafaa, one of the oldest mosques in North Africa, and delve into the rich history and significance of Islam and architecture in the region.
+Afternoon: Immerse yourself in the cultural heritage of Kairouan by exploring DAR EL MRABET Maison Musee, a museum dedicated to the city's history, art, and religion.
+Evening: Relax and unwind with a rejuvenating experience at a traditional hammam, such as the Hammam Zitouna, to soothe your body and mind.
+Night: Head to Salle des Fêtes Bensikali, a renowned discotheque, to experience the lively nightlife and vibrant atmosphere of Kairouan.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Salem is a highly-rated dining establishment located in Kairouan, Tunisia, offering a delectable culinary experience with a 4.0 rating based on 2 reviews. The restaurant is renowned for its authentic cuisine, served in a welcoming ambiance. Conveniently situated at M3JH+WC4 restaurant salem ( ademie) mT`m lslm, RR99, Kairouan, the restaurant's coordinates are 35.690904194799, 10.055042442587. You can reach Restaurant Salem by phone at 97 868 511 for reservations or inquiries.
+Cafe La Terrasse is a cafe located in Kairouan, Tunisia. It is open from 9:00 AM to 5:00 PM from Sunday to Saturday and has a 4.6 rating based on 5 reviews. You can find Cafe La Terrasse on Google Maps by clicking the link https://www.google.com/maps/place/Caf%C3%A9+La+Terrasse/data=!4m7!3m6!1s0x12fdc5699d91d043:0xe47ac4ca4f025567!8m2!3d35.6890217!4d10.0966971!16s%2Fg%2F11cs3q6zkc!19sChIJQ9CRnWnF_RIRZ1UCT8rEeuQ?authuser=0&amp;hl=fr&amp;rclk=1
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+Discover the Musée national d'art islamique de Raqqada in kairouan, a renowned museum with a rating of 4.7 and over 10 reviews. Immerse yourself in the captivating realm of Islamic art and admire the museum's captivating collection. It boasts a prime location at H3V3+249 Musee national d'art islamique de Raqqada, Kairouan, and is conveniently open from 9:00 AM to 4:00 PM, except on Mondays. Kindly note that the museum's description and phone number are currently unavailable.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6281,14 +9281,76 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in kairouan, don't miss the top-rated Musee du tapis, located at M3CX+XPP Musee du tapis, Kairouan. 
-This must-visit spot boasts a 4.5-star rating and is an excellent destination for Musee enthusiasts. 
-For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+du+tapis/data=!4m7!3m6!1s0x12fdc52a84dd6553:0xd5e9efba8fcbbf2!8m2!3d35.672459!4d10.0993201!16s%2Fg%2F11h0_1x78l!19sChIJU2XdhCrF_RIR8rv8qPueXg0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated Musee du tapis in Kairouan that boasts a 4.5-star rating and serves as an excellent destination for Musee enthusiasts?</t>
+          <t>Day Plan:
+**Morning:**
+- Exploring the historical and architectural wonders of the Great Mosque of Kairouan, a UNESCO World Heritage Site.
+**Mid-Morning:**
+- Trying local cuisine at Wood'Z, a highly-rated restaurant offering traditional Tunisian dishes.
+**Midday:**
+- Visiting the Bassins des Aghlabides, an ancient reservoir showcasing Islamic hydraulic engineering.
+**Afternoon:**
+- Relaxing with a traditional hammam experience at Dar Elhadir, a charming guesthouse offering rejuvenating spa services.
+**Evening:**
+- Participating in the lively nightlife at Salle des Fêtes Bensikali, a renowned discotheque in M'saken.
+**Night:**
+- Experiencing cultural immersion at Musée Historique de Kairouan, a museum dedicated to the city's rich history and heritage.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Wood'Z is a restaurant located in Kairouan, Tunisia, at the coordinates (35.6727967, 10.0949059). It has a rating of 4.8 out of 5 based on 8 reviews. The restaurant's owner is "Wood'Z (proprietaire)". Unfortunately, there is no detailed description or information about the services or cuisine offered by Wood'Z.
+Miami, a quaint cafe situated in a peaceful area of Kairouan, Tunisia, invites you to unwind and indulge in the aroma of freshly brewed coffee. Its inviting atmosphere and friendly staff welcome locals and travelers alike. Located conveniently at coordinates (35.6727967, 10.0949059), Miami is a perfect destination for a morning pick-me-up or a leisurely afternoon break.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6394,14 +9456,74 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Musee national d'art islamique de Raqqada located at H3V3+249 Musee national d'art islamique de Raqqada, Kairouan. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 35.5929018, 10.0532844. For more details, visit their website at https://www.tunisiepatrimoine.tn/musees/musee-national-dart-islamique-de-raqqada/apercu/</t>
+          <t>Discover the Musée national d'art islamique de Raqqada in kairouan, a renowned museum with a rating of 4.7 and over 10 reviews. Immerse yourself in the captivating realm of Islamic art and admire the museum's captivating collection. It boasts a prime location at H3V3+249 Musee national d'art islamique de Raqqada, Kairouan, and is conveniently open from 9:00 AM to 4:00 PM, except on Mondays. Kindly note that the museum's description and phone number are currently unavailable.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where can you explore a top-rated Musee destination with a wide selection of exhibits and a 4.7-star rating in Kairouan?</t>
+          <t>Day Plan:
+Morning: Explore the historical Kairouan Grand Mosque, a stunning architectural and spiritual landmark.
+Mid-Morning: Immerse yourself in the local culture at DAR EL MRABET Maison Musee, a museum dedicated to Kairouan's history and traditions.
+Midday: Savor authentic Tunisian cuisine at Ci Gusta Kairouan, renowned for its delicious pizzas and waffles.
+Afternoon: Enjoy a relaxing stroll through Bassins des Aghlabides, a captivating historical site that showcases the ingenuity of the Islamic civilization.
+Evening: Visit Mosquee du Barbier jm` by zm`@ lblwy, a well-rated monastery offering a glimpse into the religious history and architecture of the region.
+Night: Experience the vibrant nightlife at Salle des Fêtes Bensikali, a popular discotheque known for its lively atmosphere and music.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Wood'Z is a restaurant located in Kairouan, Tunisia, at the coordinates (35.6727967, 10.0949059). It has a rating of 4.8 out of 5 based on 8 reviews. The restaurant's owner is "Wood'Z (proprietaire)". Unfortunately, there is no detailed description or information about the services or cuisine offered by Wood'Z.
+mqh~ lshrTny is a 5-star rated cafe situated in kairouan, Tunisia, with coordinates (35.6727967, 10.0949059). It operates from 4:00 AM to 2:00 AM and offers a variety of services, including:
+* Cafe services
+The cafe is known for its friendly atmosphere and great service. It is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located in the city center, making it easily accessible for travelers. The station has a rating of 3.2 stars based on 9 reviews. Its coordinates are 35.6727967, 10.0949059.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6499,14 +9621,70 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out mtHf lzrby@ located at M3FX+2PV mtHf lzrby@, Av. Ali Zouaoui, Kairouan. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.3, it's a must-visit spot. For more details, visit their website at  or call them at .</t>
+          <t>**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where is the top-rated Musee destination in Kairouan that offers a range of Musee options, making it a perfect spot for Musee enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Kairouan, a UNESCO World Heritage site.
+Mid-Morning: Visit the Great Mosque of Kairouan, one of the oldest and most important mosques in North Africa.
+Midday: Try local cuisine at GO Cafe, a renowned eatery that serves delectable Tunisian dishes.
+Afternoon: Take a guided tour of the Bassins des Aghlabides, an ancient reservoir built by the Aghlabid dynasty in the 9th century.
+Evening: Enjoy scenic views at the Mosque du Barbier, a monastery that combines architectural beauty with a peaceful atmosphere.
+Night: Experience cultural immersion at the DAR EL MRABET Maison Musee, a historical museum dedicated to the history and culture of Kairouan.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+GO Cafe, located in the heart of Kairouan, Tunisia, is a renowned eatery that seamlessly blends modern and traditional vibes. With a rating of 4.8/5 based on 63 reviews, it has garnered appreciation for its delectable Tunisian cuisine, cozy atmosphere, and prime location. Its proximity to the Medina and the Mosquee des Trois Portes offers patrons a convenient base to explore the city's historical and cultural treasures.
+Located in the heart of Kairouan, Cafe saraya is a cozy spot offering a delightful cafe experience. With a warm ambiance and friendly service, it's a popular destination for locals and visitors alike. Enjoy a cup of aromatic coffee or a refreshing beverage, complemented by a delicious selection of cafe eats.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+Discover the Musée national d'art islamique de Raqqada in kairouan, a renowned museum with a rating of 4.7 and over 10 reviews. Immerse yourself in the captivating realm of Islamic art and admire the museum's captivating collection. It boasts a prime location at H3V3+249 Musee national d'art islamique de Raqqada, Kairouan, and is conveniently open from 9:00 AM to 4:00 PM, except on Mondays. Kindly note that the museum's description and phone number are currently unavailable.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6616,12 +9794,70 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out DAR EL MRABET Maison Musee located at Rue Sidi Abid, Kairouan 3100. This top-rated destination is perfect for Musee d'histoire lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on dimanche.</t>
+          <t>DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you experience Musee d'histoire at a top-rated destination with a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic Kairouan Grand Mosque, a stunning architectural and spiritual site with intricate Islamic designs.
+Mid-Morning: Immerse yourself in the local flavors and aromas by trying traditional Tunisian cuisine at PIZZA NY, a highly-rated restaurant in the heart of Kairouan.
+Midday: Visit the Sidi Ghariani, a historical site dedicated to a revered Sufi saint, to learn about the region's history and culture.
+Afternoon: Engage in outdoor activities like hiking or biking along the scenic outskirts of Kairouan, taking in the natural beauty of the Tunisian landscape.
+Evening: Relax and rejuvenate with a traditional hammam experience at a local spa, experiencing the therapeutic benefits of this ancient bathing ritual.
+Night: Savor an authentic Tunisian dinner at Ci Gusta Kairouan, renowned for its delicious pizzas and waffles, while enjoying the vibrant atmosphere of this popular eatery.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+In quaint Kairouan, Tunisia, nestles a culinary gem known as PIZZA NY. Its location, defined by the coordinates (35.6727967, 10.0949059), places it at the heart of the city. With a stellar 5.0 rating based on 7 reviews, this restaurant specializes in offering a tantalizing menu, brimming with flavors that delight the palate. It caters to its patrons from 9:00 AM to 10:00 PM every day, ensuring culinary satisfaction at all hours.
+In the heart of Kairouan lies the charming City Lounge Cafe, a haven for coffee and tea lovers. Located at (35.6885427, 10.0946527), this cafe offers a cozy atmosphere with a focus on providing delicious beverages. With a rating of 4.0 from 7 reviews, it is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6731,14 +9967,70 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Salon d'artisanat, check out Click'airouan STORE located at M3HX+PVM Click'airouan STORE, Rue De La Kasbah, Kairouan. 
-This popular destination is perfect for Salon d'artisanat enthusiasts and offers a rating of 5.0. 
-It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at http://www.clickairouan.store/ or call them at 77 251 433.</t>
+          <t>Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Salon d'artisanat with 5.0 stars in Kairouan?</t>
+          <t>Day Plan:
+Morning: Explore the ancient city of Kairouan, uncovering its rich history and architectural wonders. Begin with a guided tour of the Great Mosque, marveling at its breathtaking architecture and significance as a religious landmark.
+Mid-Morning: Immerse yourself in the local culture and cuisine at Delight Lebanon, a renowned restaurant serving tantalizing Lebanese dishes. Indulge in the authentic flavors and aromas of this culinary gem.
+Midday: Visit the Musée du Tapis, a museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. Discover the intricate designs and vibrant colors that characterize Kairouani carpets.
+Afternoon: Escape to the scenic Bassins des Aghlabides, a historical site featuring impressive Islamic architecture. Explore these remarkable basins, once part of a sophisticated hydraulic system that supplied water to the city.
+Evening: Experience the vibrant nightlife at Salle des Fêtes Bensikali, a popular discotheque. Dance the night away to captivating music and enjoy the lively atmosphere.
+Night: Unwind and relax at Dar Chama, a charming guest house offering a tranquil ambiance. Savor the peace and tranquility of this delightful establishment, preparing for the adventures that await you tomorrow.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Delight Lebanon, a restaurant located in Kairouan, offers tantalizing Lebanese cuisine to satisfy your cravings. Situated at the coordinates (35.6727967, 10.0949059), you can easily find this delightful spot to savor the flavors of Lebanon.
+Cafe La Terrasse is a cafe located in Kairouan, Tunisia. It is open from 9:00 AM to 5:00 PM from Sunday to Saturday and has a 4.6 rating based on 5 reviews. You can find Cafe La Terrasse on Google Maps by clicking the link https://www.google.com/maps/place/Caf%C3%A9+La+Terrasse/data=!4m7!3m6!1s0x12fdc5699d91d043:0xe47ac4ca4f025567!8m2!3d35.6890217!4d10.0966971!16s%2Fg%2F11cs3q6zkc!19sChIJQ9CRnWnF_RIRZ1UCT8rEeuQ?authuser=0&amp;hl=fr&amp;rclk=1
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6832,13 +10124,70 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Musee, check out Conservatoire located at Conservatoire, Rue Ibn Zoubeir. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Conservatoire/data=!4m7!3m6!1s0x12fdc54579dfb8e7:0xf556e90df5306be7!8m2!3d35.6764042!4d10.0944378!16s%2Fg%2F11c2jjgrwp!19sChIJ57jfeUXF_RIR52sw9Q3pVvU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly-rated (5.0) museum called Conservatoire, accessible through its official website or phone number?</t>
+          <t>Day Plan:
+Morning: Explore the historic Kairouan Grand Mosque, marveling at its stunning architectural details.
+Mid-Morning: Visit the Musée Historique de Kairouan, gaining insights into the rich history and heritage of the city.
+Midday: Indulge in local cuisine at Piccolo Mondo, known for its delicious pizzas.
+Afternoon: Explore the enchanting Medina, a labyrinth of traditional markets and shops offering unique handicrafts.
+Evening: Witness the lively nightlife at Salle des Fêtes Bensikali, enjoying its vibrant atmosphere and captivating music.
+Night: Relax and unwind at Dar Chama, a charming guest house offering a tranquil ambiance and comfortable accommodations.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Piccolo Mondo, located at Av. Ibn El-Jazzar in Kairouan, Tunisia, is a popular restaurant offering a variety of dishes, with a focus on pizzas. It has received an impressive rating of 4.0 based on 27 reviews. The restaurant offers a cozy ambiance and friendly service, making it a great choice for a casual dining experience.
+Chez Mamie is a cafe in Kairouan, Tunisia. It has a 4.4-star rating on Google, and is known for its smoothies and proximity to the Great Mosque of Kairouan. The cafe is open from 8am to 11pm, and is located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6944,12 +10293,76 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Musee Archeologique Et Traditionnel Sidi Ben Aissa located at W4CQ+M6W Musee Archeologique Et Traditionnel Sidi Ben Aissa, Av. de Kairouan, Tozeur. This top-rated destination is the perfect spot for Musee du patrimoine lovers. With a rating of 5.0, it's surely worth your visit. It's open during these hours: 09:00-18:00. For more details, visit their website or give them a call at 97 091 083.</t>
+          <t>The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where is the top-rated Musee du patrimoine destination located in Kairouan, and what makes it exceptional?</t>
+          <t>Day Plan:
+Morning:
+- Explore the iconic Grand Mosque of Kairouan, renowned for its intricate architecture and historical significance.
+Mid-Morning:
+- Indulge in a traditional Tunisian breakfast at First Time Pizzeria, known for its authentic flavors and cozy atmosphere.
+Midday:
+- Visit the Bassins des Aghlabides, an ancient reservoir showcasing the region's Islamic hydraulic engineering prowess.
+Afternoon:
+- Take a guided tour of Dar Chama, a charming guest house nestled in the heart of Kairouan, offering a glimpse into the city's rich heritage.
+Evening:
+- Experience the vibrant atmosphere of Espace Ben Rejeb, a relaxing cafe offering panoramic city views and aromatic beverages.
+Night:
+- Relish a delightful dinner at Ci Gusta Kairouan, savoring its delectable pizzas and waffles in a welcoming ambiance.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+First Time Pizzeria is a restaurant located in Kairouan, Tunisia, with a 4.6 rating based on 10 reviews. It offers a variety of dishes and is open from 9:00 am to 10:00 pm every day. The restaurant's main category is Restaurant, and its website is https://m.facebook.com/firsttimepizzeria/.
+Espace Ben Rejeb is a cafe located in Kairouan, Tunisia. It offers a relaxing atmosphere with a rating of 4.0, based on 11 reviews. Situated at 35.673189168275 latitude and 10.102536932089 longitude, it is easily accessible. Espace Ben Rejeb's website, https://www.ben-rejeb.com/, offers additional information and reservations. Unfortunately, no specific description was provided.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7047,15 +10460,70 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in kairouan exploring the main attractions, add Musee d'Arts Tozeurous to your list. 
-This top-rated art museum is located at W4CQ+9CG Musee d'Arts Tozeurous, Ouled El Hadef, Av. de Kairouan, Tozeur. 
-With a high rating of 4.6, it's a popular spot offering an immersive experience in the art world. 
-To learn more, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+d%27Arts+Tozeurous/data=!4m7!3m6!1s0x1257c1e3fd476771:0xa11ff2d089d0f1b0!8m2!3d33.9209424!4d8.1385604!16s%2Fg%2F11pbl1v6b_!19sChIJcWdH_ePBVxIRsPHQidDyH6E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where is the popular art museum "Musee d'Arts Tozeurous" located, and what sets it apart as a top-rated destination?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark, the Mosque of the Three Doors, to delve into the architectural and religious significance of Kairouan.
+Mid-Morning: Visit the Musée Historique de Kairouan to learn about the city's rich history and heritage through its collection of artifacts and exhibits.
+Midday: Savor the authentic flavors of Tunisian cuisine at Restaurant Salem, known for its highly-rated dining experience.
+Afternoon: Engage in outdoor activities by exploring Cite el Hajjem, immersing yourself in the local atmosphere and vibrant transportation hub.
+Evening: Immerse in the nightlife scene at Salle des Fetes Bensikali, enjoying the lively dance floor and captivating music.
+Night: Relax and unwind at Vintage Bistro, savoring mouthwatering dishes that showcase local flavors and international influences.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Salem is a highly-rated dining establishment located in Kairouan, Tunisia, offering a delectable culinary experience with a 4.0 rating based on 2 reviews. The restaurant is renowned for its authentic cuisine, served in a welcoming ambiance. Conveniently situated at M3JH+WC4 restaurant salem ( ademie) mT`m lslm, RR99, Kairouan, the restaurant's coordinates are 35.690904194799, 10.055042442587. You can reach Restaurant Salem by phone at 97 868 511 for reservations or inquiries.
+Cafe Kaser Ennour is a cafe located in Kairouan, Tunisia (lon: 10.0949059, lat: 35.6727967). It offers a variety of cafe-style food and drinks, and is open 24 hours a day. The cafe has a 5.0 rating on Google Maps, and has received 2 reviews.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7165,12 +10633,72 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in Kairouan, visit the historic Mosquee Okba Ibn Nafaa on Rue De La Kasbah, M4J3+GMV. This highly-rated (4.6 out of 5) destination offers a glimpse into Islamic civilization and architecture, with stunning features like marble columns, a square minaret, and a cadran solaire. It's open from 8:00 AM to 2:00 PM on weekdays, and you can reach them at 76 489 133 for any inquiries.</t>
+          <t>Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Which renowned destination in Kairouan, noted for its distinctive Islamic architectural elements, is situated on Rue De La Kasbah?</t>
+          <t>Day Plan:
+Morning: Explore the historical Mosque of the Three Doors, renowned for its intricate architecture and religious significance.
+Mid-Morning: Visit the Bassins des Aghlabides, a remarkable testament to ancient water management systems, surrounded by serene parks.
+Midday: Indulge in local cuisine at Restaurant Sakka, highly rated for its delicious meals and friendly atmosphere.
+Afternoon: Engage in cultural immersion at the Sidi Ben Aissa Archaeological and Traditional Museum, showcasing the region's rich heritage.
+Evening: Enjoy a lively nightlife experience at Salle des Fêtes Bensikali, a popular discotheque with captivating music and a vibrant atmosphere.
+Night: Relax with a cozy dinner at Vintage Bistro, known for its mouthwatering dishes that blend local flavors and international influences.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Sakka in Kairouan, Tunisia (35.669994146437, 10.095808475725) is a highly-rated restaurant with a 5.0 rating based on 6 reviews. It is located on Rue de La Liberte, near Hy mHmd `ly,,. Restaurant Sakka is a great place to enjoy a delicious meal in a friendly and welcoming atmosphere.
+Espace Ben Rejeb is a cafe located in Kairouan, Tunisia. It offers a relaxing atmosphere with a rating of 4.0, based on 11 reviews. Situated at 35.673189168275 latitude and 10.102536932089 longitude, it is easily accessible. Espace Ben Rejeb's website, https://www.ben-rejeb.com/, offers additional information and reservations. Unfortunately, no specific description was provided.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7272,14 +10800,78 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in kairouan, check out Bassins des Aghlabides located at M3PW+R5V Bassins des Aghlabides, Av. de la Republique. 
-This top-rated destination is perfect for Lieu historique lovers and offers a range of Lieu historique, Site historique, and Attraction touristique to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open 24h/24, but closed on none. To get there, use these GPS coordinates: 35.6860065, 10.0949492. For more details, visit their website at https://www.google.com/maps/place/Bassins+des+Aghlabides/data=!4m7!3m6!1s0x12fdc56a6be16839:0x746ab95f1bd7a246!8m2!3d35.6871107!4d10.0954229!16s%2Fg%2F121zpg5t!19sChIJOWjha2rF_RIRRqLXG1-5anQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>What is the unique top-rated historical destination with a rating of 4.1 located at GPS coordinates 35.6860065, 10.0949492 in Kairouan?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Mosque of the Three Doors, marveling at its intricate architecture and religious significance.
+**Mid-Morning:**
+* Immerse yourself in the local culture at the Musée Historique de Kairouan, showcasing the city's rich heritage.
+**Midday:**
+* Indulge in the authentic flavors of Tunisian cuisine at Ka3boura Fast Food, known for its exceptional ratings and delicious dishes.
+**Afternoon:**
+* Stroll through the vibrant Medina, offering a unique shopping experience with traditional handicrafts at Click'airouan STORE.
+**Evening:**
+* Witness the vibrant nightlife of Kairouan at Salle des Fêtes Bensikali, a renowned discotheque with its captivating music and dance floor.
+**Night:**
+* Unwind with a relaxing massage at Ettaoufik Hotel, a luxurious retreat with a focus on hospitality and comfort.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ka3boura Fast Food, located in Kairouan, Tunisia, is a popular restaurant known for its excellent ratings and delicious food. It is conveniently situated at rue tarbia, making it easily accessible to locals and visitors alike. The restaurant opens daily from 7:00 AM to 11:00 PM, offering a wide range of dining options to satisfy every craving. Whether you're looking for a quick bite or a leisurely meal, Ka3boura Fast Food has something for everyone.
+Dosis Coffee Shop is a highly-rated (5.0) café situated in Kairouan, Tunisia (coordinates 35.654691, 10.0913087). It operates daily from 7 AM to 10 PM and boasts a website (https://instagram.com/fastryexpress%3Figshid%3DOGQ5ZDc2ODk2ZA%3D%3D) for further information and engagement.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7385,12 +10977,70 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mosquee du Barbier jm` by zm`@ lblwy located at Mosquee du Barbier, Av. de la Republique, Kairouan 3100. This top-rated destination is perfect for Monastere lovers and offers a range of Monastere, Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-20:00. To get there, use these GPS coordinates: 35.673189168275, 10.102536932089. For more details, visit their website at or call them at 77 288 258.</t>
+          <t>Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you visit a top-rated Monastere destination with a 4.6 rating, located at the coordinates 35.673189168275, 10.102536932089, and open daily from 07:00 to 20:00?</t>
+          <t>Day Plan:
+Morning: Explore the awe-inspiring Great Mosque of Kairouan, a UNESCO World Heritage Site, and delve into its rich historical significance.
+Mid-Morning: Satisfy your taste buds with an authentic Tunisian culinary experience at Essiguifa restaurant, renowned for its delectable traditional dishes.
+Midday: Visit the Musée d'Arts Tozeurous, an art museum showcasing the city's vibrant artistic heritage.
+Afternoon: Embark on a leisurely stroll through the medina, where you can discover hidden gems like Click'airouan STORE and purchase unique local handicrafts.
+Evening: Immerse yourself in the Moroccan ambiance of La Kasba, a charming hotel offering a delightful blend of comfort and historical charm. Indulge in a sumptuous dinner at its restaurant.
+Night: Experience the lively nightlife at Salle des Fêtes Bensikali, a renowned discotheque, and dance the night away to captivating rhythms.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Piccolo Mondo, located at Av. Ibn El-Jazzar in Kairouan, Tunisia, is a popular restaurant offering a variety of dishes, with a focus on pizzas. It has received an impressive rating of 4.0 based on 27 reviews. The restaurant offers a cozy ambiance and friendly service, making it a great choice for a casual dining experience.
+Cactus bistro kairouan is a cafe located at 187 Rue Beit Al Hekma in Kairouan, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 8am to 10pm, seven days a week. It is located in the heart of the city, making it a convenient place to stop for a bite to eat or a drink. The cafe has a friendly and inviting atmosphere, and the staff is always happy to help.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+Discover the Musée national d'art islamique de Raqqada in kairouan, a renowned museum with a rating of 4.7 and over 10 reviews. Immerse yourself in the captivating realm of Islamic art and admire the museum's captivating collection. It boasts a prime location at H3V3+249 Musee national d'art islamique de Raqqada, Kairouan, and is conveniently open from 9:00 AM to 4:00 PM, except on Mondays. Kindly note that the museum's description and phone number are currently unavailable.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7488,12 +11138,70 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mosquee des trois portes located at M4G3+W3W Mosquee des trois portes, Avineda De Kortoba, Kairouan. This top-rated destination is perfect for Mosquee lovers and offers a range of Mosquee, Attraction touristique to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+des+trois+portes/data=!4m7!3m6!1s0x12fdc54788825125:0xbc8ca27b4e3ea5b1!8m2!3d35.6773608!4d10.1027013!16s%2Fg%2F120p4gml!19sChIJJVGCiEfF_RIRsaU-TnuijLw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination for Mosquee lovers, located in Kairouan with GPS coordinates 35.6727967, 10.0949059?</t>
+          <t>Day Plan:
+Morning: Explore the Great Mosque of Kairouan, a historic landmark and spiritual site.
+Mid-Morning: Visit Sidi Ghariani, a mausoleum and museum dedicated to the memory of a revered Sufi saint.
+Midday: Try local cuisine at Restaurant Salem, known for its authentic culinary experience.
+Afternoon: Engage in outdoor activities at Sidi Bouraoui Park, enjoying the fresh air and scenic views.
+Evening: Shop for traditional and artisanal products at Click'airouan STORE in the medina of Kairouan.
+Night: Experience a lively nightlife atmosphere at Salle des Fêtes Bensikali, a renowned discotheque with a vibrant ambiance and music.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Salem is a highly-rated dining establishment located in Kairouan, Tunisia, offering a delectable culinary experience with a 4.0 rating based on 2 reviews. The restaurant is renowned for its authentic cuisine, served in a welcoming ambiance. Conveniently situated at M3JH+WC4 restaurant salem ( ademie) mT`m lslm, RR99, Kairouan, the restaurant's coordinates are 35.690904194799, 10.055042442587. You can reach Restaurant Salem by phone at 97 868 511 for reservations or inquiries.
+In the heart of Kairouan lies the charming City Lounge Cafe, a haven for coffee and tea lovers. Located at (35.6885427, 10.0946527), this cafe offers a cozy atmosphere with a focus on providing delicious beverages. With a rating of 4.0 from 7 reviews, it is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7591,12 +11299,70 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in kairouan, check out Mausolee Sidi Amor Abada located at Rue Sidi Gaid, Kairouan. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 3.8, it's a must-visit spot for exploring Musee options. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit this link: https://www.google.com/maps/place/Mausole%C3%A9+Sidi+Amor+Abada/data=!4m7!3m6!1s0x12fdc516e3b3cc3d:0x99801d7961d6b896!8m2!3d35.6769869!4d10.0950488!16s%2Fg%2F122cnhq7!19sChIJPcyz4xbF_RIRlrjWYXkdgJk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you visit a top-rated destination with numerous Musee options, located at Rue Sidi Gaid with GPS coordinates 35.6727967, 10.0949059?</t>
+          <t>Day Plan:
+Morning: Exploring the historic medina of Kairouan, a UNESCO World Heritage Site.
+Mid-Morning: Trying local cuisine at Mama Chippo, a renowned restaurant serving mouthwatering traditional dishes.
+Midday: Visiting the Great Mosque of Kairouan (Mosque of Uqba), an iconic and architecturally stunning masterpiece.
+Afternoon: Enjoying a leisurely stroll through the picturesque streets of the medina, discovering hidden gems and local crafts.
+Evening: Experiencing a traditional Tunisian dinner at Number One, a popular fast-food joint serving delicious and affordable meals.
+Night: Catching a vibrant performance of local music and dance at Salle des Fêtes Bensikali, a renowned discotheque with a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Mama Chippo** is a renowned restaurant in Kairouan, renowned for its mouthwatering cuisine. It's conveniently located at Rue cheikh Mohamed El Barak and is easily accessible. The eatery operates daily except Mondays and welcomes customers from 11:00 AM to 11:00 PM. Its menu and ambiance make it an excellent destination for dinner with friends or family.
+Chez Mamie is a cafe in Kairouan, Tunisia. It has a 4.4-star rating on Google, and is known for its smoothies and proximity to the Great Mosque of Kairouan. The cafe is open from 8am to 11pm, and is located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7702,12 +11468,72 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Salle des fetes Bensikali located at Route Kairouan, M'saken. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.7333242, 10.5756812. For more details, visit their website at or call them at 98 451 658.</t>
+          <t>Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you experience top-rated discotheque entertainment?</t>
+          <t>Day Plan:
+Morning: Explore the historic Great Mosque of Kairouan, a UNESCO World Heritage Site.
+Mid-Morning: Visit the Kairouan Grand Mosque, a significant spiritual site with exceptional Islamic architecture.
+Midday: Try local cuisine at Ka3boura Fast Food, known for its excellent ratings and delicious food.
+Afternoon: Discover the Bassins des Aghlabides, a remarkable historical site that once served as a strategic water management system.
+Evening: Enjoy the lively nightlife at Salle des Fêtes Bensikali, a renowned discotheque with a vibrant atmosphere.
+Night: Indulge in a 4-star dining experience at Brothers' Food, a popular fast food restaurant among locals.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ka3boura Fast Food, located in Kairouan, Tunisia, is a popular restaurant known for its excellent ratings and delicious food. It is conveniently situated at rue tarbia, making it easily accessible to locals and visitors alike. The restaurant opens daily from 7:00 AM to 11:00 PM, offering a wide range of dining options to satisfy every craving. Whether you're looking for a quick bite or a leisurely meal, Ka3boura Fast Food has something for everyone.
+Cafe Taktak is a cafe located in Kairouan, Tunisia at 35.672837383891, 10.100961858317. It offers a variety of cafe-style food and beverages and is open from 05:00 to 23:00 every day. The cafe has a 4.9-star rating on Google based on 12 reviews.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located in the city center, making it easily accessible for travelers. The station has a rating of 3.2 stars based on 9 reviews. Its coordinates are 35.6727967, 10.0949059.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7805,14 +11631,70 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Restaurant Keftaji Kairouan located at VJ74+GGW Restaurant Keftaji Kairouan, Hammam Sousse. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.51295, 9.98453. For more details, visit their link at https://www.google.com/maps/place/Restaurant+Keftaji+Kairouan/data=!4m7!3m6!1s0x12fd8b85b4fbf9e3:0x8ce55c9e1d32958a!8m2!3d35.8638669!4d10.6063425!16s%2Fg%2F11j3ml8nld!19sChIJ4_n7tIWL_RIRipUyHZ5c5Yw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Restaurant Keftaji Kairouan is a top-rated restaurant located in Hammam Sousse, Tunisia. It specializes in traditional Tunisian cuisine, offering a wide range of dishes made with fresh, local ingredients. The restaurant is situated at coordinates (35.51295, 9.98453) and is easily accessible by car or public transportation.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Kairouan, known for attracting Restaurant enthusiasts and boasting a 4.0 rating, located at a specific location?</t>
+          <t>Day Plan:
+Morning: Explore the historical and spiritual heart of the city by visiting the impressive Kairouan Grand Mosque. Admire its stunning architecture and intricate decorations while learning about its significance to the Muslim world.
+Mid-Morning: Immerse yourself in the local culture at DAR EL MRABET Maison Musee, a museum dedicated to showcasing Kairouan's rich history and heritage. Discover exhibits on traditional architecture, art, and religion to gain a deeper understanding of the city's past and present.
+Midday: Indulge in authentic Syrian cuisine at the renowned Boura aldemeshqi restaurant. Known for its flavorful dishes and excellent service, this eatery is sure to satisfy your taste buds.
+Afternoon: Take a stroll through the vibrant medina, the old town of Kairouan. Get lost in its labyrinthine streets, explore the local markets, and witness the artisans crafting traditional products like pottery, leather goods, and jewelry at Click'airouan STORE.
+Evening: Escape the hustle and bustle of the city at Dar Chama guest house, a charming retreat known for its comfortable accommodations and peaceful atmosphere. Relax and recharge for the next day's adventures.
+Night: Head to Salle des Fêtes Bensikali, a lively discotheque, to experience the city's vibrant nightlife. Dance the night away to captivating music and immerse yourself in the energetic atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Boura aldemeshqi is a renowned restaurant in Kairouan, situated at 6000 Av. Abi Zamaa El Balaoui. Open 24 hours a day except on Sundays, it specializes in Syrian cuisine, highly praised by customers, as evidenced by its impressive rating of 4.6. The restaurant's exact location is at (35.676813513298, 10.093464437173), making it easily accessible within the city.
+"Chez Mamie" is a popular cafe in Kairouan, Tunisia. It offers a cozy atmosphere, with indoor and outdoor seating. The menu includes a variety of breakfast and brunch items, as well as freshly squeezed smoothies. The cafe is located conveniently close to the Great Mosque of Kairouan, making it a great spot to grab a bite before or after exploring the historic site. With an impressive 4.4 rating based on 55 reviews, Chez Mamie is a top-rated destination for locals and tourists alike.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7922,15 +11804,73 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a delicious meal, check out Essiguifa located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur.
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of dishes to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on - . For more details, visit their website
-at https://www.facebook.com/ESSIGUIFADETOZEUR%3Fmibextid%3DZbWKwL</t>
+          <t>**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find Essiguifa, a top-rated restaurant for Restaurant tunisien lovers with a 4.8 rating?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Kairouan Grand Mosque, a historical landmark and significant spiritual site.
+Mid-Morning: Visit the Musée du Tapis, dedicated to preserving and showcasing the rich heritage of carpet making in the region.
+Midday: Savor local cuisine at Ci Gusta Kairouan, a renowned restaurant specializing in sundaes and other delectable treats.
+Afternoon: Immerse yourself in the bustling Medina of Kairouan, a vibrant labyrinth of streets and alleys filled with traditional crafts and souvenirs.
+Evening: Take a guided tour of the Bassins des Aghlabides, massive reservoirs that once served as a strategic water management system.
+Night: Experience the lively nightlife at Salle des Fêtes Bensikali, a popular discotheque known for its captivating music and dance floor.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+First Time Pizzeria is a restaurant located in Kairouan, Tunisia, with a 4.6 rating based on 10 reviews. It offers a variety of dishes and is open from 9:00 am to 10:00 pm every day. The restaurant's main category is Restaurant, and its website is https://m.facebook.com/firsttimepizzeria/.
+Coffee Time is a highly-rated cafe situated in Kairouan, Tunisia. Known for its cozy atmosphere and friendly staff, the cafe offers a wide range of coffee and tea beverages, as well as pastries and light snacks. Located at coordinates (35.6727967, 10.0949059), the cafe is easily accessible and open daily from 05:00 to 22:00.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8036,14 +11976,71 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to eat, check out El Brija Restaurant located at Av. Oqba Ibn Nafaa, Kairouan 3100. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Cafe to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at https://www.google.com/maps/place/El+Brija+Restaurant/data=!4m7!3m6!1s0x12fdc53f9d88d51f:0xf82241c7bdbfe42f!8m2!3d35.6828918!4d10.1039736!16s%2Fg%2F1hf2vc0dy!19sChIJH9WInT_F_RIRL-S_vcdBIvg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 806 090.</t>
+          <t>El Brija Restaurant, located in Kairouan (coordinates: 35.654691, 10.0913087), offers a diverse menu including couscous, pizza, and beverages at reasonable prices. With its convenient location near the city's main mosque, El Brija Restaurant caters to both locals and tourists. Featuring a cafe atmosphere with a terrace, it's an excellent spot for casual dining or coffee breaks.</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant destination in Kairouan that offers a range of dining options and is known for its exceptional ambiance?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark of The Kairouan Grand Mosque, renowned for its exceptional Islamic architecture.
+Mid-Morning: Indulge in the tantalizing Lebanese cuisine at Delight Lebanon, a restaurant offering authentic flavors from the Middle East.
+Midday: Visit the Sidi Ghariani Mausoleum, a historical landmark known for its architectural beauty and historical significance.
+Afternoon: Head to Ci Gusta Kairouan, a highly-rated sundae restaurant, and enjoy their delicious pizzas, waffles, or other treats.
+Evening: Experience the lively nightlife at Salle des Fêtes Bensikali, a renowned discotheque known for its captivating music and dance floor.
+Night: Wind down the day with a relaxing and rejuvenating experience at Dar Chama, a charming guest house offering comfortable accommodations and highly recommended by guests.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Delight Lebanon, a restaurant located in Kairouan, offers tantalizing Lebanese cuisine to satisfy your cravings. Situated at the coordinates (35.6727967, 10.0949059), you can easily find this delightful spot to savor the flavors of Lebanon.
+Chez Mamie is a cafe in Kairouan, Tunisia. It has a 4.4-star rating on Google, and is known for its smoothies and proximity to the Great Mosque of Kairouan. The cafe is open from 8am to 11pm, and is located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located in the city center, making it easily accessible for travelers. The station has a rating of 3.2 stars based on 9 reviews. Its coordinates are 35.6727967, 10.0949059.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8145,12 +12142,71 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in kairouan, Dar Abderrahman Zarrouk is a top-rated Restaurant located at M4H2+P4J Dar Abderrahman Zarrouk, Rue Darel Bey. With a rating of 4.3 based on 141 reviews, it's a go-to spot for locals and tourists alike. For more details, you can call them at 94 670 670.</t>
+          <t>Dar Abderrahman Zarrouk, located in the heart of Kairouan (35.6727967, 10.0949059), is a traditional Tunisian restaurant renowned for its authentic cuisine and warm atmosphere. With a rating of 4.3, it offers a delightful culinary experience that reflects the richness and flavors of the region.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>What is the popular restaurant located at Rue Darel Bey in Kairouan that boasts a high rating and positive reviews from locals and tourists?</t>
+          <t>Day Plan:
+Morning: Explore the historical Kairouan Grand Mosque and immerse yourself in its architectural beauty and spiritual significance.
+Mid-Morning: Visit the Mausolee du Barbier, a museum that showcases the history and culture of the region.
+Midday: Try local cuisine at the highly-rated Ci Gusta Kairouan, known for its delicious pizzas, waffles, and treats.
+Afternoon: Engage in outdoor activities at the Bassins des Aghlabides, a historical site that showcases the region's remarkable Islamic architecture and water management system.
+Evening: Relax with a soothing tea and enjoy the ambiance at the popular tea room, mqh~ `bd llh.
+Night: Experience the lively nightlife at Salle des Fêtes Bensikali, a renowned discotheque that offers an energetic atmosphere and captivating music.</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Weld El Bey is a 4.1-rated restaurant located in Av. Kairouan, El Mourouj. It serves multiple cuisines and is open from 11:00 AM to 10:00 PM daily. The restaurant's main category is Restaurant, and its coordinates are (36.7366706, 10.210515).
+Café Pizzeria Dolce Vita (Cafe Picine) is well-rated (4.3) and has three reviews. It's located at Boulevard H Chaker in Kairouan, Tunisia. It offers a café and pizzeria menu with a poolside dining option.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located in the city center, making it easily accessible for travelers. The station has a rating of 3.2 stars based on 9 reviews. Its coordinates are 35.6727967, 10.0949059.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8256,14 +12312,76 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for something fun to do, check out Texas Fastfood located at M3CX+H83, Texas Fastfood, Kairouan. 
-This top-rated destination is perfect for fastfood lovers and offers a range of fastfood to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 35.6807444, 10.0996728. For more details, visit their website at https://www.google.com/maps/place/Texas+Fastfood/data=!4m7!3m6!1s0x12fdc549381a7a89:0xc9caaa3d4e68350!8m2!3d35.6713923!4d10.0983037!16s%2Fg%2F1hg4w6r7w!19sChIJiXoaOEnF_RIRUIPm1KOqnAw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 77 228 080.</t>
+          <t>Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly-rated fastfood destination offering a wide selection of options, located at GPS coordinates 35.6807444, 10.0996728?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Kairouan Grand Mosque, a UNESCO World Heritage Site featuring stunning architecture and intricate decorations.
+**Mid-Morning:**
+* Try local cuisine at Ci Gusta Kairouan, renowned for its delicious pizzas and waffles.
+**Midday:**
+* Visit the Sidi Ben Aissa Archaeological and Traditional Museum in Tozeur to learn about the region's rich history and culture.
+**Afternoon:**
+* Enjoy a relaxing afternoon at Vintage Bistro, a highly-rated eatery serving delectable dishes in a cozy ambiance.
+**Evening:**
+* Head to Pizzeria L'Artiste Kairouan for a delightful pizza dinner.
+**Night:**
+* Experience the lively nightlife atmosphere at Salle des Fêtes Bensikali, a popular discotheque known for its captivating music and vibrant dance floor.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the heart of Kairouan (coordinates: 35.654691, 10.0913087), the GO Cafe is a popular spot among locals and tourists alike. With a focus on delicious cuisine, the cafe offers a wide range of dishes, including traditional Tunisian delicacies. Situated near the famous Three-Door Mosque (Mosquee des Trois Portes), the cafe's convenient location and cozy atmosphere make it a great place to relax and enjoy the local culture.
+Fratello Cafe is a highly-rated cafe located in the heart of Kairouan, Tunisia. It offers a wide range of delicious food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at M4F2+3Q7 Fratello Cafe, Av. de La Republique, Kairouan, and can be reached by phone at 77 229 270.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8373,16 +12491,70 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated restaurant, check out GO Cafe located at GO Cafe, Medina de, Rue Mouley Taieb, en face de la Mosquee des Trois Portes Cite Jraba, Kairouan 3100. 
-This destination is perfect for Restaurant and Cafe lovers. 
-With a rating of 4.8, it's a must-visit spot. 
-It's open during these hours: 10:00-00:00.
-To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at http://www.gocafe.tn/ or call them at 24 101 831.</t>
+          <t>Located in the heart of Kairouan (coordinates: 35.654691, 10.0913087), the GO Cafe is a popular spot among locals and tourists alike. With a focus on delicious cuisine, the cafe offers a wide range of dishes, including traditional Tunisian delicacies. Situated near the famous Three-Door Mosque (Mosquee des Trois Portes), the cafe's convenient location and cozy atmosphere make it a great place to relax and enjoy the local culture.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find GO Cafe, a top-rated destination for Restaurant and Cafe enthusiasts with a 4.8 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic Kairouan Grand Mosque, an architectural masterpiece with stunning columns and intricate decorations.
+Mid-Morning: Visit the Musée Historique de Kairouan to immerse yourself in the city's rich history and heritage, showcased through artifacts and exhibits.
+Midday: Tantalize your taste buds with local cuisine at Boura aldemeshqi, a renowned Syrian restaurant with a highly praised 4.6 rating.
+Afternoon: Enjoy a relaxing stroll through Bassins des Aghlabides, a historical site showcasing the impressive Islamic architecture of the city's ancient hydraulic system.
+Evening: Head to Vintage Bistro for a delightful dining experience, featuring a blend of local flavors and international influences with a high rating of 4.9 stars.
+Night: Experience the lively nightlife of Salle des Fêtes Bensikali, a renowned discotheque with a captivating atmosphere and vibrant entertainment.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Boura aldemeshqi is a renowned restaurant in Kairouan, situated at 6000 Av. Abi Zamaa El Balaoui. Open 24 hours a day except on Sundays, it specializes in Syrian cuisine, highly praised by customers, as evidenced by its impressive rating of 4.6. The restaurant's exact location is at (35.676813513298, 10.093464437173), making it easily accessible within the city.
+In the heart of Kairouan lies the charming City Lounge Cafe, a haven for coffee and tea lovers. Located at (35.6885427, 10.0946527), this cafe offers a cozy atmosphere with a focus on providing delicious beverages. With a rating of 4.0 from 7 reviews, it is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8488,14 +12660,70 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Chez Mamie located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Restaurant brunch to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: (35.654691, 10.0913087). For more details, visit their website at https://www.google.com/maps/place/Chez+Mamie/data=!4m7!3m6!1s0x12fdc53f3fbd1c6d:0x935d72bab4f492f8!8m2!3d35.682578!4d10.103667!16s%2Fg%2F11c76n042j!19sChIJbRy9Pz_F_RIR-JL0tLpyXZM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 333 411.</t>
+          <t>Chez Mamie is a cafe in Kairouan, Tunisia. It has a 4.4-star rating on Google, and is known for its smoothies and proximity to the Great Mosque of Kairouan. The cafe is open from 8am to 11pm, and is located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100.</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>What is the name and address of the highly-rated Cafe and Restaurant brunch destination in Kairouan, perfect for Cafe lovers?</t>
+          <t>Day Plan:
+Morning: Explore the historic Great Mosque of Kairouan, renowned for its stunning architecture and spiritual significance.
+Mid-Morning: Visit the Conservatoire museum to delve into the captivating history, culture, and art of the region.
+Midday: Savor an authentic Tunisian lunch at Dar Lella Habiba, a delightful restaurant offering a delectable menu focused on couscous.
+Afternoon: Immerse yourself in the vibrant atmosphere of the local medina or old town, where you can shop for traditional handicrafts at Click'airouan STORE.
+Evening: Take a guided tour of the Mosquee Okba Ibn Nafaa, one of the oldest mosques in North Africa, and marvel at its intricate architectural details.
+Night: Indulge in a traditional Tunisian dinner at Essiguifa, a highly-rated restaurant known for its flavorful dishes and cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Lella Habiba is a restaurant located in Kairouan, Tunisia, offering a menu focused on couscous. The restaurant is in the city center, near the Great Mosque of Kairouan, and offers a beautiful view of the city. With a rating of 4.5 based on 33 reviews, the restaurant is highly appreciated for its delicious food, friendly service, and beautiful setting.
+mqh~ lfTnsy is a well-rated cafe located in Kairouan, Tunisia (35.6727967, 10.0949059). It offers a cozy atmosphere and a wide selection of coffee, tea, and snacks. It is a popular spot for locals and tourists alike to relax and enjoy a cup of coffee in the heart of the city.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8597,14 +12825,71 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in kairouan, check out Saraya al bey Restaurant located at M4H3+HMG Saraya al bey, Rue El Kedidi, Kairouan. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.678709970301, 10.103632375538. For more details, call them at 77 258 034.</t>
+          <t>**Saraya Al Bey**
+Saraya Al Bey is a popular restaurant located in Kairouan, Tunisia (Latitude: 35.678709970301, Longitude: 10.103632375538). It offers a diverse menu, specializing in traditional cuisine, and provides a cozy ambiance for dining. With a 4.0 rating based on 47 reviews, Saraya Al Bey is a well-received dining destination in Kairouan.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant in Kairouan that offers a variety of cuisine options with GPS coordinates for easy navigation?</t>
+          <t>Day Plan:
+Morning: Explore the historical and spiritual significance of the Kairouan Grand Mosque.
+Mid-Morning: Immerse yourself in the Islamic architecture and history at the Bassins des Aghlabides.
+Midday: Tantalize your taste buds with authentic Tunisian cuisine at Ci Gusta Kairouan, known for its delectable pizzas and waffles.
+Afternoon: Take a refreshing break at Miami, a charming cafe, and savor the aroma of freshly brewed coffee while soaking in the peaceful ambiance.
+Evening: Explore the traditional and artisanal heritage of the region at Click'airouan STORE, offering a wide range of local handicrafts and souvenirs.
+Night: Experience a lively nightlife at Salle des Fêtes Bensikali, a renowned discotheque known for its captivating music and dance floor.</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+First Time Pizzeria is a restaurant located in Kairouan, Tunisia, with a 4.6 rating based on 10 reviews. It offers a variety of dishes and is open from 9:00 am to 10:00 pm every day. The restaurant's main category is Restaurant, and its website is https://m.facebook.com/firsttimepizzeria/.
+Miami, a quaint cafe situated in a peaceful area of Kairouan, Tunisia, invites you to unwind and indulge in the aroma of freshly brewed coffee. Its inviting atmosphere and friendly staff welcome locals and travelers alike. Located conveniently at coordinates (35.6727967, 10.0949059), Miami is a perfect destination for a morning pick-me-up or a leisurely afternoon break.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Tunisia (coordinates: 35.680789525406, 10.103936021759), the renowned Mosquee Okba Ibn Nafaa is a 7th-century mosque renowned for its architectural splendor. Its imposing walls, square minaret, and intricate embellishments showcase the artistry of the era. Immerse yourself in the rich history of the Islamic civilization and admire the remarkable details that have made this mosque a must-visit historical attraction.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8710,12 +12995,70 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a top-rated restaurant, check out Dar Lella Habiba located at Rue Okba Ibn Nafaa. This excellent destination that is perfect for Restaurant lovers offers a range of Restaurant categories to choose from. With a 4.5 rating, it's a must-visit spot. It's open during these hours: 08:00-20:30. To get there, use these GPS coordinates: 35.680789525406, 10.103936021759. For more details, visit their website at https://www.google.com/maps/place/Dar+Lella+Habiba/data=!4m7!3m6!1s0x12fdc557fe694525:0xc02fe19deb4ece47!8m2!3d35.6818056!4d10.1044466!16s%2Fg%2F11r27mk80x!19sChIJJUVp_lfF_RIRR85O653hL8A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 609 695.</t>
+          <t>Dar Lella Habiba is a restaurant located in Kairouan, Tunisia, offering a menu focused on couscous. The restaurant is in the city center, near the Great Mosque of Kairouan, and offers a beautiful view of the city. With a rating of 4.5 based on 33 reviews, the restaurant is highly appreciated for its delicious food, friendly service, and beautiful setting.</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly acclaimed restaurant with a 4.5 rating, offering a variety of dining options?</t>
+          <t>Day Plan:
+Morning: Exploring the historic city of Kairouan, visiting Mosquee Okba Ibn Nafaa and Bassins des Aghlabides.
+Mid-Morning: Experiencing cultural immersion at the **Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@").
+Midday: Trying local cuisine at Ci Gusta Kairouan, renowned for its pizzas and sundaes.
+Afternoon: Exploring the **Kairouan Grand Mosque**, a historical landmark and significant spiritual site.
+Evening: Visiting DAR Chama, a charming guest house, to relax and enjoy the comfortable accommodations.
+Night: Trying local cuisine again at NARCO'S Pizzeria for authentic pizza flavors.</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Piccolo Mondo, located at Av. Ibn El-Jazzar in Kairouan, Tunisia, is a popular restaurant offering a variety of dishes, with a focus on pizzas. It has received an impressive rating of 4.0 based on 27 reviews. The restaurant offers a cozy ambiance and friendly service, making it a great choice for a casual dining experience.
+Come and visit the cozy cafe el clasico in kairouan. This well-rated cafe (4.5/5 by 2 visitors) is the perfect place to relax. Open 24 hours, feel free to pass by whenever you feel like it.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8825,13 +13168,71 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Restaurant de sundae, check out Ci Gusta Kairouan located at Av. Mohamed Ibn Sahnoun. With a rating of 4.0, it's a must-visit spot. 
-It's open during these hours: 08:30-22:00. To get there, use these GPS coordinates: 35.673872158686, 10.107140747335. For more details, visit their website at http://www.cigusta.com/ or call them at 25 450 864.</t>
+          <t>Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find Ci Gusta Kairouan, a highly rated Restaurant de sundae with a rating of 4.0?</t>
+          <t>Day Plan:
+Morning: Explore the historic Kairouan Grand Mosque, admiring its stunning architecture and religious significance.
+Mid-Morning: Immerse yourself in the local culture at Dar el Caid, a traditional Tunisian guest house with a cozy ambiance.
+Midday: Savor authentic Tunisian cuisine at Restaurant Weld El Bey, renowned for its diverse menu and welcoming atmosphere.
+Afternoon: Visit the Conservatoire, a museum showcasing the rich history, art, and culture of the region.
+Evening: Relax at a local spa or indulge in a traditional hammam experience at Dar Chama, a charming guest house with a tranquil atmosphere.
+Night: Experience the vibrant nightlife at Salle des Fêtes Bensikali, a lively discotheque with an energetic ambiance.</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Weld El Bey is a 4.1-rated restaurant located in Av. Kairouan, El Mourouj. It serves multiple cuisines and is open from 11:00 AM to 10:00 PM daily. The restaurant's main category is Restaurant, and its coordinates are (36.7366706, 10.210515).
+**Café à Kairouan**
+Ce café, situé à Kairouan (coordonnées : 35.6727967, 10.0949059), est ouvert 24h/24. Il propose un large choix de boissons et de collations dans une ambiance chaleureuse et conviviale.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8933,12 +13334,70 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Piccolo Mondo located at Piccolo Mondo, Av. Ibn El-Jazzar, Kairouan 3100. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Pizzeria to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 35.6804366, 10.0983523. For more details, visit their website or call them at 29 803 564.</t>
+          <t>Piccolo Mondo, located at Av. Ibn El-Jazzar in Kairouan, Tunisia, is a popular restaurant offering a variety of dishes, with a focus on pizzas. It has received an impressive rating of 4.0 based on 27 reviews. The restaurant offers a cozy ambiance and friendly service, making it a great choice for a casual dining experience.</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated restaurant located on Av. Ibn El-Jazzar in Kairouan that offers a variety of dining options?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque streets of Kairouan, immersing yourself in the city's rich history and architectural beauty.
+Mid-Morning: Visit the Kairouan Grand Mosque, renowned for its exquisite Islamic architecture and sacred significance.
+Midday: Try local cuisine at El Brija Restaurant, Savor traditional dishes such as couscous and pizza while enjoying the cozy cafe atmosphere.
+Afternoon: Embark on a guided tour of the Bassins des Aghlabides, an ancient reservoir that showcases the historical ingenuity of the Aghlabid dynasty.
+Evening: Immerse yourself in the lively atmosphere of Salle des Fetes Bensikali, a popular discotheque in M'saken, just a short drive from Kairouan.
+Night: Enjoy a relaxing and revitalizing experience at a traditional Hammam (Turkish bath), experiencing the soothing warmth and cleansing rituals of this centuries-old tradition.</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Brija Restaurant, located in Kairouan (coordinates: 35.654691, 10.0913087), offers a diverse menu including couscous, pizza, and beverages at reasonable prices. With its convenient location near the city's main mosque, El Brija Restaurant caters to both locals and tourists. Featuring a cafe atmosphere with a terrace, it's an excellent spot for casual dining or coffee breaks.
+Miami, a quaint cafe situated in a peaceful area of Kairouan, Tunisia, invites you to unwind and indulge in the aroma of freshly brewed coffee. Its inviting atmosphere and friendly staff welcome locals and travelers alike. Located conveniently at coordinates (35.6727967, 10.0949059), Miami is a perfect destination for a morning pick-me-up or a leisurely afternoon break.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9044,12 +13503,71 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Restaurant, check out Mama chippo located at Rue cheikh Mohamed El Barak, Kairouan. This popular destination with a rating of 4.0 is a must-visit spot for Restaurant lovers. It's open during these hours: 11:00-23:00, but closed on lundi. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>**Mama Chippo** is a renowned restaurant in Kairouan, renowned for its mouthwatering cuisine. It's conveniently located at Rue cheikh Mohamed El Barak and is easily accessible. The eatery operates daily except Mondays and welcomes customers from 11:00 AM to 11:00 PM. Its menu and ambiance make it an excellent destination for dinner with friends or family.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Where can you find Mama chippo, a highly-rated Restaurant in Kairouan that is a must-visit spot for food enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Great Mosque of Kairouan
+Mid-Morning: Shopping for traditional handicrafts at Click'airouan STORE
+Midday: Trying local Tunisian cuisine at Essiguifa
+Afternoon: Visiting the Sidi Ben Aissa Archaeological and Traditional Museum
+Evening: Relaxing with a rejuvenating massage at Dar Elhadir
+Night: Enjoying a vibrant nightlife experience at Salle des Fêtes Bensikali</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+In quaint Kairouan, Tunisia, nestles a culinary gem known as PIZZA NY. Its location, defined by the coordinates (35.6727967, 10.0949059), places it at the heart of the city. With a stellar 5.0 rating based on 7 reviews, this restaurant specializes in offering a tantalizing menu, brimming with flavors that delight the palate. It caters to its patrons from 9:00 AM to 10:00 PM every day, ensuring culinary satisfaction at all hours.
+**Café à Kairouan**
+Ce café, situé à Kairouan (coordonnées : 35.6727967, 10.0949059), est ouvert 24h/24. Il propose un large choix de boissons et de collations dans une ambiance chaleureuse et conviviale.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located in the city center, making it easily accessible for travelers. The station has a rating of 3.2 stars based on 9 reviews. Its coordinates are 35.6727967, 10.0949059.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9155,14 +13673,78 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Brothers' Food located at 8 Rue 13 Aout 1956, Kairouan. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.672639873497, 10.104273600757. For more details, visit their website at https://www.facebook.com/112883803920737/ or call them at 27 690 464.</t>
+          <t>Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Where can you enjoy highly rated Restauration rapide in Kairouan, conveniently located with clear GPS coordinates and rave reviews?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the historic Kairouan Grand Mosque, marveling at its intricate architecture and historical significance.
+Mid-Morning: Head to mT`m dr l`yl@ for a delightful brunch, savoring traditional Tunisian cuisine while enjoying the cozy atmosphere.
+Midday: Visit the Bassins des Aghlabides, an ancient reservoir that showcases Islamic hydraulic engineering and offers a glimpse into the region's history.
+Afternoon: Immerse yourself in the local culture at DAR EL MRABET Maison Musee, where you can discover the fascinating history and traditions of Kairouan.
+Evening: Indulge in a delectable dinner at NARCO'S, a highly-rated pizzeria known for its authentic Italian flavors.
+Night: Experience the vibrant nightlife at Salle des Fêtes Bensikali, a popular discotheque renowned for its lively atmosphere and captivating music.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Restaurant mT`m dr l`yl@**
+mT`m dr l`yl@ is a highly rated restaurant located in Kairouan, Tunisia. It offers a variety of dining options, including traditional Tunisian cuisine. The restaurant is known for its friendly owner and excellent service. It is open from 8 am to 10 pm daily, except for Fridays.
+**Highlights:**
+* Convenient location in the center of the city
+* Accommodating staff and pleasant atmosphere
+* Delicious selection of Tunisian dishes
+**Coordinates:**
+* Latitude: 35.6727967
+* Longitude: 10.0949059
+Located in the heart of Kairouan, Cafe saraya is a cozy spot offering a delightful cafe experience. With a warm ambiance and friendly service, it's a popular destination for locals and visitors alike. Enjoy a cup of aromatic coffee or a refreshing beverage, complemented by a delicious selection of cafe eats.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9268,14 +13850,71 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a delicious pizza experience, check out Mecano Pizza located at M4C2+8QJ Mecano Pizza, Kairouan. 
-This top-rated Pizzeria is perfect for pizza lovers and offers a range of pizza options to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Mecano+Pizza/data=!4m7!3m6!1s0x12fdc5801e445bd1:0xb3f5f90c1040158b!8m2!3d35.6708324!4d10.1018774!16s%2Fg%2F11gm8hk49g!19sChIJ0VtEHoDF_RIRixVAEAz59bM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 285 757.</t>
+          <t>Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you indulge in a highly-rated pizza experience at Mecano Pizza?</t>
+          <t>Day Plan:
+Morning: Visit the Great Mosque of Kairouan, renowned for its stunning Islamic architecture and historical significance.
+Mid-Morning: Embark on a guided tour of the Sidi Amor Abada Mausoleum, providing insights into the life and teachings of a revered Sufi saint.
+Midday: Savor local cuisine at Saraya Al Bey, a popular restaurant serving traditional Tunisian dishes in a cozy ambiance.
+Afternoon: Explore the medina's vibrant markets for unique handicrafts, pottery, and jewelry at Click'airouan STORE.
+Evening: Ascend the square minaret of the Mosquee Okba Ibn Nafaa for panoramic city views and appreciate the intricate details of this historic mosque.
+Night: Relax with a traditional tea ceremony at mqh~ `bd llh, a tea room frequented by locals and offering an authentic cultural experience.</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Saraya Al Bey**
+Saraya Al Bey is a popular restaurant located in Kairouan, Tunisia (Latitude: 35.678709970301, Longitude: 10.103632375538). It offers a diverse menu, specializing in traditional cuisine, and provides a cozy ambiance for dining. With a 4.0 rating based on 47 reviews, Saraya Al Bey is a well-received dining destination in Kairouan.
+mqh~ lfTnsy is a well-rated cafe located in Kairouan, Tunisia (35.6727967, 10.0949059). It offers a cozy atmosphere and a wide selection of coffee, tea, and snacks. It is a popular spot for locals and tourists alike to relax and enjoy a cup of coffee in the heart of the city.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9385,14 +14024,70 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out First Time Pizzeria located at M4F3+775 First Time Pizzeria, Rue Moncef Bey, Kairouan. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.673117610551, 10.103166826196. For more details, visit their website at https://m.facebook.com/firsttimepizzeria/ or call them at 29 622 973.</t>
+          <t>First Time Pizzeria is a restaurant located in Kairouan, Tunisia, with a 4.6 rating based on 10 reviews. It offers a variety of dishes and is open from 9:00 am to 10:00 pm every day. The restaurant's main category is Restaurant, and its website is https://m.facebook.com/firsttimepizzeria/.</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria with a wide selection of categories in Kairouan that stays open until 10 pm?</t>
+          <t>Day Plan:
+Morning: Explore the historic Kasbah district, where you can wander through narrow streets and admire the well-preserved fortifications.
+Mid-Morning: Visit the Great Mosque of Kairouan, a UNESCO World Heritage site and one of the oldest and most important mosques in the Islamic world.
+Midday: Try local cuisine at Dar El Henchir, a traditional guest house that offers a warm and comfortable atmosphere. Enjoy traditional Tunisian dishes such as couscous, tajine, and brick.
+Afternoon: Shop for souvenirs and local handicrafts at the medina, the old city of Kairouan. You can find a variety of goods, including pottery, leather goods, jewelry, and carpets.
+Evening: Experience cultural immersion at the Musée du Tapis, which showcases the rich heritage of carpet making in the region. Explore the museum's collection of traditional Kairouani carpets.
+Night: Relax and enjoy the nightlife at Salle des Fêtes Bensikali, a renowned discotheque that features a vibrant atmosphere and captivating music.</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Lablabi Gabssi is a restaurant located in kairouan, Tunisia. Its coordinates are (35.6727967, 10.0949059).
+Located in the heart of Kairouan, Cafe saraya is a cozy spot offering a delightful cafe experience. With a warm ambiance and friendly service, it's a popular destination for locals and visitors alike. Enjoy a cup of aromatic coffee or a refreshing beverage, complemented by a delicious selection of cafe eats.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9494,12 +14189,78 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Boura aldemeshqi located at 6000 Av. Abi Zamaa El Balaoui. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on dimanche. To get there, use these GPS coordinates: 35.676813513298, 10.093464437173. For more details, visit their website at https://www.google.com/maps/place/Boura+aldemeshqi/data=!4m7!3m6!1s0x12fdc524e3c431cf:0x1607f522c7175880!8m2!3d35.6753947!4d10.0943312!16s%2Fg%2F11mn853b9l!19sChIJzzHE4yTF_RIRgFgXxyL1BxY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan .</t>
+          <t>Boura aldemeshqi is a renowned restaurant in Kairouan, situated at 6000 Av. Abi Zamaa El Balaoui. Open 24 hours a day except on Sundays, it specializes in Syrian cuisine, highly praised by customers, as evidenced by its impressive rating of 4.6. The restaurant's exact location is at (35.676813513298, 10.093464437173), making it easily accessible within the city.</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>What is the address of a top-rated Restaurant in Kairouan known for its diverse restaurant offerings?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Kairouan Grand Mosque, renowned for its stunning architecture and religious significance.
+**Mid-Morning:**
+* Visit the Mosquee du Barbier jm` by zm`@ lblwy, a well-rated monastery with beautiful architecture and historical exhibits.
+**Midday:**
+* Savor a delightful lunch at Mama Chippo, known for its mouthwatering cuisine and convenient location.
+**Afternoon:**
+* Immerse in the bustling medina of Kairouan, where you can shop for traditional handicrafts and souvenirs at Click'airouan STORE.
+**Evening:**
+* Explore the cultural heritage of Tozeur by visiting Sidi Ben Aissa Archaeological and Traditional Museum.
+**Night:**
+* Indulge in a memorable dinner at Essiguifa, a highly-rated Tunisian restaurant in Tozeur, known for its authentic cuisine and cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Mama Chippo** is a renowned restaurant in Kairouan, renowned for its mouthwatering cuisine. It's conveniently located at Rue cheikh Mohamed El Barak and is easily accessible. The eatery operates daily except Mondays and welcomes customers from 11:00 AM to 11:00 PM. Its menu and ambiance make it an excellent destination for dinner with friends or family.
+Fratello Cafe is a highly-rated cafe located in the heart of Kairouan, Tunisia. It offers a wide range of delicious food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at M4F2+3Q7 Fratello Cafe, Av. de La Republique, Kairouan, and can be reached by phone at 77 229 270.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9605,14 +14366,72 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Vintage bistro located at Vintage bistro, Kairouan 3100. 
-This top-rated destination is perfect for Bistro lovers and offers a range of Bistro to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 07:30-00:00, but closed on None. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website or call them at 52 486 841.</t>
+          <t>Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and craving a delightful culinary experience, where can you indulge in top-rated Bistro dishes?</t>
+          <t>Day Plan:
+Morning: Exploring the Mosque of the Three Doors and Bassins des Aghlabides
+Mid-Morning: Trying local cuisine at Dar Abderrahman Zarrouk, renowned for its authentic Tunisian flavors
+Midday: Visiting the Kairouan Grand Mosque, an architectural masterpiece and a significant religious site
+Afternoon: Enjoying a relaxed atmosphere at La Kasba hotel, featuring an outdoor pool and other amenities
+Evening: Participating in a guided tour of the Musée Historique de Kairouan to delve into the city's rich past
+Night: Indulging in a delectable dinner at Mecano Pizza, known for its exceptional pizzas</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Abderrahman Zarrouk, located in the heart of Kairouan (35.6727967, 10.0949059), is a traditional Tunisian restaurant renowned for its authentic cuisine and warm atmosphere. With a rating of 4.3, it offers a delightful culinary experience that reflects the richness and flavors of the region.
+Fratello Cafe is a highly-rated cafe located in the heart of Kairouan, Tunisia. It offers a wide range of delicious food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at M4F2+3Q7 Fratello Cafe, Av. de La Republique, Kairouan, and can be reached by phone at 77 229 270.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9714,12 +14533,73 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a delicious meal, check out Number One, located at M4M3+FHQ. This highly-rated restaurant serves up delectable fast food options that are sure to satisfy your cravings. With a rating of 4.0, it's a must-visit spot for food lovers. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Number+One/data=!4m7!3m6!1s0x12fdc53f907d0161:0xf466724609b938a2!8m2!3d35.6837172!4d10.103985!16s%2Fg%2F11fy4t5mh3!19sChIJYQF9kD_F_RIRoji5CUZyZvQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated fast food restaurant in Kairouan that's known for its delectable options and has a convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the historical Sidi Ben Aissa Archaeological and Traditional Museum (Tozeur) to learn about the region's rich cultural heritage.
+Mid-Morning: Take a scenic drive to the majestic Grand Mosque of Kairouan, where you can marvel at its stunning Islamic architecture.
+Midday: Indulge in a delicious lunch at Saraya Al Bey, savoring traditional Tunisian cuisine amidst a cozy ambiance.
+Afternoon: Venture into the medina to visit Click'airouan STORE, where you can shop for authentic local handicrafts.
+Evening: Explore the historic Bassins des Aghlabides, an ancient reservoir that showcases Islamic hydraulic engineering.
+Night: Head to Salle des Fêtes Bensikali for an unforgettable nightlife experience, enjoying vibrant music and dancing.</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Saraya Al Bey**
+Saraya Al Bey is a popular restaurant located in Kairouan, Tunisia (Latitude: 35.678709970301, Longitude: 10.103632375538). It offers a diverse menu, specializing in traditional cuisine, and provides a cozy ambiance for dining. With a 4.0 rating based on 47 reviews, Saraya Al Bey is a well-received dining destination in Kairouan.
+mqh~ lshrTny is a 5-star rated cafe situated in kairouan, Tunisia, with coordinates (35.6727967, 10.0949059). It operates from 4:00 AM to 2:00 AM and offers a variety of services, including:
+* Cafe services
+The cafe is known for its friendly atmosphere and great service. It is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9821,12 +14701,70 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>Looking for a delicious dining experience in Kairouan? Wood'Z, located at Kairouan, is a top-rated restaurant with a 4.8 rating. It offers a range of cuisines to choose from, making it perfect for any foodie. Open during regular hours, Wood'Z is a must-visit spot. For more details, call them at 99 444 441.</t>
+          <t>Wood'Z is a restaurant located in Kairouan, Tunisia, at the coordinates (35.6727967, 10.0949059). It has a rating of 4.8 out of 5 based on 8 reviews. The restaurant's owner is "Wood'Z (proprietaire)". Unfortunately, there is no detailed description or information about the services or cuisine offered by Wood'Z.</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly-rated restaurant offering a diverse menu, making it an ideal destination for culinary enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Kairouan, a UNESCO World Heritage Site (Location: Medina of Kairouan)
+Mid-Morning: Try local cuisine at GO Cafe, a renowned eatery in the heart of Kairouan (Restaurant: GO Cafe)
+Midday: Visit the Great Mosque of Kairouan, a historic landmark and significant spiritual site (Landmark: Great Mosque of Kairouan)
+Afternoon: Take a guided tour of the Musée national d'art islamique de Raqqada to immerse yourself in Islamic art (Attraction: Musée national d'art islamique de Raqqada)
+Evening: Enjoy scenic views at the Bassins des Aghlabides, ancient reservoirs showcased for their architectural ingenuity (Scenic Spot: Bassins des Aghlabides)
+Night: Experience cultural immersion at the Dar El Henchir, a traditional guest house offering a warm and comfortable stay (Cultural Site: Dar El Henchir)</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Given these locations:
+GO Cafe, located in the heart of Kairouan, Tunisia, is a renowned eatery that seamlessly blends modern and traditional vibes. With a rating of 4.8/5 based on 63 reviews, it has garnered appreciation for its delectable Tunisian cuisine, cozy atmosphere, and prime location. Its proximity to the Medina and the Mosquee des Trois Portes offers patrons a convenient base to explore the city's historical and cultural treasures.
+Located in the heart of Kairouan, Cafe saraya is a cozy spot offering a delightful cafe experience. With a warm ambiance and friendly service, it's a popular destination for locals and visitors alike. Enjoy a cup of aromatic coffee or a refreshing beverage, complemented by a delicious selection of cafe eats.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+Discover the Musée national d'art islamique de Raqqada in kairouan, a renowned museum with a rating of 4.7 and over 10 reviews. Immerse yourself in the captivating realm of Islamic art and admire the museum's captivating collection. It boasts a prime location at H3V3+249 Musee national d'art islamique de Raqqada, Kairouan, and is conveniently open from 9:00 AM to 4:00 PM, except on Mondays. Kindly note that the museum's description and phone number are currently unavailable.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9932,14 +14870,71 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) located at M39Q+FFW Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy), Unnamed Road, Kairouan. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Uncle+Hassine+%28Kafteji%29+%D9%85%D8%B7%D8%B9%D9%85+%D8%B9%D9%85+%D8%AD%D8%B3%D9%8A%D9%86+%28%D9%83%D9%81%D8%AA%D8%A7%D8%AC%D9%8A%29%E2%80%AD/data=!4m7!3m6!1s0x12fdc5e20b16bb93:0xfde43df9132d598c!8m2!3d35.6687489!4d10.0886957!16s%2Fg%2F11rwsv7fnt!19sChIJk7sWC-LF_RIRjFktE_k95P0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 034 676.</t>
+          <t>Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restauration rapide destination with an excellent rating in Kairouan?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the historic Great Mosque of Kairouan, a UNESCO World Heritage Site. Admire its imposing walls, square minaret, and intricate architectural ornaments.
+Mid-Morning: Visit the enchanting Café à Kairouan, a 24-hour café with a cozy atmosphere. Sample their delightful selection of beverages and snacks while immersing yourself in the local ambiance.
+Midday: Indulge in traditional Tunisian cuisine at El Brija Restaurant, located near the city's main mosque. Their diverse menu offers couscous, pizza, and refreshing beverages at reasonable prices.
+Afternoon: Step into the Musée Historique de Kairouan to delve into the city's history and heritage. Explore its collection of artifacts and exhibitions that narrate the rich past of Kairouan.
+Evening: Experience the vibrant nightlife at Salle des Fêtes Bensikali, a renowned discotheque. Immerse yourself in the lively atmosphere and dance the night away.
+Night: Wind down your day with a relaxing stay at Dar El Chama, a charming guest house in the heart of Kairouan. Rest and rejuvenate in its comfortable accommodations while enjoying the exceptional hospitality.</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Brija Restaurant, located in Kairouan (coordinates: 35.654691, 10.0913087), offers a diverse menu including couscous, pizza, and beverages at reasonable prices. With its convenient location near the city's main mosque, El Brija Restaurant caters to both locals and tourists. Featuring a cafe atmosphere with a terrace, it's an excellent spot for casual dining or coffee breaks.
+**Café à Kairouan**
+Ce café, situé à Kairouan (coordonnées : 35.6727967, 10.0949059), est ouvert 24h/24. Il propose un large choix de boissons et de collations dans une ambiance chaleureuse et conviviale.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10041,12 +15036,70 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to eat, check out Lablabi Gabssi located at M3HX+87R Lablabi Gabssi, Rue Des Aglabiles. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 08:30-23:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>Lablabi Gabssi is a restaurant located in kairouan, Tunisia. Its coordinates are (35.6727967, 10.0949059).</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant in Kairouan specializes in Restaurant and is located at the coordinates 35.6727967, 10.0949059?</t>
+          <t>Day Plan:
+Morning: Explore the historic Kairouan Grand Mosque, marveling at its stunning architecture and religious significance.
+Mid-Morning: Immerse yourself in the local culture at the Dar Hassine Allani guest house, experiencing traditional Tunisian hospitality.
+Midday: Satisfy your taste buds with a delightful lunch at Dar Lella Habiba, known for its delicious couscous and charming ambiance.
+Afternoon: Embark on a guided tour of the Bassins des Aghlabides, learning about its remarkable Islamic architecture and engineering.
+Evening: Visit the Mosquee du Barbier jm` by zm`@ lblwy, a highly-rated monastery that offers a glimpse into Islamic history in the region.
+Night: Indulge in a traditional Tunisian dinner at Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy), savoring its famous kafteji dish and vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Lella Habiba is a restaurant located in Kairouan, Tunisia, offering a menu focused on couscous. The restaurant is in the city center, near the Great Mosque of Kairouan, and offers a beautiful view of the city. With a rating of 4.5 based on 33 reviews, the restaurant is highly appreciated for its delicious food, friendly service, and beautiful setting.
+Cafe in beb el khoukha is a cafe located in kairouan, Tunisia. Situated at the coordinates (35.6796035, 10.1047369), it offers a variety of services and amenities to its customers. The cafe is well-rated, with a 5.0 rating based on 4 reviews. It is open from 09:00 to 00:00 on weekdays, and closed on weekends. Unfortunately, there is no available information about the cafe's website, phone number, or owner.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10152,14 +15205,70 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great Restaurant, be sure to check out PIZZA NY at M39J+RG5. 
-This 5.0-rated destination offers a range of categories, including Restaurant, making it perfect for all your dining needs. 
-It's open daily from 09:00-22:00, so you can always find time to enjoy a delicious meal. To get there, use these GPS coordinates: (35.6727967, 10.0949059). For more details, call them at 94 873 407.</t>
+          <t>In quaint Kairouan, Tunisia, nestles a culinary gem known as PIZZA NY. Its location, defined by the coordinates (35.6727967, 10.0949059), places it at the heart of the city. With a stellar 5.0 rating based on 7 reviews, this restaurant specializes in offering a tantalizing menu, brimming with flavors that delight the palate. It caters to its patrons from 9:00 AM to 10:00 PM every day, ensuring culinary satisfaction at all hours.</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>Question: Where can you find a highly-rated restaurant with a wide selection of dishes in Kairouan that's open daily and has convenient GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the historical Kairouan Grand Mosque
+Mid-Morning: Visit the nearby Mausolee du Barbier museum
+Midday: Try local cuisine at Mama Chippo, renowned for its Tunisian flavors.
+Afternoon: Take a guided tour of the Medina, the city's ancient quarter.
+Evening: Experience traditional entertainment and music at Mosquee du Barbier jm` by zm`@ lblwy monastery.
+Night: Enjoy a relaxing stay at Hotel Ettaoufik, a 4.6-star hotel in the heart of Kairouan.</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Mama Chippo** is a renowned restaurant in Kairouan, renowned for its mouthwatering cuisine. It's conveniently located at Rue cheikh Mohamed El Barak and is easily accessible. The eatery operates daily except Mondays and welcomes customers from 11:00 AM to 11:00 PM. Its menu and ambiance make it an excellent destination for dinner with friends or family.
+Chez Mamie is a cafe in Kairouan, Tunisia. It has a 4.4-star rating on Google, and is known for its smoothies and proximity to the Great Mosque of Kairouan. The cafe is open from 8am to 11pm, and is located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10261,12 +15370,71 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>If you're in kairouan and seeking something delicious to eat, head over to Restaurant sakka, located on M39X+3MJ Restaurant sakka, Hy mHmd `ly,, Rue de La Liberte, Kairouan. This highly-rated destination is a haven for Restaurant lovers and offers a range of options to choose from. With an impressive rating of 5.0, it's a must-visit spot in the city. To get there, use these GPS coordinates: 35.669994146437, 10.095808475725. For further details, call them at 98 800 314.</t>
+          <t>Restaurant Sakka in Kairouan, Tunisia (35.669994146437, 10.095808475725) is a highly-rated restaurant with a 5.0 rating based on 6 reviews. It is located on Rue de La Liberte, near Hy mHmd `ly,,. Restaurant Sakka is a great place to enjoy a delicious meal in a friendly and welcoming atmosphere.</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with an impressive rating of 5.0 in Kairouan, known for its exceptional cuisine?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Kairouan Grand Mosque, renowned for its exceptional Islamic architecture.
+Mid-Morning: Enjoying a culinary experience at Boura aldemeshqi, a renowned Syrian restaurant in Kairouan, known for its highly praised authentic dishes.
+Midday: Visiting the Sidi Amor Abada Mausoleum, a museum offering insights into the life and teachings of the Sufi saint Sidi Amor Abada.
+Afternoon: Relaxing at Hotel Ettaoufik, a popular 4.6-star hotel in the heart of Kairouan, known for its hospitality and comfortable accommodations.
+Evening: Experiencing the lively nightlife at Salle des Fêtes Bensikali, a discotheque offering a vibrant atmosphere and captivating entertainment.
+Night: Enjoying a delicious dinner at Pizzeria L'Artiste Kairouan, a highly-rated pizzeria offering a wide variety of pizzas and a charming ambiance.</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Boura aldemeshqi is a renowned restaurant in Kairouan, situated at 6000 Av. Abi Zamaa El Balaoui. Open 24 hours a day except on Sundays, it specializes in Syrian cuisine, highly praised by customers, as evidenced by its impressive rating of 4.6. The restaurant's exact location is at (35.676813513298, 10.093464437173), making it easily accessible within the city.
+Chez Mamie is a cafe in Kairouan, Tunisia. It has a 4.4-star rating on Google, and is known for its smoothies and proximity to the Great Mosque of Kairouan. The cafe is open from 8am to 11pm, and is located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+La Mosquée du Barbier, également connue sous le nom de Sidi Sahib, est un lieu historique situé dans la ville sainte de Kairouan, en Tunisie. Cette mosquée, qui remonte au XVIe siècle, est dédiée au saint Abou Zamaa El-Balaoui.
+Elle est célèbre pour son mausolée, où est enterré le saint, qui attire chaque année de nombreux pèlerins musulmans. La Mosquée du Barbier est un site culturel important qui témoigne de la riche histoire religieuse et architecturale de Kairouan.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10372,14 +15540,70 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great pizza place, check out NARCO'S located at Sahabi 2, Kairouan 3100. 
-This top-rated destination is perfect for Pizzeria lovers and offers a variety of pizzas to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-22:30. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at https://www.google.com/maps/place/NARCO%27S/data=!4m7!3m6!1s0x12fdc50f6b58d409:0xf58bf536da0679f1!8m2!3d35.6854923!4d10.0888168!16s%2Fg%2F11s5vjf9y8!19sChIJCdRYaw_F_RIR8XkG2jb1i_U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 402 248.</t>
+          <t>With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria with a wide selection of pizzas in Kairouan?</t>
+          <t>Day Plan:
+Morning: Explore the historic Kairouan Grand Mosque
+Mid-Morning: Visit the ancient Bassins des Aghlabides
+Midday: Try local cuisine at the highly-rated Dar Lella Habiba restaurant
+Afternoon: Engage in a guided tour of the Conservatoire museum
+Evening: Experience the lively nightlife at Salle des Fêtes Bensikali discotheque
+Night: Relax with a traditional tea at the popular tea room mqh~ `bd llh</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Lella Habiba is a restaurant located in Kairouan, Tunisia, offering a menu focused on couscous. The restaurant is in the city center, near the Great Mosque of Kairouan, and offers a beautiful view of the city. With a rating of 4.5 based on 33 reviews, the restaurant is highly appreciated for its delicious food, friendly service, and beautiful setting.
+Cafe Taktak is a cafe located in Kairouan, Tunisia at 35.672837383891, 10.100961858317. It offers a variety of cafe-style food and beverages and is open from 05:00 to 23:00 every day. The cafe has a 4.9-star rating on Google based on 12 reviews.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Tunisia (coordinates: 35.680789525406, 10.103936021759), the renowned Mosquee Okba Ibn Nafaa is a 7th-century mosque renowned for its architectural splendor. Its imposing walls, square minaret, and intricate embellishments showcase the artistry of the era. Immerse yourself in the rich history of the Islamic civilization and admire the remarkable details that have made this mosque a must-visit historical attraction.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10485,12 +15709,84 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out pizzeria l'artista kairouan located at M3MM+8JM pizzeria l'artista kairouan, Unnamed Road, Kairouan. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-20:00, but closed on those days. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/pizzeria+l%27artista+kairouan/data=!4m7!3m6!1s0x12fdc55b5f297aa3:0xb7c02bae2720861c!8m2!3d35.6833493!4d10.084034!16s%2Fg%2F11qq3dg6y7!19sChIJo3opX1vF_RIRHIYgJ64rwLc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 284 837.</t>
+          <t>"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated pizzeria with a rating of 5.0 in Kairouan?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the Kairouan Grand Mosque, a magnificent architectural and spiritual landmark.
+**Mid-Morning:**
+- Visit the Bassins des Aghlabides, a historical site showcasing the ingenuity of ancient hydraulic engineering.
+**Midday:**
+- Savor authentic Tunisian cuisine at Restaurant mT`m dr l`yl@, known for its delicious offerings and friendly ambiance.
+**Afternoon:**
+- Enjoy a guided tour of the Mausolee du Barbier, a museum dedicated to the history and architecture of the region.
+**Evening:**
+- Indulge in a luxurious spa treatment at Dar Chama, a charming guest house that offers a relaxing and rejuvenating experience.
+**Night:**
+- Experience the vibrant nightlife at Salle des Fêtes Bensikali, a renowned discotheque renowned for its energetic atmosphere and captivating music.</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Restaurant mT`m dr l`yl@**
+mT`m dr l`yl@ is a highly rated restaurant located in Kairouan, Tunisia. It offers a variety of dining options, including traditional Tunisian cuisine. The restaurant is known for its friendly owner and excellent service. It is open from 8 am to 10 pm daily, except for Fridays.
+**Highlights:**
+* Convenient location in the center of the city
+* Accommodating staff and pleasant atmosphere
+* Delicious selection of Tunisian dishes
+**Coordinates:**
+* Latitude: 35.6727967
+* Longitude: 10.0949059
+Café maure barrouta is a cafe located in Kairouan, Tunisia. It has a rating of 4.3 and is open from 07:00-00:00. The cafe is located at the coordinates (35.67574, 10.10064) and offers a variety of cafe related products and services.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10592,12 +15888,70 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Delight Lebanon located at M4F2+HM6 Delight Lebanon, Bd H Bourguilla, Kairouan. This restaurant is perfect for Restaurant lovers. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website or call them at 23 326 803.</t>
+          <t>Delight Lebanon, a restaurant located in Kairouan, offers tantalizing Lebanese cuisine to satisfy your cravings. Situated at the coordinates (35.6727967, 10.0949059), you can easily find this delightful spot to savor the flavors of Lebanon.</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>In which location can you find Delight Lebanon, a highly-rated restaurant with GPS coordinates of 35.6727967, 10.0949059, and a rating of 4.4?</t>
+          <t>Day Plan:
+Morning: Explore the historical and architectural marvel of the Kairouan Grand Mosque, renowned for its stunning columns and intricate decorations.
+Mid-Morning: Immerse yourself in the city's rich heritage at DAR EL MRABET Maison Musee, a museum dedicated to the history and culture of Kairouan.
+Midday: Treat your taste buds to traditional Tunisian cuisine at Dar Lella Habiba, a highly-rated restaurant offering a menu centered around delicious couscous.
+Afternoon: Venture to the medieval Islamic masterpiece, Bassins des Aghlabides, and marvel at its remarkable architecture and engineering.
+Evening: Ascend to the rooftop of La Kasba, a charming hotel, and soak in panoramic views of the city while enjoying a delightful evening meal.
+Night: Dive into the vibrant nightlife scene at Salle des Fetes Bensikali, a popular discotheque boasting a lively atmosphere and captivating music.</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Lella Habiba is a restaurant located in Kairouan, Tunisia, offering a menu focused on couscous. The restaurant is in the city center, near the Great Mosque of Kairouan, and offers a beautiful view of the city. With a rating of 4.5 based on 33 reviews, the restaurant is highly appreciated for its delicious food, friendly service, and beautiful setting.
+Cafe Kaser Ennour is a cafe located in Kairouan, Tunisia (lon: 10.0949059, lat: 35.6727967). It offers a variety of cafe-style food and drinks, and is open 24 hours a day. The cafe has a 5.0 rating on Google Maps, and has received 2 reviews.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located in the city center, making it easily accessible for travelers. The station has a rating of 3.2 stars based on 9 reviews. Its coordinates are 35.6727967, 10.0949059.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10703,14 +16057,78 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a bite to eat, check out mT`m dr l`yl@ at 1452 Rue de Lybie, Kairouan. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant options to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on vendredi. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website or call them at 26 883 066.</t>
+          <t>**Restaurant mT`m dr l`yl@**
+mT`m dr l`yl@ is a highly rated restaurant located in Kairouan, Tunisia. It offers a variety of dining options, including traditional Tunisian cuisine. The restaurant is known for its friendly owner and excellent service. It is open from 8 am to 10 pm daily, except for Fridays.
+**Highlights:**
+* Convenient location in the center of the city
+* Accommodating staff and pleasant atmosphere
+* Delicious selection of Tunisian dishes
+**Coordinates:**
+* Latitude: 35.6727967
+* Longitude: 10.0949059</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restaurant in Kairouan with a 4.7 rating, located at 1452 Rue de Lybie?</t>
+          <t>Day Plan:
+Morning: Exploring the Kairouan Medina (Old Town)
+Mid-Morning: Trying local cuisine at Restaurant Sakka
+Midday: Visiting the Great Mosque of Kairouan
+Afternoon: Enjoying the Bassins des Aghlabides (ancient reservoir)
+Evening: Shopping for traditional crafts at Click'airouan STORE
+Night: Dining at NARCO'S Pizzeria for authentic Tunisian flavors</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Sakka in Kairouan, Tunisia (35.669994146437, 10.095808475725) is a highly-rated restaurant with a 5.0 rating based on 6 reviews. It is located on Rue de La Liberte, near Hy mHmd `ly,,. Restaurant Sakka is a great place to enjoy a delicious meal in a friendly and welcoming atmosphere.
+Cafe Chic is a popular cafe located in the heart of Kairouan. It offers a wide variety of delicious food and drinks, as well as a cozy atmosphere and friendly service. The cafe is open daily from 7:00 AM to midnight, and it is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10816,12 +16234,70 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great Restaurant, check out restaurant salem ( ademie) mT`m lslm at M3JH+WC4, RR99. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.690904194799, 10.055042442587. For more details, call them at 97 868 511.</t>
+          <t>Restaurant Salem is a highly-rated dining establishment located in Kairouan, Tunisia, offering a delectable culinary experience with a 4.0 rating based on 2 reviews. The restaurant is renowned for its authentic cuisine, served in a welcoming ambiance. Conveniently situated at M3JH+WC4 restaurant salem ( ademie) mT`m lslm, RR99, Kairouan, the restaurant's coordinates are 35.690904194799, 10.055042442587. You can reach Restaurant Salem by phone at 97 868 511 for reservations or inquiries.</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>What is the name and location of the highly-rated restaurant in Kairouan that offers a range of dining options?</t>
+          <t>Day Plan:
+Morning: Explore the historic Kairouan Grand Mosque, an iconic landmark showcasing stunning Islamic architecture.
+Mid-Morning: Visit the Gare routiere (Autobus) bus station for convenient transportation options.
+Midday: Try local cuisine at PIZZA NY, a culinary gem known for its tantalizing menu and rave reviews.
+Afternoon: Immerse yourself in the historical significance and intricate architecture of Mosquee du Barbier jm` by zm`@ lblwy.
+Evening: Enjoy the lively nightlife experience at Salle des Fêtes Bensikali, renowned for its captivating music and vibrant atmosphere.
+Night: Relax and unwind at Dar Chama, a charming guest house offering comfortable accommodations and a peaceful ambiance.</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>Given these locations:
+In quaint Kairouan, Tunisia, nestles a culinary gem known as PIZZA NY. Its location, defined by the coordinates (35.6727967, 10.0949059), places it at the heart of the city. With a stellar 5.0 rating based on 7 reviews, this restaurant specializes in offering a tantalizing menu, brimming with flavors that delight the palate. It caters to its patrons from 9:00 AM to 10:00 PM every day, ensuring culinary satisfaction at all hours.
+Cafe Les Veterants is a 4-star rated cafe located in kairouan. It's open from 6am to 11pm everyday. It has 18 reviews and is featured in the Cafe category.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10923,12 +16399,71 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and are craving for some quick food to grab, check out El Gringo Fast Food located at Rue Oum El Mouminin Aicha. This top-rated spot has a perfect rating of 5.0 and is a must-visit for fast food lovers. It's open every day from 09:00-22:00. For more details, visit their website at https://www.google.com/maps/place/El+Gringo+Fast+Food/data=!4m7!3m6!1s0x12fdc5d2f5c4e10b:0x8911984749516e5d!8m2!3d35.6811908!4d10.0983712!16s%2Fg%2F11hzmt29y4!19sChIJC-HE9dLF_RIRXW5RSUeYEYk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>Where can you satisfy your fast food cravings in Kairouan with a top-rated spot that offers convenience and quality?</t>
+          <t>Day Plan:
+Morning: Explore the historic Grand Mosque of Kairouan, marveling at its stunning architecture and religious significance. (The Kairouan Grand Mosque)
+Mid-Morning: Visit the Sidi Ghariani mausoleum, a revered pilgrimage site dedicated to a Sufi saint. (Sidi Ghariani)
+Midday: Indulge in a delectable lunch at Restaurant Salem, renowned for its authentic Tunisian cuisine. (Restaurant Salem)
+Afternoon: Take a leisurely stroll through the traditional medina of Kairouan, soaking up its vibrant atmosphere and browsing local handicrafts at Click'airouan STORE. (Click'airouan STORE)
+Evening: Experience the lively nightlife at Salle des Fetes Bensikali, a popular discotheque offering an energetic dance floor and upbeat music. (Salle des Fêtes Bensikali)
+Night: Savor dinner at NARCO'S Pizzeria, delighting in their flavorful and authentic pizza creations. (NARCO'S)</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Salem is a highly-rated dining establishment located in Kairouan, Tunisia, offering a delectable culinary experience with a 4.0 rating based on 2 reviews. The restaurant is renowned for its authentic cuisine, served in a welcoming ambiance. Conveniently situated at M3JH+WC4 restaurant salem ( ademie) mT`m lslm, RR99, Kairouan, the restaurant's coordinates are 35.690904194799, 10.055042442587. You can reach Restaurant Salem by phone at 97 868 511 for reservations or inquiries.
+Cafe in beb el khoukha is a cafe located in kairouan, Tunisia. Situated at the coordinates (35.6796035, 10.1047369), it offers a variety of services and amenities to its customers. The cafe is well-rated, with a 5.0 rating based on 4 reviews. It is open from 09:00 to 00:00 on weekdays, and closed on weekends. Unfortunately, there is no available information about the cafe's website, phone number, or owner.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11038,14 +16573,72 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Ka3boura Fast Food located at rue tarbia. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at https://www.facebook.com/Ka3bouraFastFood/ or call them at 26 264 830.</t>
+          <t>Ka3boura Fast Food, located in Kairouan, Tunisia, is a popular restaurant known for its excellent ratings and delicious food. It is conveniently situated at rue tarbia, making it easily accessible to locals and visitors alike. The restaurant opens daily from 7:00 AM to 11:00 PM, offering a wide range of dining options to satisfy every craving. Whether you're looking for a quick bite or a leisurely meal, Ka3boura Fast Food has something for everyone.</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with diverse dining options in Kairouan, known for its Restaurant offerings?</t>
+          <t>Day Plan:
+Morning: Explore the historic Mosquee Okba Ibn Nafaa, an iconic landmark showcasing exquisite Islamic architecture.
+Mid-Morning: Immerse yourself in the local culture at GO Cafe, savoring traditional Tunisian delicacies while enjoying the cozy atmosphere and friendly service.
+Midday: Visit Bassins des Aghlabides, an awe-inspiring historical site that showcases the ingenuity of the Islamic civilization.
+Afternoon: Pamper yourself with a relaxing traditional hammam experience at a local spa, rejuvenating both body and mind.
+Evening: Experience the vibrant nightlife at Salle des Fêtes Bensikali, a renowned discotheque featuring captivating music and a lively atmosphere.
+Night: Relish authentic Tunisian cuisine at Ci Gusta Kairouan, a popular sundae restaurant known for its delicious pizzas and inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the heart of Kairouan (coordinates: 35.654691, 10.0913087), the GO Cafe is a popular spot among locals and tourists alike. With a focus on delicious cuisine, the cafe offers a wide range of dishes, including traditional Tunisian delicacies. Situated near the famous Three-Door Mosque (Mosquee des Trois Portes), the cafe's convenient location and cozy atmosphere make it a great place to relax and enjoy the local culture.
+Cafe in beb el khoukha is a cafe located in kairouan, Tunisia. Situated at the coordinates (35.6796035, 10.1047369), it offers a variety of services and amenities to its customers. The cafe is well-rated, with a 5.0 rating based on 4 reviews. It is open from 09:00 to 00:00 on weekdays, and closed on weekends. Unfortunately, there is no available information about the cafe's website, phone number, or owner.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11147,12 +16740,72 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a top-rated restaurant, check out Restaurant Weld El Bey located at Av. Kairouan, El Mourouj. With a rating of 4.1, it's a must-visit spot for restaurant lovers. It's open during these hours: 11:00-22:00. To get there, use these GPS coordinates: 36.7366706, 10.210515. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Weld+El+Bey/data=!4m7!3m6!1s0x12fd379ce8c6b909:0xe989f7a56e5f6005!8m2!3d36.7370627!4d10.2109565!16s%2Fg%2F11g197th50!19sChIJCbnG6Jw3_RIRBWBfbqX3iek?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Restaurant Weld El Bey is a 4.1-rated restaurant located in Av. Kairouan, El Mourouj. It serves multiple cuisines and is open from 11:00 AM to 10:00 PM daily. The restaurant's main category is Restaurant, and its coordinates are (36.7366706, 10.210515).</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a 4.1 rating located at Av. Kairouan, El Mourouj in Kairouan?</t>
+          <t>Day Plan:
+Morning: Explore the historic Great Mosque of Kairouan, a UNESCO World Heritage Site.
+Mid-Morning: Visit the Musée du Tapis to learn about the region's rich carpet-making heritage.
+Midday: Enjoy a delicious local lunch at Boura aldemeshqi, a renowned restaurant specializing in Syrian cuisine.
+Afternoon: Take a guided tour of Dar Chama, a charming guest house showcasing traditional Tunisian architecture.
+Evening: Explore Mosquee du Barbier jm` by zm`@ lblwy, a historic monastery with intricate Islamic decorations.
+Night: Experience the lively nightlife at Salle des Fêtes Bensikali, a popular discotheque with a vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Boura aldemeshqi is a renowned restaurant in Kairouan, situated at 6000 Av. Abi Zamaa El Balaoui. Open 24 hours a day except on Sundays, it specializes in Syrian cuisine, highly praised by customers, as evidenced by its impressive rating of 4.6. The restaurant's exact location is at (35.676813513298, 10.093464437173), making it easily accessible within the city.
+mqh~ lshrTny is a 5-star rated cafe situated in kairouan, Tunisia, with coordinates (35.6727967, 10.0949059). It operates from 4:00 AM to 2:00 AM and offers a variety of services, including:
+* Cafe services
+The cafe is known for its friendly atmosphere and great service. It is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11262,12 +16915,76 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Essiguifa located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on . To get there, use these GPS coordinates: 33.921574605214, 8.138131631011. For more details, visit their website at https://www.facebook.com/ESSIGUIFADETOZEUR%3Fmibextid%3DZbWKwL or call them at 51 396 397.</t>
+          <t>Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>Where in Tozeur can you find a highly-rated Restaurant tunisien establishment with a rating of 4.8?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical grandeur of the Kairouan Grand Mosque, marveling at its intricate Islamic architecture.
+Mid-Morning:
+- Visit the Musée national d'art islamique de Raqqada to immerse yourself in the captivating realm of Islamic art.
+Midday:
+- Savor authentic Tunisian cuisine at Ci Gusta Kairouan, renowned for its delectable sundaes, pizzas, and waffles.
+Afternoon:
+- Indulge in the vibrant atmosphere of Salle des Fêtes Bensikali, a popular discotheque with an electric nightlife scene.
+Evening:
+- Experience the cultural heritage of the region at Sidi Ghariani, a historical landmark that showcases the area's rich history and architectural beauty.
+Night:
+- Relish the delicious flavors of NARCO'S Pizzeria, known for its authentic Italian pizzas, creating a perfect end to a day filled with exploration and cultural immersion.</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Wood'Z is a restaurant located in Kairouan, Tunisia, at the coordinates (35.6727967, 10.0949059). It has a rating of 4.8 out of 5 based on 8 reviews. The restaurant's owner is "Wood'Z (proprietaire)". Unfortunately, there is no detailed description or information about the services or cuisine offered by Wood'Z.
+Fratello Cafe is a highly-rated cafe located in the heart of Kairouan, Tunisia. It offers a wide range of delicious food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at M4F2+3Q7 Fratello Cafe, Av. de La Republique, Kairouan, and can be reached by phone at 77 229 270.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+Discover the Musée national d'art islamique de Raqqada in kairouan, a renowned museum with a rating of 4.7 and over 10 reviews. Immerse yourself in the captivating realm of Islamic art and admire the museum's captivating collection. It boasts a prime location at H3V3+249 Musee national d'art islamique de Raqqada, Kairouan, and is conveniently open from 9:00 AM to 4:00 PM, except on Mondays. Kindly note that the museum's description and phone number are currently unavailable.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11365,12 +17082,77 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a place to travel, check out Station louage located at Station louage, Kairouan. This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.6801167, 10.0864989.</t>
+          <t>"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>What is the top-rated destination for Gare routiere lovers located in Kairouan with the GPS coordinates 35.6801167, 10.0864989?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Grand Mosque of Kairouan, a UNESCO World Heritage Site renowned for its stunning architecture and spiritual significance.
+**Mid-Morning:**
+* Visit the Bassins des Aghlabides, ancient reservoirs built in the 9th century, showcasing the ingenuity of Islamic hydraulic engineering.
+**Midday:**
+* Lunch at GO Cafe, savoring authentic Tunisian cuisine in a cozy and modern ambiance located in the heart of Kairouan.
+**Afternoon:**
+* Immerse yourself in the local culture at the Mausolee du Barbier, a museum dedicated to the region's history and architecture.
+**Evening:**
+* Enjoy a guided tour of Mosquee du Barbier jm` by zm`@ lblwy, a picturesque monastery with mesmerizing architecture and a prominent tourist attraction.
+**Night:**
+* Relax and unwind at Dar Alouini, a charming maison d'hotes with a delightful restaurant and a serene ambiance.</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>Given these locations:
+GO Cafe, located in the heart of Kairouan, Tunisia, is a renowned eatery that seamlessly blends modern and traditional vibes. With a rating of 4.8/5 based on 63 reviews, it has garnered appreciation for its delectable Tunisian cuisine, cozy atmosphere, and prime location. Its proximity to the Medina and the Mosquee des Trois Portes offers patrons a convenient base to explore the city's historical and cultural treasures.
+Located in the heart of Kairouan, Cafe saraya is a cozy spot offering a delightful cafe experience. With a warm ambiance and friendly service, it's a popular destination for locals and visitors alike. Enjoy a cup of aromatic coffee or a refreshing beverage, complemented by a delicious selection of cafe eats.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11468,10 +17250,72 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Gare routiere (Autobus) located at Gare routiere (Autobus), Kairouan. This popular destination is perfect for Gare routiere lovers. With a rating of 3.2, it's a must-visit spot. Use these GPS coordinates to get there: (35.6727967, 10.0949059).</t>
-        </is>
-      </c>
-      <c r="AA100" t="inlineStr"/>
+          <t>The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Explore the historical and spiritual significance of the Kairouan Grand Mosque.
+Mid-Morning: Immerse in the cultural heritage of Kairouan by visiting DAR EL MRABET Maison Musee.
+Midday: Savour the local flavours and traditional cuisine at Ci Gusta Kairouan.
+Afternoon: Engage in outdoor activities at Bassins des Aghlabides, admiring its remarkable Islamic architecture.
+Evening: Experience the vibrant nightlife at Salle des Fêtes Bensikali, known for its music and dance floor.
+Night: Enjoy a relaxing and comfortable stay at Dar Chama, a charming guest house.</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Lablabi Gabssi is a restaurant located in kairouan, Tunisia. Its coordinates are (35.6727967, 10.0949059).
+Espace Ben Rejeb is a cafe located in Kairouan, Tunisia. It offers a relaxing atmosphere with a rating of 4.0, based on 11 reviews. Situated at 35.673189168275 latitude and 10.102536932089 longitude, it is easily accessible. Espace Ben Rejeb's website, https://www.ben-rejeb.com/, offers additional information and reservations. Unfortunately, no specific description was provided.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -11567,12 +17411,71 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a Gare routiere, check out Station louage located at Station louage, Kairouan. This top-rated destination offers a range of categories to choose from. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.6801167, 10.0864989.</t>
+          <t>Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly-rated Gare routiere with GPS coordinates 35.6801167, 10.0864989?</t>
+          <t>Day Plan:
+Morning: Explore Kairouan's rich history at the Mausolee du Barbier.
+Mid-Morning: Visit the iconic Kairouan Grand Mosque, a UNESCO World Heritage Site.
+Midday: Savor a delectable Tunisian lunch at the highly-rated Essiguifa restaurant.
+Afternoon: Engage in a guided tour of the Sidi Ghariani Mausoleum, a historical landmark.
+Evening: Experience a lively nightlife ambiance at the renowned discotheque, Salle des Fêtes Bensikali.
+Night: Relax and rejuvenate at the luxurious Dar El Caid hotel.</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>Given these locations:
+First Time Pizzeria is a restaurant located in Kairouan, Tunisia, with a 4.6 rating based on 10 reviews. It offers a variety of dishes and is open from 9:00 am to 10:00 pm every day. The restaurant's main category is Restaurant, and its website is https://m.facebook.com/firsttimepizzeria/.
+Come and visit the cozy cafe el clasico in kairouan. This well-rated cafe (4.5/5 by 2 visitors) is the perfect place to relax. Open 24 hours, feel free to pass by whenever you feel like it.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11670,14 +17573,71 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a bus station, check out Gare routiere (Autobus) located at Gare routiere (Autobus), Kairouan. 
-This bus station is perfect for transportation lovers and offers a range of services to choose from. 
-With a rating of 3.2, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Gare+routi%C3%A8re+%28Autobus%29/data=!4m7!3m6!1s0x12fdc55bfe9b4a7f:0x3d0a6e807ed031de!8m2!3d35.6816101!4d10.0865018!16s%2Fg%2F1tdty91l!19sChIJf0qb_lvF_RIR3jHQfoBuCj0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at phone.</t>
+          <t>Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>Where is the bus station in Kairouan known for offering a range of services?</t>
+          <t>Day Plan:
+Morning: Exploring Kairouan Grand Mosque
+Mid-Morning: Visiting Bassins des Aghlabides
+Midday: Trying local cuisine at Restaurant Weld El Bey
+Afternoon: Enjoying scenic views at Sidi Ben Aissa Archaeological and Traditional Museum
+Evening: Participating in a guided tour of Mosquee Okba Ibn Nafaa
+Night: Relaxing with a traditional spa treatment at Dar El Henchir</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Weld El Bey is a 4.1-rated restaurant located in Av. Kairouan, El Mourouj. It serves multiple cuisines and is open from 11:00 AM to 10:00 PM daily. The restaurant's main category is Restaurant, and its coordinates are (36.7366706, 10.210515).
+**Café à Kairouan**
+Ce café, situé à Kairouan (coordonnées : 35.6727967, 10.0949059), est ouvert 24h/24. Il propose un large choix de boissons et de collations dans une ambiance chaleureuse et conviviale.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11775,12 +17735,70 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something related to Gare routiere, check out Station louage. This top-rated destination is perfect for Gare routiere lovers and is open during weekday_timing. It's got a rating of 3.9, so it's definitely worth checking out! You can find it at Station louage, Kairouan. To get there, use these GPS coordinates: 35.6801167, 10.0864989. For more details, visit their website at link or call them at phone.</t>
+          <t>Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly-rated destination for Gare routiere enthusiasts, accessible during weekdays?</t>
+          <t>Day Plan:
+Morning: Exploring the Kairouan Grand Mosque, a historical landmark and significant spiritual site, renowned for its exceptional Islamic architecture.
+Mid-Morning: Trying local cuisine at Pizzeria L'Artiste Kairouan, a highly-rated pizzeria offering a wide variety of pizzas.
+Midday: Visiting Sidi Ben Aissa Archaeological and Traditional Museum, a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region.
+Afternoon: Enjoying a relaxing break at Vintage Bistro in Kairouan, a cozy eatery offering a delightful dining experience with mouthwatering dishes.
+Evening: Participating in the lively nightlife experience at Salle des Fêtes Bensikali, a renowned discotheque featuring captivating music and a dance floor.
+Night: Exploring the Mosquee du Barbier jm`, a well-rated monastery with a beautiful architectural design.</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Piccolo Mondo, located at Av. Ibn El-Jazzar in Kairouan, Tunisia, is a popular restaurant offering a variety of dishes, with a focus on pizzas. It has received an impressive rating of 4.0 based on 27 reviews. The restaurant offers a cozy ambiance and friendly service, making it a great choice for a casual dining experience.
+Café Hermès is a popular cafe located in Kairouan. Its address is M39J+VP7 cafe hermess, Av. Mongi Slim, Kairouan. It operates from 4:00 am to 11:00 pm every day, offering a cozy ambiance for its customers. Café Hermès has been positively reviewed online, with a rating of 4.0.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located in the city center, making it easily accessible for travelers. The station has a rating of 3.2 stars based on 9 reviews. Its coordinates are 35.6727967, 10.0949059.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11882,14 +17900,71 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>If you're in kairouan, check out mHT@ syrt llwj station louage located at M3HQ+P26 mHT@ syrt llwj station louage, Cite el hajjem, Kairouan. 
-This top-rated destination is perfect for Service de transport lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>Where is the highly-rated destination in Kairouan that is perfect for Service de transport lovers and open 24/7?</t>
+          <t>Day Plan:
+Morning: Explore the ancient streets of the Kairouan Medina and visit the iconic Mosque of Uqba, a UNESCO World Heritage Site.
+Mid-Morning: Immerse yourself in local culture at the Musée des Arts Islamiques, showcasing exquisite Islamic art and artifacts.
+Midday: Indulge in a traditional Tunisian lunch at Saraya Al Bey, known for its cozy ambiance and delicious cuisine.
+Afternoon: Unwind amidst the serene atmosphere of the Bassins des Aghlabides, marveling at the ancient hydraulic system and lush gardens.
+Evening: Experience the vibrant nightlife of Kairouan at Salle des Fêtes Bensikali, a renowned discotheque with captivating music and dance performances.
+Night: Savor the flavors of Tunisia with dinner at Pizzeria L'Artiste Kairouan, offering an exceptional array of pizzas and a warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Saraya Al Bey**
+Saraya Al Bey is a popular restaurant located in Kairouan, Tunisia (Latitude: 35.678709970301, Longitude: 10.103632375538). It offers a diverse menu, specializing in traditional cuisine, and provides a cozy ambiance for dining. With a 4.0 rating based on 47 reviews, Saraya Al Bey is a well-received dining destination in Kairouan.
+Coffee Time is a highly-rated cafe situated in Kairouan, Tunisia. Known for its cozy atmosphere and friendly staff, the cafe offers a wide range of coffee and tea beverages, as well as pastries and light snacks. Located at coordinates (35.6727967, 10.0949059), the cafe is easily accessible and open daily from 05:00 to 22:00.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.
+The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located in the city center, making it easily accessible for travelers. The station has a rating of 3.2 stars based on 9 reviews. Its coordinates are 35.6727967, 10.0949059.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11987,12 +18062,71 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a Gare routiere, check out Station louage located at Station louage, Kairouan. This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.6801167, 10.0864989. For more details, visit their website at https://www.google.com/maps/place/Station+louage/data=!4m7!3m6!1s0x12fdc55bae30155f:0x9dd2b8fcb6de775e!8m2!3d35.679328!4d10.0885133!16s%2Fg%2F1tjh1ghh!19sChIJXxUwrlvF_RIRXnfetvy40p0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28.</t>
+          <t>The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a top-rated destination for Gare routiere with a rating of 3.9 and GPS coordinates of 35.6801167, 10.0864989?</t>
+          <t>Day Plan:
+Morning: Explore the historic grandeur of the Kairouan Grand Mosque, marveling at its stunning architecture and spiritual significance.
+Mid-Morning: Indulge in the local culinary delights at Piccolo Mondo, sampling their delectable pizzas and authentic Tunisian dishes amidst a cozy ambiance.
+Midday: Visit the Sidi Ben Aissa Archaeological and Traditional Museum, delving into the region's rich cultural heritage and archaeological treasures.
+Afternoon: Engage in some outdoor recreation at the beautiful Parc de la Ville, enjoying a leisurely stroll or indulging in various family-friendly activities.
+Evening: Immerse yourself in the lively atmosphere of Salle des Fêtes Bensikali, a renowned discotheque in M'saken, where you can dance the night away to captivating music.
+Night: Relax and unwind at Dar Elhadir, a charming guesthouse that offers traditional Tunisian cuisine and guided tours of the surrounding area, ensuring a comfortable and authentic stay.</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Piccolo Mondo, located at Av. Ibn El-Jazzar in Kairouan, Tunisia, is a popular restaurant offering a variety of dishes, with a focus on pizzas. It has received an impressive rating of 4.0 based on 27 reviews. The restaurant offers a cozy ambiance and friendly service, making it a great choice for a casual dining experience.
+Fratello Cafe is a highly-rated cafe located in the heart of Kairouan, Tunisia. It offers a wide range of delicious food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at M4F2+3Q7 Fratello Cafe, Av. de La Republique, Kairouan, and can be reached by phone at 77 229 270.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12090,12 +18224,76 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Gare routiere (Autobus) located at Gare routiere (Autobus), Kairouan. This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. With a rating of 3.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Gare+routi%C3%A8re+%28Autobus%29/data=!4m7!3m6!1s0x12fdc55bfe9b4a7f:0x3d0a6e807ed031de!8m2!3d35.6816101!4d10.0865018!16s%2Fg%2F1tdty91l!19sChIJf0qb_lvF_RIR3jHQfoBuCj0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located in the city center, making it easily accessible for travelers. The station has a rating of 3.2 stars based on 9 reviews. Its coordinates are 35.6727967, 10.0949059.</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a highly-rated destination for Gare routiere enthusiasts, with a rating of 3.2?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Great Mosque of Kairouan, a UNESCO World Heritage Site known for its architectural beauty.
+**Mid-Morning:**
+- Visit the Conservatoire museum to delve into the local history, culture, and art.
+**Midday:**
+- Savor traditional Tunisian cuisine at Dar Alouini, a charming guesthouse with a highly-rated restaurant.
+**Afternoon:**
+- Immerse yourself in the local atmosphere at the Gare routiere (Autobus) bus station, a vibrant transportation hub.
+**Evening:**
+- Stroll through the Sidi Ghariani mausoleum, honoring the city's historical and architectural heritage.
+**Night:**
+- Engage with locals and enjoy live music at Cafe Kaser Ennour, a 24-hour cafe with a cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Brija Restaurant, located in Kairouan (coordinates: 35.654691, 10.0913087), offers a diverse menu including couscous, pizza, and beverages at reasonable prices. With its convenient location near the city's main mosque, El Brija Restaurant caters to both locals and tourists. Featuring a cafe atmosphere with a terrace, it's an excellent spot for casual dining or coffee breaks.
+Cafe Kaser Ennour is a cafe located in Kairouan, Tunisia (lon: 10.0949059, lat: 35.6727967). It offers a variety of cafe-style food and drinks, and is open 24 hours a day. The cafe has a 5.0 rating on Google Maps, and has received 2 reviews.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12193,14 +18391,72 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a place specialized in Arret de transports en commun, check out mHT@ lnql lryfy at Kairouan. 
-This top-rated destination is perfect for Arret de transports en commun enthusiasts and offers a variety of Arret de transports en commun to select from. 
-With a rating of 3.8, it's a must-visit spot. For more information, visit their website at https://www.google.com/maps/place/%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D9%86%D9%82%D9%84+%D8%A7%D9%84%D8%B1%D9%8A%D9%81%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fdc54cbf1151ed:0xfc29f8311fa7adae!8m2!3d35.6658541!4d10.0962344!16s%2Fg%2F11_qycbxg!19sChIJ7VERv0zF_RIRrq2nHzH4Kfw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated establishment specializing in transportation stops in Kairouan?</t>
+          <t>Day Plan:
+Morning: Visiting Mosquee Okba Ibn Nafaa to explore the historical significance and architectural beauty of this iconic landmark.
+Mid-Morning: Trying local cuisine at Ka3boura Fast Food, known for its excellent ratings and delicious food.
+Midday: Exploring Bassins des Aghlabides, a remarkable historical site that showcases the ingenuity of the Islamic civilization.
+Afternoon: Enjoying a guided tour of the Sidi Amor Abada Mausoleum to gain insights into the history and culture of the region.
+Evening: Taking a leisurely stroll through Medina, the old town of Kairouan, experiencing the vibrant atmosphere and exploring traditional markets.
+Night: Participating in a traditional Tunisian music and dance performance at Jemma el Fna square, immersing in the rich cultural heritage of the city.</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ka3boura Fast Food, located in Kairouan, Tunisia, is a popular restaurant known for its excellent ratings and delicious food. It is conveniently situated at rue tarbia, making it easily accessible to locals and visitors alike. The restaurant opens daily from 7:00 AM to 11:00 PM, offering a wide range of dining options to satisfy every craving. Whether you're looking for a quick bite or a leisurely meal, Ka3boura Fast Food has something for everyone.
+"Chez Mamie" is a popular cafe in Kairouan, Tunisia. It offers a cozy atmosphere, with indoor and outdoor seating. The menu includes a variety of breakfast and brunch items, as well as freshly squeezed smoothies. The cafe is located conveniently close to the Great Mosque of Kairouan, making it a great spot to grab a bite before or after exploring the historic site. With an impressive 4.4 rating based on 55 reviews, Chez Mamie is a top-rated destination for locals and tourists alike.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12298,12 +18554,70 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for an Arret de bus, check out Aouani located at Av. de la Republique, Kairouan. This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Aouani/data=!4m7!3m6!1s0x12fdc5432091f485:0x19d1b657c7bc01cb!8m2!3d35.6838646!4d10.0931002!16s%2Fg%2F11_rhc6n2!19sChIJhfSRIEPF_RIRywG8x1e20Rk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Arret de bus destination in Kairouan?</t>
+          <t>Day Plan:
+Morning: Begin your day by exploring the historic Kairouan Grand Mosque, an architectural marvel showcasing stunning Islamic designs. Immerse yourself in its rich history and religious significance.
+Mid-Morning: Stroll through the Musée du Tapis, where you can delve into the intricate world of traditional carpet weaving, an integral part of Kairouan's cultural heritage.
+Midday: Delight your taste buds with an authentic Tunisian lunch at Restaurant Salem, renowned for its culinary excellence and welcoming ambiance.
+Afternoon: Visit the Sidi Ghariani, a beautiful mausoleum that combines architectural beauty and historical significance.
+Evening: Indulge in a culinary adventure at Ci Gusta Kairouan, known for its exceptional sundaes and delectable treats.
+Night: Experience the vibrant nightlife at Salle des Fetes Bensikali, a popular discotheque that offers a lively atmosphere and captivating entertainment.</t>
+        </is>
+      </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Salem is a highly-rated dining establishment located in Kairouan, Tunisia, offering a delectable culinary experience with a 4.0 rating based on 2 reviews. The restaurant is renowned for its authentic cuisine, served in a welcoming ambiance. Conveniently situated at M3JH+WC4 restaurant salem ( ademie) mT`m lslm, RR99, Kairouan, the restaurant's coordinates are 35.690904194799, 10.055042442587. You can reach Restaurant Salem by phone at 97 868 511 for reservations or inquiries.
+Café Pizzeria Dolce Vita (Cafe Picine) is well-rated (4.3) and has three reviews. It's located at Boulevard H Chaker in Kairouan, Tunisia. It offers a café and pizzeria menu with a poolside dining option.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.
+Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.
+Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.
+Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.
+The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12401,12 +18715,86 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out `qb@ located at Boulevard H Chaker, Kairouan. This top-rated destination is perfect for Arret de bus lovers and offers Arret de bus to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at or call them at .</t>
+          <t>This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>Where in Kairouan can you find a top-rated destination with a 5.0 rating, specifically tailored for Arret de bus enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Medina of Kairouan, a UNESCO World Heritage site, and soak in its ancient ambiance.
+**Mid-Morning:**
+* Visit the Musée du Tapis to admire the exquisite Kairouani carpets and learn about the region's rich carpet-making tradition.
+**Midday:**
+* Indulge in a traditional Tunisian lunch at Restaurant mT`m dr l`yl@, known for its delicious local cuisine.
+**Afternoon:**
+* Discover the architectural marvels of the Kairouan Grand Mosque, including its grand courtyard, intricately decorated pillars, and iconic minaret.
+**Evening:**
+* Head to Salle des Fêtes Bensikali for a vibrant nightlife experience and dance the night away.
+**Night:**
+* Relax and unwind at Dar Chama Guest House, a charming and comfortable accommodation option, and enjoy the tranquil atmosphere of its courtyard.</t>
+        </is>
+      </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Restaurant mT`m dr l`yl@**
+mT`m dr l`yl@ is a highly rated restaurant located in Kairouan, Tunisia. It offers a variety of dining options, including traditional Tunisian cuisine. The restaurant is known for its friendly owner and excellent service. It is open from 8 am to 10 pm daily, except for Fridays.
+**Highlights:**
+* Convenient location in the center of the city
+* Accommodating staff and pleasant atmosphere
+* Delicious selection of Tunisian dishes
+**Coordinates:**
+* Latitude: 35.6727967
+* Longitude: 10.0949059
+Chez Mamie is a cafe in Kairouan, Tunisia. It has a 4.4-star rating on Google, and is known for its smoothies and proximity to the Great Mosque of Kairouan. The cafe is open from 8am to 11pm, and is located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100.
+Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12504,12 +18892,73 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out lmnSwr@ 1 located at lmnSwr@ 1, Kairouan. This top-rated destination is perfect for Arret de bus lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%86%D8%B5%D9%88%D8%B1%D8%A9+1%E2%80%AD/data=!4m7!3m6!1s0x12fddaada4dcb551:0x91037b3228cab30f!8m2!3d35.6619425!4d10.0900438!16s%2Fg%2F1hdz974xr!19sChIJUbXcpK3a_RIRD7PKKDJ7A5E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated spot for Arret de bus lovers with GPS coordinates 35.6727967, 10.0949059 in Kairouan?</t>
+          <t>Day Plan:
+Morning: Explore the historic Great Mosque of Kairouan, a UNESCO World Heritage Site known for its impressive architecture.
+Mid-Morning: Visit the Musée Historique de Kairouan to learn about the city's rich history and culture.
+Midday: Try local cuisine at Saraya Al Bey, a popular restaurant offering a diverse menu specializing in traditional dishes.
+Afternoon: Take a relaxing walk through the Bassins des Aghlabides, a remarkable historical site that showcases the city's water management system.
+Evening: Visit the Kairouan Grand Mosque, a sacred and architecturally stunning landmark known for its religious significance and intricate decorations.
+Night: Enjoy a vibrant nightlife experience at Salle des Fêtes Bensikali, a renowned discotheque with a lively atmosphere and captivating music.</t>
+        </is>
+      </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Saraya Al Bey**
+Saraya Al Bey is a popular restaurant located in Kairouan, Tunisia (Latitude: 35.678709970301, Longitude: 10.103632375538). It offers a diverse menu, specializing in traditional cuisine, and provides a cozy ambiance for dining. With a 4.0 rating based on 47 reviews, Saraya Al Bey is a well-received dining destination in Kairouan.
+Located in the heart of Kairouan, Cafe saraya is a cozy spot offering a delightful cafe experience. With a warm ambiance and friendly service, it's a popular destination for locals and visitors alike. Enjoy a cup of aromatic coffee or a refreshing beverage, complemented by a delicious selection of cafe eats.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.
+Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.
+Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.
+Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)
+**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.
+Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12607,12 +19056,76 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a convenient transportation option, check out Ibn Rashiq bus station at Boulevard H Chaker, Kairouan. This top-rated bus station is perfect for travelers and offers a range of services. With a rating of 3.0, it's a reliable spot for your transportation needs. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>The Ibn Rashiq bus station, located in Kairouan with the coordinates (35.6727967, 10.0949059), is a transportation service that offers reliable and efficient bus transportation to various destinations.</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated bus station with easy access in Kairouan, providing convenient transportation services?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical and cultural landmarks of Kairouan, such as the Great Mosque of Kairouan, Mosquee Okba Ibn Nafaa, and Sidi Ghariani.
+**Mid-Morning:**
+- Take a guided tour of the Medina, the old town of Kairouan, to discover its vibrant markets and traditional architecture.
+**Midday:**
+- Visit Dar Alouini for a traditional Tunisian lunch amidst a charming ambiance. Afterward, enjoy a leisurely stroll through the scenic Kasbah district.
+**Afternoon:**
+- Engage in outdoor activities like hiking or biking at the Sidi Ben Aissa Archaeological and Traditional Museum, which offers beautiful landscapes and a glimpse into the region's history.
+**Evening:**
+- Experience traditional music and dance at Salle des Fêtes Bensikali, a renowned discotheque in the nearby city of M'saken.
+**Night:**
+- Head to Pizzeria L'Artiste Kairouan for an authentic Italian dinner and savor the flavors of local wood-fired pizzas. Conclude the day by relaxing at Vintage Bistro, a cozy eatery with a delightful ambiance.</t>
+        </is>
+      </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Piccolo Mondo, located at Av. Ibn El-Jazzar in Kairouan, Tunisia, is a popular restaurant offering a variety of dishes, with a focus on pizzas. It has received an impressive rating of 4.0 based on 27 reviews. The restaurant offers a cozy ambiance and friendly service, making it a great choice for a casual dining experience.
+In the heart of Kairouan lies the charming City Lounge Cafe, a haven for coffee and tea lovers. Located at (35.6885427, 10.0946527), this cafe offers a cozy atmosphere with a focus on providing delicious beverages. With a rating of 4.0 from 7 reviews, it is a popular spot for locals and tourists alike.
+Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.
+mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.
+**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.
+Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.
+La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.
+Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.
+Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.
+Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.
+Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.
+The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.
+Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.
+DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.
+Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.
+The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.
+Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.
+Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.
+Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.
+"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.
+Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.
+The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.
+Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.
+Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.
+Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
